--- a/src/main/resources/全方位测试输出表样板.xlsx
+++ b/src/main/resources/全方位测试输出表样板.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
     <sheet name="满配伤害" sheetId="2" r:id="rId2"/>
     <sheet name="指标" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="回合数" localSheetId="1">OFFSET(满配伤害!$A$5,1,0,COUNT(满配伤害!$M:$M))</definedName>
+    <definedName name="累积伤害" localSheetId="1">OFFSET(满配伤害!$M$5,1,0,COUNT(满配伤害!$M:$M))</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="74">
   <si>
     <t>角色</t>
   </si>
@@ -96,7 +100,25 @@
     <t>5星</t>
   </si>
   <si>
-    <t>伤害表</t>
+    <t>满配伤害表</t>
+  </si>
+  <si>
+    <t>羁绊表</t>
+  </si>
+  <si>
+    <t>1花</t>
+  </si>
+  <si>
+    <t>2花</t>
+  </si>
+  <si>
+    <t>3花</t>
+  </si>
+  <si>
+    <t>4花</t>
+  </si>
+  <si>
+    <t>5花</t>
   </si>
   <si>
     <t>行动轴</t>
@@ -114,21 +136,6 @@
     <t>1T</t>
   </si>
   <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>3a</t>
-  </si>
-  <si>
-    <t>4a</t>
-  </si>
-  <si>
-    <t>5a</t>
-  </si>
-  <si>
     <t>2T</t>
   </si>
   <si>
@@ -141,6 +148,9 @@
     <t>5T</t>
   </si>
   <si>
+    <t>输出表</t>
+  </si>
+  <si>
     <t>6T</t>
   </si>
   <si>
@@ -150,6 +160,9 @@
     <t>8T</t>
   </si>
   <si>
+    <t>输出比值</t>
+  </si>
+  <si>
     <t>9T</t>
   </si>
   <si>
@@ -162,161 +175,87 @@
     <t>12T</t>
   </si>
   <si>
-    <t>6a</t>
-  </si>
-  <si>
     <t>13T</t>
   </si>
   <si>
-    <t>7a</t>
-  </si>
-  <si>
     <t>14T</t>
   </si>
   <si>
-    <t>8a</t>
-  </si>
-  <si>
     <t>15T</t>
   </si>
   <si>
-    <t>9a</t>
-  </si>
-  <si>
     <t>16T</t>
   </si>
   <si>
-    <t>10a</t>
-  </si>
-  <si>
     <t>17T</t>
   </si>
   <si>
-    <t>11a</t>
-  </si>
-  <si>
     <t>18T</t>
   </si>
   <si>
-    <t>12a</t>
-  </si>
-  <si>
     <t>19T</t>
   </si>
   <si>
-    <t>13a</t>
-  </si>
-  <si>
     <t>20T</t>
   </si>
   <si>
-    <t>14a</t>
-  </si>
-  <si>
     <t>21T</t>
   </si>
   <si>
-    <t>15a</t>
-  </si>
-  <si>
     <t>22T</t>
   </si>
   <si>
-    <t>16a</t>
-  </si>
-  <si>
     <t>23T</t>
   </si>
   <si>
-    <t>17a</t>
-  </si>
-  <si>
     <t>24T</t>
   </si>
   <si>
-    <t>18a</t>
-  </si>
-  <si>
     <t>25T</t>
   </si>
   <si>
-    <t>19a</t>
-  </si>
-  <si>
     <t>26T</t>
   </si>
   <si>
-    <t>20a</t>
-  </si>
-  <si>
     <t>27T</t>
   </si>
   <si>
-    <t>21a</t>
-  </si>
-  <si>
     <t>28T</t>
   </si>
   <si>
-    <t>22a</t>
-  </si>
-  <si>
     <t>29T</t>
   </si>
   <si>
-    <t>23a</t>
-  </si>
-  <si>
     <t>30T</t>
   </si>
   <si>
-    <t>24a</t>
-  </si>
-  <si>
     <t>31T</t>
   </si>
   <si>
-    <t>25a</t>
-  </si>
-  <si>
     <t>总伤害</t>
   </si>
   <si>
-    <t>羁绊表</t>
-  </si>
-  <si>
-    <t>1花</t>
-  </si>
-  <si>
-    <t>2花</t>
-  </si>
-  <si>
-    <t>3花</t>
-  </si>
-  <si>
-    <t>4花</t>
-  </si>
-  <si>
-    <t>5花</t>
-  </si>
-  <si>
-    <t>输出表</t>
-  </si>
-  <si>
-    <t>输出比值</t>
+    <t>布魔计算器内测版本V1 作者 小r</t>
+  </si>
+  <si>
+    <t>这部分用于幕后计算</t>
+  </si>
+  <si>
+    <t>合计伤害</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,32 +264,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="20"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF0A0101"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,6 +292,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -371,7 +306,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -386,6 +321,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -395,14 +369,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,14 +391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,22 +406,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -462,14 +413,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,7 +430,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +466,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +502,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,25 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,67 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +610,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,8 +632,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -672,13 +648,102 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,7 +752,83 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +844,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,21 +902,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -777,10 +923,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,19 +935,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,116 +956,116 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,10 +1078,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -993,6 +1229,29 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.05"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1036,8 +1295,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr altLang="en-US"/>
               <a:t>累计伤害曲线</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1053,23 +1314,24 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0934166666666667"/>
-          <c:y val="0.111632947976879"/>
-          <c:w val="0.869361111111111"/>
-          <c:h val="0.775"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"累积伤害"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累积伤害</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1085,12 +1347,23 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[0]满配伤害!回合数</c:f>
+              <c:numCache>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>角色信息!$M$11:$M$39</c:f>
+              <c:f>[0]满配伤害!累积伤害</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1106,11 +1379,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="736477433"/>
-        <c:axId val="914131139"/>
+        <c:axId val="78411379"/>
+        <c:axId val="170125959"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="736477433"/>
+        <c:axId val="78411379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1424,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914131139"/>
+        <c:crossAx val="170125959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1159,7 +1432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="914131139"/>
+        <c:axId val="170125959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1482,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="736477433"/>
+        <c:crossAx val="78411379"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1249,9 +1522,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1815,25 +2090,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>27940</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>446405</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="195580" y="101600"/>
-        <a:ext cx="4572000" cy="3578860"/>
+        <a:off x="12247880" y="4538980"/>
+        <a:ext cx="7117080" cy="3255645"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1841,6 +2116,113 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>39370</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15909925" y="2585720"/>
+          <a:ext cx="3570605" cy="1765935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>羁绊表：将同位置换为更低羁绊的角色，伤害发生的变化（百分比），下同</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>五星权重：将同位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>星技能取消（其他属性不变）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>输出表：各个角色输出占比</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>贡献度表：将同位置改为无技能同属性职业木桩</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>练度表：将同位置攻击力下降对应比例</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2106,7 +2488,7 @@
   <sheetPr/>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -2151,17 +2533,17 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -2355,7 +2737,7 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="17:18">
-      <c r="Q33" s="5" t="s">
+      <c r="Q33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="R33" t="s">
@@ -2426,1497 +2808,1526 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="U58" sqref="P25:U58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="7.22222222222222" customWidth="1"/>
-    <col min="5" max="5" width="19.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="19.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="10.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="8.17592592592593" customWidth="1"/>
+    <col min="3" max="3" width="17.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.17592592592593" customWidth="1"/>
+    <col min="5" max="5" width="17.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="8.17592592592593" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="8.17592592592593" customWidth="1"/>
     <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="8.17592592592593" customWidth="1"/>
+    <col min="11" max="11" width="17.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="16.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="4.12962962962963" customWidth="1"/>
+    <col min="21" max="21" width="2.85185185185185" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="19" customHeight="1"/>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1" spans="1:13">
-      <c r="A20" s="1" t="s">
+    <row r="1" ht="16" customHeight="1" spans="1:27">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:13">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" customFormat="1" spans="2:13">
-      <c r="B22" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="17"/>
+      <c r="O1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="V1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" ht="15.15" spans="1:27">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="18"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="O3" s="11"/>
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="D22" t="s">
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="9"/>
+      <c r="W3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="20"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="21"/>
+      <c r="O4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="22">
+        <f>P55/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
+        <f>Q55/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="22">
+        <f>R55/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="22">
+        <f>S55/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="32">
+        <v>1</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="30"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="22">
+        <f>P56/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22">
+        <f>Q56/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="22">
+        <f>R56/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="22">
+        <f>S56/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="32">
+        <v>1</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="30"/>
+    </row>
+    <row r="6" ht="15" spans="1:27">
+      <c r="A6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(K6="","",SUM(C6,E6,G6,I6,K6))</f>
+        <v/>
+      </c>
+      <c r="M6" s="25" t="str">
+        <f>IF(L6="","",SUM(L$6:L6))</f>
+        <v/>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="22">
+        <f>P57/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <f>Q57/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <f>R57/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <f>S57/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="32">
+        <v>1</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="30"/>
+    </row>
+    <row r="7" ht="15" spans="1:27">
+      <c r="A7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" ref="L7:L36" si="0">IF(K7="","",SUM(C7,E7,G7,I7,K7))</f>
+        <v/>
+      </c>
+      <c r="M7" s="25" t="str">
+        <f>IF(L7="","",SUM(L$6:L7))</f>
+        <v/>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="22">
+        <f>P58/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <f>Q58/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <f>R58/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <f>S58/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="32">
+        <v>1</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="30"/>
+    </row>
+    <row r="8" ht="15" spans="1:27">
+      <c r="A8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" s="25" t="str">
+        <f>IF(L8="","",SUM(L$6:L8))</f>
+        <v/>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="22">
+        <f>P59/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <f>Q59/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <f>R59/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
+        <f>S59/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="32">
+        <v>1</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="30"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:27">
+      <c r="A9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="25" t="str">
+        <f>IF(L9="","",SUM(L$6:L9))</f>
+        <v/>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="22">
+        <f>P60/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
+        <f>Q60/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <f>R60/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="22">
+        <f>S60/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="33">
+        <v>1</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="16"/>
+      <c r="X9" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="28"/>
+    </row>
+    <row r="10" ht="15" spans="1:27">
+      <c r="A10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="25" t="str">
+        <f>IF(L10="","",SUM(L$6:L10))</f>
+        <v/>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="V10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:27">
+      <c r="A11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="25" t="str">
+        <f>IF(L11="","",SUM(L$6:L11))</f>
+        <v/>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" ht="15" spans="1:27">
+      <c r="A12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M12" s="25" t="str">
+        <f>IF(L12="","",SUM(L$6:L12))</f>
+        <v/>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:27">
+      <c r="A13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="25" t="str">
+        <f>IF(L13="","",SUM(L$6:L13))</f>
+        <v/>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="27">
+        <f>C37/Q50</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="27">
+        <f>E37/Q50</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="27">
+        <f>G37/Q50</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="27">
+        <f>I37/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="35">
+        <f>K37/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="28"/>
+    </row>
+    <row r="14" ht="15" spans="1:20">
+      <c r="A14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" s="25" t="str">
+        <f>IF(L14="","",SUM(L$6:L14))</f>
+        <v/>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:20">
+      <c r="A15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M15" s="25" t="str">
+        <f>IF(L15="","",SUM(L$6:L15))</f>
+        <v/>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" ht="15" spans="1:20">
+      <c r="A16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M16" s="25" t="str">
+        <f>IF(L16="","",SUM(L$6:L16))</f>
+        <v/>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:20">
+      <c r="A17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M17" s="25" t="str">
+        <f>IF(L17="","",SUM(L$6:L17))</f>
+        <v/>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:20">
+      <c r="A18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M18" s="25" t="str">
+        <f>IF(L18="","",SUM(L$6:L18))</f>
+        <v/>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:20">
+      <c r="A19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M19" s="25" t="str">
+        <f>IF(L19="","",SUM(L$6:L19))</f>
+        <v/>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="15" spans="1:20">
+      <c r="A20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M20" s="25" t="str">
+        <f>IF(L20="","",SUM(L$6:L20))</f>
+        <v/>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="15" spans="1:20">
+      <c r="A21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M21" s="25" t="str">
+        <f>IF(L21="","",SUM(L$6:L21))</f>
+        <v/>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M22" s="25" t="str">
+        <f>IF(L22="","",SUM(L$6:L22))</f>
+        <v/>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="15" spans="1:13">
+      <c r="A23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M23" s="25" t="str">
+        <f>IF(L23="","",SUM(L$6:L23))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="15" spans="1:13">
+      <c r="A24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M24" s="25" t="str">
+        <f>IF(L24="","",SUM(L$6:L24))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:13">
+      <c r="A25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M25" s="25" t="str">
+        <f>IF(L25="","",SUM(L$6:L25))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:13">
+      <c r="A26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M26" s="25" t="str">
+        <f>IF(L26="","",SUM(L$6:L26))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:13">
+      <c r="A27" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M27" s="25" t="str">
+        <f>IF(L27="","",SUM(L$6:L27))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:13">
+      <c r="A28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M28" s="25" t="str">
+        <f>IF(L28="","",SUM(L$6:L28))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:13">
+      <c r="A29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M29" s="25" t="str">
+        <f>IF(L29="","",SUM(L$6:L29))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:13">
+      <c r="A30" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M30" s="25" t="str">
+        <f>IF(L30="","",SUM(L$6:L30))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:13">
+      <c r="A31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M31" s="25" t="str">
+        <f>IF(L31="","",SUM(L$6:L31))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:13">
+      <c r="A32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M32" s="25" t="str">
+        <f>IF(L32="","",SUM(L$6:L32))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:13">
+      <c r="A33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M33" s="25" t="str">
+        <f>IF(L33="","",SUM(L$6:L33))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:13">
+      <c r="A34" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M34" s="25" t="str">
+        <f>IF(L34="","",SUM(L$6:L34))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:13">
+      <c r="A35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M35" s="25" t="str">
+        <f>IF(L35="","",SUM(L$6:L35))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:13">
+      <c r="A36" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M36" s="25" t="str">
+        <f>IF(L36="","",SUM(L$6:L36))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="15.15" spans="1:13">
+      <c r="A37" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16">
+        <f>SUM(C$6:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16">
+        <f>SUM(E$6:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16">
+        <f>SUM(G$6:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16">
+        <f>SUM(I$6:I36)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16">
+        <f>SUM(K$6:K36)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="M37" s="28"/>
+    </row>
+    <row r="39" spans="9:13">
+      <c r="I39" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="9:13">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="9:13">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="15:17">
+      <c r="O50" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50">
+        <f>SUM(C37,E37,G37,I37,K37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>IF(P50=0,1,P50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="15.15"/>
+    <row r="52" spans="15:27">
+      <c r="O52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="V52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" ht="15.15" spans="15:27">
+      <c r="O53" s="7"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+    </row>
+    <row r="54" spans="15:27">
+      <c r="O54" s="11"/>
+      <c r="P54" t="s">
         <v>28</v>
       </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="Q54" t="s">
         <v>29</v>
       </c>
-      <c r="M22" t="s">
+      <c r="R54" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:13">
-      <c r="A23" t="s">
+      <c r="S54" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="T54" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C23">
-        <v>1000</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23">
-        <v>1000</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23">
-        <v>1000</v>
-      </c>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23">
-        <v>1000</v>
-      </c>
-      <c r="J23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23">
-        <v>1000</v>
-      </c>
-      <c r="L23">
-        <f t="shared" ref="L23:L53" si="0">SUM(C23,E23,G23,I23,K23)</f>
-        <v>5000</v>
-      </c>
-      <c r="M23">
-        <f>SUM(L$23:L23)</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:13">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24">
-        <v>1400</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24">
-        <v>1000</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24">
-        <v>1000</v>
-      </c>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24">
-        <v>1000</v>
-      </c>
-      <c r="J24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24">
-        <v>1000</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>5400</v>
-      </c>
-      <c r="M24">
-        <f>SUM(L$23:L24)</f>
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>1000</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25">
-        <v>1000</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25">
-        <v>1000</v>
-      </c>
-      <c r="H25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25">
-        <v>1000</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25">
-        <v>1000</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="M25">
-        <f>SUM(L$23:L25)</f>
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>1000</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>1000</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26">
-        <v>200</v>
-      </c>
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26">
-        <v>1000</v>
-      </c>
-      <c r="J26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26">
-        <v>1000</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>4200</v>
-      </c>
-      <c r="M26">
-        <f>SUM(L$23:L26)</f>
-        <v>19600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27">
-        <v>1000</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27">
-        <v>800</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-      <c r="H27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27">
-        <v>1000</v>
-      </c>
-      <c r="J27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27">
-        <v>20000</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>23800</v>
-      </c>
-      <c r="M27">
-        <f>SUM(L$23:L27)</f>
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <v>1000</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <v>1000</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28">
-        <v>1000</v>
-      </c>
-      <c r="H28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28">
-        <v>1000</v>
-      </c>
-      <c r="J28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28">
-        <v>1000</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="M28">
-        <f>SUM(L$23:L28)</f>
-        <v>48400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <v>1000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29">
-        <v>1000</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29">
-        <v>1000</v>
-      </c>
-      <c r="H29" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29">
-        <v>1000</v>
-      </c>
-      <c r="J29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29">
-        <v>1000</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="M29">
-        <f>SUM(L$23:L29)</f>
-        <v>53400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>1000</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30">
-        <v>1000</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30">
-        <v>1000</v>
-      </c>
-      <c r="H30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30">
-        <v>1000</v>
-      </c>
-      <c r="J30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30">
-        <v>1000</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="M30">
-        <f>SUM(L$23:L30)</f>
-        <v>58400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>1000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31">
-        <v>1000</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31">
-        <v>1000</v>
-      </c>
-      <c r="H31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31">
-        <v>1000</v>
-      </c>
-      <c r="J31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31">
-        <v>1000</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="M31">
-        <f>SUM(L$23:L31)</f>
-        <v>63400</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>1000</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32">
-        <v>1000</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32">
-        <v>1000</v>
-      </c>
-      <c r="H32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32">
-        <v>1000</v>
-      </c>
-      <c r="J32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32">
-        <v>20000</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
-      <c r="M32">
-        <f>SUM(L$23:L32)</f>
-        <v>87400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>1000</v>
-      </c>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33">
-        <v>1000</v>
-      </c>
-      <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33">
-        <v>1000</v>
-      </c>
-      <c r="H33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33">
-        <v>1000</v>
-      </c>
-      <c r="J33" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33">
-        <v>1000</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="M33">
-        <f>SUM(L$23:L33)</f>
-        <v>92400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>1001</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34">
-        <v>1001</v>
-      </c>
-      <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34">
-        <v>1001</v>
-      </c>
-      <c r="H34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34">
-        <v>1001</v>
-      </c>
-      <c r="J34" t="s">
-        <v>48</v>
-      </c>
-      <c r="K34">
-        <v>1001</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>5005</v>
-      </c>
-      <c r="M34">
-        <f>SUM(L$23:L34)</f>
-        <v>97405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>1002</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35">
-        <v>1002</v>
-      </c>
-      <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35">
-        <v>1002</v>
-      </c>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35">
-        <v>1002</v>
-      </c>
-      <c r="J35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K35">
-        <v>1002</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>5010</v>
-      </c>
-      <c r="M35">
-        <f>SUM(L$23:L35)</f>
-        <v>102415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>1003</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36">
-        <v>1003</v>
-      </c>
-      <c r="F36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36">
-        <v>1003</v>
-      </c>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36">
-        <v>1003</v>
-      </c>
-      <c r="J36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36">
-        <v>1003</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>5015</v>
-      </c>
-      <c r="M36">
-        <f>SUM(L$23:L36)</f>
-        <v>107430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>1004</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37">
-        <v>1004</v>
-      </c>
-      <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37">
-        <v>1004</v>
-      </c>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37">
-        <v>1004</v>
-      </c>
-      <c r="J37" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37">
-        <v>1004</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>5020</v>
-      </c>
-      <c r="M37">
-        <f>SUM(L$23:L37)</f>
-        <v>112450</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38">
-        <v>1005</v>
-      </c>
-      <c r="D38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38">
-        <v>1005</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38">
-        <v>1005</v>
-      </c>
-      <c r="H38" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38">
-        <v>1005</v>
-      </c>
-      <c r="J38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38">
-        <v>1005</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>5025</v>
-      </c>
-      <c r="M38">
-        <f>SUM(L$23:L38)</f>
-        <v>117475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39">
-        <v>1006</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39">
-        <v>1006</v>
-      </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39">
-        <v>1006</v>
-      </c>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39">
-        <v>1006</v>
-      </c>
-      <c r="J39" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39">
-        <v>1006</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>5030</v>
-      </c>
-      <c r="M39">
-        <f>SUM(L$23:L39)</f>
-        <v>122505</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40">
-        <v>1007</v>
-      </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40">
-        <v>1007</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40">
-        <v>1007</v>
-      </c>
-      <c r="H40" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40">
-        <v>1007</v>
-      </c>
-      <c r="J40" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40">
-        <v>1007</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>5035</v>
-      </c>
-      <c r="M40">
-        <f>SUM(L$23:L40)</f>
-        <v>127540</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41">
-        <v>1008</v>
-      </c>
-      <c r="D41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41">
-        <v>1008</v>
-      </c>
-      <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41">
-        <v>1008</v>
-      </c>
-      <c r="H41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41">
-        <v>1008</v>
-      </c>
-      <c r="J41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K41">
-        <v>1008</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>5040</v>
-      </c>
-      <c r="M41">
-        <f>SUM(L$23:L41)</f>
-        <v>132580</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42">
-        <v>1009</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42">
-        <v>1009</v>
-      </c>
-      <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42">
-        <v>1009</v>
-      </c>
-      <c r="H42" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42">
-        <v>1009</v>
-      </c>
-      <c r="J42" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42">
-        <v>1009</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>5045</v>
-      </c>
-      <c r="M42">
-        <f>SUM(L$23:L42)</f>
-        <v>137625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43">
-        <v>1010</v>
-      </c>
-      <c r="D43" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43">
-        <v>1010</v>
-      </c>
-      <c r="F43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43">
-        <v>1010</v>
-      </c>
-      <c r="H43" t="s">
-        <v>64</v>
-      </c>
-      <c r="I43">
-        <v>1010</v>
-      </c>
-      <c r="J43" t="s">
-        <v>66</v>
-      </c>
-      <c r="K43">
-        <v>1010</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>5050</v>
-      </c>
-      <c r="M43">
-        <f>SUM(L$23:L43)</f>
-        <v>142675</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44">
-        <v>1011</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44">
-        <v>1011</v>
-      </c>
-      <c r="F44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44">
-        <v>1011</v>
-      </c>
-      <c r="H44" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44">
-        <v>1011</v>
-      </c>
-      <c r="J44" t="s">
-        <v>68</v>
-      </c>
-      <c r="K44">
-        <v>1011</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>5055</v>
-      </c>
-      <c r="M44">
-        <f>SUM(L$23:L44)</f>
-        <v>147730</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45">
-        <v>1012</v>
-      </c>
-      <c r="D45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45">
-        <v>1012</v>
-      </c>
-      <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45">
-        <v>1012</v>
-      </c>
-      <c r="H45" t="s">
-        <v>68</v>
-      </c>
-      <c r="I45">
-        <v>1012</v>
-      </c>
-      <c r="J45" t="s">
-        <v>70</v>
-      </c>
-      <c r="K45">
-        <v>1012</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>5060</v>
-      </c>
-      <c r="M45">
-        <f>SUM(L$23:L45)</f>
-        <v>152790</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46">
-        <v>1013</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46">
-        <v>1013</v>
-      </c>
-      <c r="F46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46">
-        <v>1013</v>
-      </c>
-      <c r="H46" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46">
-        <v>1013</v>
-      </c>
-      <c r="J46" t="s">
-        <v>72</v>
-      </c>
-      <c r="K46">
-        <v>1013</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>5065</v>
-      </c>
-      <c r="M46">
-        <f>SUM(L$23:L46)</f>
-        <v>157855</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47">
-        <v>1014</v>
-      </c>
-      <c r="D47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47">
-        <v>1014</v>
-      </c>
-      <c r="F47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47">
-        <v>1014</v>
-      </c>
-      <c r="H47" t="s">
-        <v>72</v>
-      </c>
-      <c r="I47">
-        <v>1014</v>
-      </c>
-      <c r="J47" t="s">
-        <v>74</v>
-      </c>
-      <c r="K47">
-        <v>1014</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>5070</v>
-      </c>
-      <c r="M47">
-        <f>SUM(L$23:L47)</f>
-        <v>162925</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48">
-        <v>1015</v>
-      </c>
-      <c r="D48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48">
-        <v>1015</v>
-      </c>
-      <c r="F48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48">
-        <v>1015</v>
-      </c>
-      <c r="H48" t="s">
-        <v>74</v>
-      </c>
-      <c r="I48">
-        <v>1015</v>
-      </c>
-      <c r="J48" t="s">
-        <v>76</v>
-      </c>
-      <c r="K48">
-        <v>1015</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>5075</v>
-      </c>
-      <c r="M48">
-        <f>SUM(L$23:L48)</f>
-        <v>168000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49">
-        <v>1016</v>
-      </c>
-      <c r="D49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49">
-        <v>1016</v>
-      </c>
-      <c r="F49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49">
-        <v>1016</v>
-      </c>
-      <c r="H49" t="s">
-        <v>76</v>
-      </c>
-      <c r="I49">
-        <v>1016</v>
-      </c>
-      <c r="J49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K49">
-        <v>1016</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>5080</v>
-      </c>
-      <c r="M49">
-        <f>SUM(L$23:L49)</f>
-        <v>173080</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50">
-        <v>1017</v>
-      </c>
-      <c r="D50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50">
-        <v>1017</v>
-      </c>
-      <c r="F50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50">
-        <v>1017</v>
-      </c>
-      <c r="H50" t="s">
-        <v>78</v>
-      </c>
-      <c r="I50">
-        <v>1017</v>
-      </c>
-      <c r="J50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K50">
-        <v>1017</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>5085</v>
-      </c>
-      <c r="M50">
-        <f>SUM(L$23:L50)</f>
-        <v>178165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51">
-        <v>1018</v>
-      </c>
-      <c r="D51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51">
-        <v>1018</v>
-      </c>
-      <c r="F51" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51">
-        <v>1018</v>
-      </c>
-      <c r="H51" t="s">
-        <v>80</v>
-      </c>
-      <c r="I51">
-        <v>1018</v>
-      </c>
-      <c r="J51" t="s">
-        <v>82</v>
-      </c>
-      <c r="K51">
-        <v>1018</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>5090</v>
-      </c>
-      <c r="M51">
-        <f>SUM(L$23:L51)</f>
-        <v>183255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52">
-        <v>1019</v>
-      </c>
-      <c r="D52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52">
-        <v>1019</v>
-      </c>
-      <c r="F52" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52">
-        <v>1019</v>
-      </c>
-      <c r="H52" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52">
-        <v>1019</v>
-      </c>
-      <c r="J52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K52">
-        <v>1019</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>5095</v>
-      </c>
-      <c r="M52">
-        <f>SUM(L$23:L52)</f>
-        <v>188350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53">
-        <v>1020</v>
-      </c>
-      <c r="D53" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53">
-        <v>1020</v>
-      </c>
-      <c r="F53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53">
-        <v>1020</v>
-      </c>
-      <c r="H53" t="s">
-        <v>84</v>
-      </c>
-      <c r="I53">
-        <v>1020</v>
-      </c>
-      <c r="J53" t="s">
-        <v>86</v>
-      </c>
-      <c r="K53">
-        <v>1020</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>5100</v>
-      </c>
-      <c r="M53">
-        <f>SUM(L$23:L53)</f>
-        <v>193450</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54">
-        <f>SUM(C$23:C53)</f>
-        <v>31610</v>
-      </c>
-      <c r="E54">
-        <f>SUM(E$23:E53)</f>
-        <v>31010</v>
-      </c>
-      <c r="G54">
-        <f>SUM(G$23:G53)</f>
-        <v>30410</v>
-      </c>
-      <c r="I54">
-        <f>SUM(I$23:I53)</f>
-        <v>31210</v>
-      </c>
-      <c r="K54">
-        <f>SUM(K$23:K53)</f>
-        <v>69210</v>
+      <c r="V54" s="9"/>
+      <c r="W54" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X54" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="20"/>
+    </row>
+    <row r="55" spans="15:27">
+      <c r="O55" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T55" s="32">
+        <v>1</v>
+      </c>
+      <c r="V55" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="30"/>
+    </row>
+    <row r="56" spans="15:27">
+      <c r="O56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T56" s="32">
+        <v>1</v>
+      </c>
+      <c r="V56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="30"/>
+    </row>
+    <row r="57" spans="15:27">
+      <c r="O57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T57" s="32">
+        <v>1</v>
+      </c>
+      <c r="V57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="30"/>
+    </row>
+    <row r="58" spans="15:27">
+      <c r="O58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T58" s="32">
+        <v>1</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="30"/>
+    </row>
+    <row r="59" spans="15:27">
+      <c r="O59" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T59" s="32">
+        <v>1</v>
+      </c>
+      <c r="V59" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="X59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="30"/>
+    </row>
+    <row r="60" ht="15.15" spans="15:27">
+      <c r="O60" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="33">
+        <v>1</v>
+      </c>
+      <c r="V60" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W60" s="16"/>
+      <c r="X60" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="28"/>
+    </row>
+    <row r="61" spans="15:27">
+      <c r="O61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="17"/>
+      <c r="V61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+    </row>
+    <row r="62" ht="15.15" spans="15:27">
+      <c r="O62" s="7"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="18"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+    </row>
+    <row r="63" spans="15:27">
+      <c r="O63" s="11"/>
+      <c r="P63" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>19</v>
+      </c>
+      <c r="R63" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" t="s">
+        <v>21</v>
+      </c>
+      <c r="T63" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="V63" s="9"/>
+      <c r="W63" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X63" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z63" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA63" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" ht="15.15" spans="15:27">
+      <c r="O64" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T64" s="32">
+        <v>1</v>
+      </c>
+      <c r="V64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="28"/>
+    </row>
+    <row r="65" spans="15:20">
+      <c r="O65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T65" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="15:20">
+      <c r="O66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T66" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="15:20">
+      <c r="O67" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T67" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="15:20">
+      <c r="O68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T68" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="15.15" spans="15:20">
+      <c r="O69" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A20:M21"/>
+  <mergeCells count="22">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="O1:T2"/>
+    <mergeCell ref="O10:T11"/>
+    <mergeCell ref="V10:AA11"/>
+    <mergeCell ref="V1:AA2"/>
+    <mergeCell ref="O14:T15"/>
+    <mergeCell ref="I39:M41"/>
+    <mergeCell ref="O52:T53"/>
+    <mergeCell ref="V52:AA53"/>
+    <mergeCell ref="V61:AA62"/>
+    <mergeCell ref="O61:T62"/>
   </mergeCells>
+  <conditionalFormatting sqref="C37:K37">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04df54c2-6686-482b-998d-58419f1130dd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B36">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="between" text="q">
+      <formula>NOT(ISERROR(SEARCH("q",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C36">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04082140-2be3-48fa-9ef8-2b6656c815c9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L36">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fa567b02-8cb7-4ab9-9f32-c2b6873de73b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M36">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cb15e96d-c1f4-414c-aed7-d6932b9cb8d7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:T8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6 B8:B36">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c02c814a-a21f-4a63-b119-a7595811115a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H36 D6:D36 F6:F36 J6:J36 B6:B36">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="between" text="防御">
+      <formula>NOT(ISERROR(SEARCH("防御",B6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="between" text="必杀">
+      <formula>NOT(ISERROR(SEARCH("必杀",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:K36">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e08b2f76-9da0-43e3-a107-f60df5428692}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04df54c2-6686-482b-998d-58419f1130dd}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C37:K37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04082140-2be3-48fa-9ef8-2b6656c815c9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:C36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{fa567b02-8cb7-4ab9-9f32-c2b6873de73b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L6:L36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{cb15e96d-c1f4-414c-aed7-d6932b9cb8d7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M6:M36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c02c814a-a21f-4a63-b119-a7595811115a}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B6 B8:B36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e08b2f76-9da0-43e3-a107-f60df5428692}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:K36</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A16" sqref="A16:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3948,21 +4359,21 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
@@ -4070,14 +4481,14 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="H11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1"/>
@@ -4086,12 +4497,12 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" t="s">
@@ -4130,97 +4541,13 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A11:F12"/>
-    <mergeCell ref="A16:F17"/>
     <mergeCell ref="H1:M2"/>
     <mergeCell ref="H11:M12"/>
   </mergeCells>

--- a/src/main/resources/全方位测试输出表样板.xlsx
+++ b/src/main/resources/全方位测试输出表样板.xlsx
@@ -250,10 +250,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -277,45 +277,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,7 +287,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +306,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,16 +332,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,13 +362,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -399,23 +415,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +454,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,13 +496,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +532,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,79 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,31 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,25 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,6 +819,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -833,55 +872,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,17 +896,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,10 +923,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,137 +935,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,9 +1142,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -2533,17 +2530,17 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -2810,8 +2807,8 @@
   <sheetPr/>
   <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2922,11 +2919,11 @@
       <c r="S3" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="29" t="s">
         <v>32</v>
       </c>
       <c r="V3" s="9"/>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="30" t="s">
         <v>24</v>
       </c>
       <c r="X3" s="19" t="s">
@@ -2960,18 +2957,18 @@
         <v>0</v>
       </c>
       <c r="Q4" s="22">
-        <f>Q55/$Q$50</f>
+        <f t="shared" ref="Q4:Q9" si="0">Q55/$Q$50</f>
         <v>0</v>
       </c>
       <c r="R4" s="22">
-        <f>R55/$Q$50</f>
+        <f t="shared" ref="R4:R9" si="1">R55/$Q$50</f>
         <v>0</v>
       </c>
       <c r="S4" s="22">
-        <f>S55/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="32">
+        <f t="shared" ref="S4:S9" si="2">S55/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="31">
         <v>1</v>
       </c>
       <c r="V4" s="11" t="s">
@@ -2980,7 +2977,7 @@
       <c r="X4" s="2">
         <v>1</v>
       </c>
-      <c r="AA4" s="30"/>
+      <c r="AA4" s="29"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="11"/>
@@ -3024,22 +3021,22 @@
         <v>15</v>
       </c>
       <c r="P5" s="22">
-        <f>P56/$Q$50</f>
+        <f t="shared" ref="P4:P9" si="3">P56/$Q$50</f>
         <v>0</v>
       </c>
       <c r="Q5" s="22">
-        <f>Q56/$Q$50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5" s="22">
-        <f>R56/$Q$50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="22">
-        <f>S56/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="31">
         <v>1</v>
       </c>
       <c r="V5" s="11" t="s">
@@ -3048,7 +3045,7 @@
       <c r="X5" s="2">
         <v>1</v>
       </c>
-      <c r="AA5" s="30"/>
+      <c r="AA5" s="29"/>
     </row>
     <row r="6" ht="15" spans="1:27">
       <c r="A6" s="14" t="s">
@@ -3066,22 +3063,22 @@
         <v>9</v>
       </c>
       <c r="P6" s="22">
-        <f>P57/$Q$50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q6" s="22">
-        <f>Q57/$Q$50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6" s="22">
-        <f>R57/$Q$50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6" s="22">
-        <f>S57/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="31">
         <v>1</v>
       </c>
       <c r="V6" s="11" t="s">
@@ -3090,14 +3087,14 @@
       <c r="X6" s="2">
         <v>1</v>
       </c>
-      <c r="AA6" s="30"/>
+      <c r="AA6" s="29"/>
     </row>
     <row r="7" ht="15" spans="1:27">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7:L36" si="0">IF(K7="","",SUM(C7,E7,G7,I7,K7))</f>
+        <f t="shared" ref="L7:L36" si="4">IF(K7="","",SUM(C7,E7,G7,I7,K7))</f>
         <v/>
       </c>
       <c r="M7" s="25" t="str">
@@ -3108,22 +3105,22 @@
         <v>10</v>
       </c>
       <c r="P7" s="22">
-        <f>P58/$Q$50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q7" s="22">
-        <f>Q58/$Q$50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7" s="22">
-        <f>R58/$Q$50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S7" s="22">
-        <f>S58/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="31">
         <v>1</v>
       </c>
       <c r="V7" s="11" t="s">
@@ -3132,14 +3129,14 @@
       <c r="X7" s="2">
         <v>1</v>
       </c>
-      <c r="AA7" s="30"/>
+      <c r="AA7" s="29"/>
     </row>
     <row r="8" ht="15" spans="1:27">
       <c r="A8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M8" s="25" t="str">
@@ -3150,22 +3147,22 @@
         <v>11</v>
       </c>
       <c r="P8" s="22">
-        <f>P59/$Q$50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q8" s="22">
-        <f>Q59/$Q$50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="22">
-        <f>R59/$Q$50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S8" s="22">
-        <f>S59/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="31">
         <v>1</v>
       </c>
       <c r="V8" s="11" t="s">
@@ -3174,14 +3171,14 @@
       <c r="X8" s="2">
         <v>1</v>
       </c>
-      <c r="AA8" s="30"/>
+      <c r="AA8" s="29"/>
     </row>
     <row r="9" ht="15.75" spans="1:27">
       <c r="A9" s="14" t="s">
         <v>40</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M9" s="25" t="str">
@@ -3192,41 +3189,41 @@
         <v>12</v>
       </c>
       <c r="P9" s="22">
-        <f>P60/$Q$50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="22">
-        <f>Q60/$Q$50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="22">
-        <f>R60/$Q$50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S9" s="22">
-        <f>S60/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="32">
         <v>1</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="W9" s="16"/>
-      <c r="X9" s="34">
+      <c r="X9" s="33">
         <v>1</v>
       </c>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="28"/>
+      <c r="AA9" s="27"/>
     </row>
     <row r="10" ht="15" spans="1:27">
       <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M10" s="25" t="str">
@@ -3255,7 +3252,7 @@
         <v>43</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M11" s="25" t="str">
@@ -3280,7 +3277,7 @@
         <v>44</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M12" s="25" t="str">
@@ -3288,16 +3285,16 @@
         <v/>
       </c>
       <c r="O12" s="9"/>
-      <c r="P12" s="26" t="s">
+      <c r="P12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="26" t="s">
+      <c r="Q12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="26" t="s">
+      <c r="R12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="26" t="s">
+      <c r="S12" s="19" t="s">
         <v>10</v>
       </c>
       <c r="T12" s="20" t="s">
@@ -3325,7 +3322,7 @@
         <v>45</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M13" s="25" t="str">
@@ -3335,23 +3332,23 @@
       <c r="O13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="26">
         <f>C37/Q50</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="26">
         <f>E37/Q50</f>
         <v>0</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="26">
         <f>G37/Q50</f>
         <v>0</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="26">
         <f>I37/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="34">
         <f>K37/$Q$50</f>
         <v>0</v>
       </c>
@@ -3362,14 +3359,14 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
-      <c r="AA13" s="28"/>
+      <c r="AA13" s="27"/>
     </row>
     <row r="14" ht="15" spans="1:20">
       <c r="A14" s="14" t="s">
         <v>47</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M14" s="25" t="str">
@@ -3390,7 +3387,7 @@
         <v>48</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M15" s="25" t="str">
@@ -3409,7 +3406,7 @@
         <v>49</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M16" s="25" t="str">
@@ -3429,7 +3426,7 @@
       <c r="S16" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="30" t="s">
+      <c r="T16" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3438,7 +3435,7 @@
         <v>50</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M17" s="25" t="str">
@@ -3448,7 +3445,23 @@
       <c r="O17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T17" s="32">
+      <c r="P17" s="22">
+        <f>P64/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="22">
+        <f>Q64/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="22">
+        <f>R64/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="22">
+        <f>S64/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="31">
         <v>1</v>
       </c>
     </row>
@@ -3457,7 +3470,7 @@
         <v>51</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M18" s="25" t="str">
@@ -3467,7 +3480,23 @@
       <c r="O18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="T18" s="32">
+      <c r="P18" s="22">
+        <f>P65/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="22">
+        <f>Q65/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="22">
+        <f>R65/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="22">
+        <f>S65/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="31">
         <v>1</v>
       </c>
     </row>
@@ -3476,7 +3505,7 @@
         <v>52</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M19" s="25" t="str">
@@ -3486,7 +3515,23 @@
       <c r="O19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T19" s="32">
+      <c r="P19" s="22">
+        <f>P66/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="22">
+        <f>Q66/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="22">
+        <f>R66/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="22">
+        <f>S66/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="31">
         <v>1</v>
       </c>
     </row>
@@ -3495,7 +3540,7 @@
         <v>53</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M20" s="25" t="str">
@@ -3505,7 +3550,23 @@
       <c r="O20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="32">
+      <c r="P20" s="22">
+        <f>P67/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="22">
+        <f>Q67/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="22">
+        <f>R67/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="22">
+        <f>S67/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="31">
         <v>1</v>
       </c>
     </row>
@@ -3514,7 +3575,7 @@
         <v>54</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M21" s="25" t="str">
@@ -3524,7 +3585,23 @@
       <c r="O21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T21" s="32">
+      <c r="P21" s="22">
+        <f>P68/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="22">
+        <f>Q68/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="22">
+        <f>R68/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="22">
+        <f>S68/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="31">
         <v>1</v>
       </c>
     </row>
@@ -3533,7 +3610,7 @@
         <v>55</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M22" s="25" t="str">
@@ -3543,11 +3620,23 @@
       <c r="O22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="33">
+      <c r="P22" s="22">
+        <f>P69/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="22">
+        <f>Q69/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="22">
+        <f>R69/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="22">
+        <f>S69/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="32">
         <v>1</v>
       </c>
     </row>
@@ -3556,7 +3645,7 @@
         <v>56</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M23" s="25" t="str">
@@ -3569,7 +3658,7 @@
         <v>57</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M24" s="25" t="str">
@@ -3582,7 +3671,7 @@
         <v>58</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M25" s="25" t="str">
@@ -3595,7 +3684,7 @@
         <v>59</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M26" s="25" t="str">
@@ -3608,7 +3697,7 @@
         <v>60</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M27" s="25" t="str">
@@ -3621,7 +3710,7 @@
         <v>61</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M28" s="25" t="str">
@@ -3634,7 +3723,7 @@
         <v>62</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M29" s="25" t="str">
@@ -3647,7 +3736,7 @@
         <v>63</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M30" s="25" t="str">
@@ -3660,7 +3749,7 @@
         <v>64</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M31" s="25" t="str">
@@ -3673,7 +3762,7 @@
         <v>65</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M32" s="25" t="str">
@@ -3686,7 +3775,7 @@
         <v>66</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M33" s="25" t="str">
@@ -3699,7 +3788,7 @@
         <v>67</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M34" s="25" t="str">
@@ -3712,7 +3801,7 @@
         <v>68</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M35" s="25" t="str">
@@ -3725,7 +3814,7 @@
         <v>69</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M36" s="25" t="str">
@@ -3763,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="16"/>
-      <c r="M37" s="28"/>
+      <c r="M37" s="27"/>
     </row>
     <row r="39" spans="9:13">
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="28" t="s">
         <v>71</v>
       </c>
       <c r="J39" s="1"/>
@@ -3853,11 +3942,11 @@
       <c r="S54" t="s">
         <v>31</v>
       </c>
-      <c r="T54" s="30" t="s">
+      <c r="T54" s="29" t="s">
         <v>32</v>
       </c>
       <c r="V54" s="9"/>
-      <c r="W54" s="31" t="s">
+      <c r="W54" s="30" t="s">
         <v>24</v>
       </c>
       <c r="X54" s="19" t="s">
@@ -3871,7 +3960,7 @@
       <c r="O55" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="32">
+      <c r="T55" s="31">
         <v>1</v>
       </c>
       <c r="V55" s="11" t="s">
@@ -3880,13 +3969,13 @@
       <c r="X55" s="2">
         <v>1</v>
       </c>
-      <c r="AA55" s="30"/>
+      <c r="AA55" s="29"/>
     </row>
     <row r="56" spans="15:27">
       <c r="O56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="T56" s="32">
+      <c r="T56" s="31">
         <v>1</v>
       </c>
       <c r="V56" s="11" t="s">
@@ -3895,13 +3984,13 @@
       <c r="X56" s="2">
         <v>1</v>
       </c>
-      <c r="AA56" s="30"/>
+      <c r="AA56" s="29"/>
     </row>
     <row r="57" spans="15:27">
       <c r="O57" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T57" s="32">
+      <c r="T57" s="31">
         <v>1</v>
       </c>
       <c r="V57" s="11" t="s">
@@ -3910,13 +3999,13 @@
       <c r="X57" s="2">
         <v>1</v>
       </c>
-      <c r="AA57" s="30"/>
+      <c r="AA57" s="29"/>
     </row>
     <row r="58" spans="15:27">
       <c r="O58" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="T58" s="32">
+      <c r="T58" s="31">
         <v>1</v>
       </c>
       <c r="V58" s="11" t="s">
@@ -3925,13 +4014,13 @@
       <c r="X58" s="2">
         <v>1</v>
       </c>
-      <c r="AA58" s="30"/>
+      <c r="AA58" s="29"/>
     </row>
     <row r="59" spans="15:27">
       <c r="O59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T59" s="32">
+      <c r="T59" s="31">
         <v>1</v>
       </c>
       <c r="V59" s="11" t="s">
@@ -3940,7 +4029,7 @@
       <c r="X59" s="2">
         <v>1</v>
       </c>
-      <c r="AA59" s="30"/>
+      <c r="AA59" s="29"/>
     </row>
     <row r="60" ht="15.15" spans="15:27">
       <c r="O60" s="15" t="s">
@@ -3950,19 +4039,19 @@
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
-      <c r="T60" s="33">
+      <c r="T60" s="32">
         <v>1</v>
       </c>
       <c r="V60" s="15" t="s">
         <v>12</v>
       </c>
       <c r="W60" s="16"/>
-      <c r="X60" s="34">
+      <c r="X60" s="33">
         <v>1</v>
       </c>
       <c r="Y60" s="16"/>
       <c r="Z60" s="16"/>
-      <c r="AA60" s="28"/>
+      <c r="AA60" s="27"/>
     </row>
     <row r="61" spans="15:27">
       <c r="O61" s="5" t="s">
@@ -4010,7 +4099,7 @@
       <c r="S63" t="s">
         <v>21</v>
       </c>
-      <c r="T63" s="30" t="s">
+      <c r="T63" s="29" t="s">
         <v>22</v>
       </c>
       <c r="V63" s="9"/>
@@ -4034,7 +4123,7 @@
       <c r="O64" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T64" s="32">
+      <c r="T64" s="31">
         <v>1</v>
       </c>
       <c r="V64" s="15" t="s">
@@ -4044,13 +4133,13 @@
       <c r="X64" s="16"/>
       <c r="Y64" s="16"/>
       <c r="Z64" s="16"/>
-      <c r="AA64" s="28"/>
+      <c r="AA64" s="27"/>
     </row>
     <row r="65" spans="15:20">
       <c r="O65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="T65" s="32">
+      <c r="T65" s="31">
         <v>1</v>
       </c>
     </row>
@@ -4058,7 +4147,7 @@
       <c r="O66" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T66" s="32">
+      <c r="T66" s="31">
         <v>1</v>
       </c>
     </row>
@@ -4066,7 +4155,7 @@
       <c r="O67" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="T67" s="32">
+      <c r="T67" s="31">
         <v>1</v>
       </c>
     </row>
@@ -4074,7 +4163,7 @@
       <c r="O68" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T68" s="32">
+      <c r="T68" s="31">
         <v>1</v>
       </c>
     </row>
@@ -4086,7 +4175,7 @@
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
-      <c r="T69" s="33">
+      <c r="T69" s="32">
         <v>1</v>
       </c>
     </row>
@@ -4116,7 +4205,7 @@
     <mergeCell ref="O61:T62"/>
   </mergeCells>
   <conditionalFormatting sqref="C37:K37">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4124,18 +4213,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04df54c2-6686-482b-998d-58419f1130dd}</x14:id>
+          <x14:id>{e4ba1f2a-fb07-4517-b4b3-ed1109b84f21}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B36">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="between" text="q">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="q">
       <formula>NOT(ISERROR(SEARCH("q",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C36">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4143,12 +4232,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04082140-2be3-48fa-9ef8-2b6656c815c9}</x14:id>
+          <x14:id>{eaf8a22d-2b71-48a3-a10c-222eb3648a49}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L36">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9125cf4d-c7fa-4214-b145-005dfbbebd39}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M36">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -4157,26 +4260,60 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa567b02-8cb7-4ab9-9f32-c2b6873de73b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M36">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb15e96d-c1f4-414c-aed7-d6932b9cb8d7}</x14:id>
+          <x14:id>{73d8395e-3138-4529-b0bf-4e5e479d021b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:T8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6 B8:B36">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{16957604-9a2d-472c-b2e6-2508d0612937}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H36 D6:D36 F6:F36 J6:J36 B6:B36">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="防御">
+      <formula>NOT(ISERROR(SEARCH("防御",B6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="between" text="必杀">
+      <formula>NOT(ISERROR(SEARCH("必杀",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:K36">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{665564f0-9802-4e6b-b4e7-bf980f8010d4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17:S21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4188,42 +4325,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6 B8:B36">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c02c814a-a21f-4a63-b119-a7595811115a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H36 D6:D36 F6:F36 J6:J36 B6:B36">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="between" text="防御">
-      <formula>NOT(ISERROR(SEARCH("防御",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="between" text="必杀">
-      <formula>NOT(ISERROR(SEARCH("必杀",B6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:K36">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e08b2f76-9da0-43e3-a107-f60df5428692}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4231,7 +4332,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04df54c2-6686-482b-998d-58419f1130dd}">
+          <x14:cfRule type="dataBar" id="{e4ba1f2a-fb07-4517-b4b3-ed1109b84f21}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4244,7 +4345,7 @@
           <xm:sqref>C37:K37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04082140-2be3-48fa-9ef8-2b6656c815c9}">
+          <x14:cfRule type="dataBar" id="{eaf8a22d-2b71-48a3-a10c-222eb3648a49}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4257,7 +4358,7 @@
           <xm:sqref>C6:C36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fa567b02-8cb7-4ab9-9f32-c2b6873de73b}">
+          <x14:cfRule type="dataBar" id="{9125cf4d-c7fa-4214-b145-005dfbbebd39}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4270,7 +4371,7 @@
           <xm:sqref>L6:L36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb15e96d-c1f4-414c-aed7-d6932b9cb8d7}">
+          <x14:cfRule type="dataBar" id="{73d8395e-3138-4529-b0bf-4e5e479d021b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4283,7 +4384,7 @@
           <xm:sqref>M6:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c02c814a-a21f-4a63-b119-a7595811115a}">
+          <x14:cfRule type="dataBar" id="{16957604-9a2d-472c-b2e6-2508d0612937}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4296,7 +4397,7 @@
           <xm:sqref>B6 B8:B36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e08b2f76-9da0-43e3-a107-f60df5428692}">
+          <x14:cfRule type="dataBar" id="{665564f0-9802-4e6b-b4e7-bf980f8010d4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/src/main/resources/全方位测试输出表样板.xlsx
+++ b/src/main/resources/全方位测试输出表样板.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName name="回合数" localSheetId="0">OFFSET(满配伤害!$A$5,1,0,COUNT(满配伤害!$M:$M))</definedName>
     <definedName name="累积伤害" localSheetId="0">OFFSET(满配伤害!$M$5,1,0,COUNT(满配伤害!$M:$M))</definedName>
+    <definedName name="伤害差值">OFFSET(满配伤害!$L$5,1,0,COUNT(满配伤害!$M:$M))</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -264,13 +265,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,16 +287,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF0A0101"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,21 +338,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,26 +368,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,14 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -390,24 +398,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,7 +431,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,6 +439,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,7 +496,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,31 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,25 +586,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,97 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,15 +860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -869,17 +875,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,20 +901,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,6 +931,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -950,10 +965,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,37 +977,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,98 +1010,104 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,7 +1165,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,28 +1189,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,61 +1240,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
@@ -1364,275 +1337,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr altLang="en-US"/>
-              <a:t>累计伤害曲线</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"累积伤害"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>累积伤害</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>[0]满配伤害!回合数</c:f>
-              <c:numCache>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[0]满配伤害!累积伤害</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="78411379"/>
-        <c:axId val="170125959"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="78411379"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="170125959"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="170125959"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="78411379"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2019,6 +1723,606 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1920"/>
+              <a:t>累计伤害曲线</a:t>
+            </a:r>
+            <a:endParaRPr sz="1920"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.424553721791849"/>
+          <c:y val="0.0185752930568079"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0487147422537168"/>
+          <c:y val="0.140635564570656"/>
+          <c:w val="0.894594970126442"/>
+          <c:h val="0.719269776876268"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"回合伤害"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>回合伤害</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="76667"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!伤害差值</c:f>
+              <c:numCache>
+                <c:formatCode>[&gt;=100000000]0\.00,,"亿";[&gt;=10000]0\.0,"万";0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="13718327"/>
+        <c:axId val="687111009"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"累积伤害"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累积伤害</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="76667"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[0]满配伤害!回合数</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1T</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3T</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4T</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5T</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6T</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7T</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8T</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9T</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10T</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11T</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12T</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13T</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14T</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15T</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]满配伤害!累积伤害</c:f>
+              <c:numCache>
+                <c:formatCode>[&gt;=100000000]0\.00,,"亿";[&gt;=10000]0\.0,"万";0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="843717804"/>
+        <c:axId val="279591521"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="13718327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687111009"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="687111009"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13718327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="843717804"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279591521"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279591521"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843717804"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.111822162344224"/>
+          <c:y val="0.136248872858431"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" sz="1600"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2060,562 +2364,12 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3183,50 +2937,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>230505</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>446405</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="11932285" y="4538980"/>
-        <a:ext cx="7182485" cy="3255645"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>39370</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>561340</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>121285</xdr:rowOff>
+      <xdr:rowOff>99695</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3235,7 +3475,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15659735" y="2585720"/>
+          <a:off x="15659100" y="2564130"/>
           <a:ext cx="3570605" cy="1765935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3267,7 +3507,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3326,6 +3566,28 @@
             </a:rPr>
             <a:t>越红代表越吃练度，越绿代表越不吃练度</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>布魔超级计算器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>V1 By </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>小</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>r</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
         </a:p>
         <a:p>
@@ -3339,15 +3601,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>12065</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>188595</xdr:rowOff>
+      <xdr:rowOff>167005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3355,8 +3617,38 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17461230" y="391795"/>
+        <a:off x="17460595" y="370205"/>
         <a:ext cx="1794510" cy="1296035"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11668125" y="4333240"/>
+        <a:ext cx="7539990" cy="3632200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3629,8 +3921,8 @@
   <sheetPr/>
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:T13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3667,7 +3959,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="20"/>
+      <c r="M1" s="22"/>
       <c r="O1" s="6" t="s">
         <v>1</v>
       </c>
@@ -3676,16 +3968,16 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="47" t="s">
+      <c r="W1" s="36"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="49"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37"/>
     </row>
     <row r="2" ht="15.15" spans="1:27">
       <c r="A2" s="8"/>
@@ -3700,19 +3992,19 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="21"/>
+      <c r="M2" s="23"/>
       <c r="O2" s="8"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="52"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="40"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
@@ -3728,8 +4020,8 @@
       <c r="I3" s="12"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="O3" s="13"/>
       <c r="P3" t="s">
         <v>5</v>
@@ -3743,19 +4035,19 @@
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="41" t="s">
         <v>9</v>
       </c>
       <c r="V3" s="10"/>
-      <c r="W3" s="40" t="s">
+      <c r="W3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="X3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="55"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="25"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="13" t="s">
@@ -3772,41 +4064,41 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="24"/>
+      <c r="M4" s="26"/>
       <c r="O4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="27">
         <f>P55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="27">
         <f t="shared" ref="Q4:Q9" si="0">Q55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="27">
         <f t="shared" ref="R4:R9" si="1">R55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="27">
         <f t="shared" ref="S4:S9" si="2">S55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="43">
         <v>1</v>
       </c>
       <c r="V4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="25">
+      <c r="W4" s="27">
         <f t="shared" ref="W4:W9" si="3">W55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="43">
         <v>1</v>
       </c>
-      <c r="Y4" s="56"/>
-      <c r="AA4" s="57"/>
+      <c r="Y4" s="13"/>
+      <c r="AA4" s="41"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="13"/>
@@ -3840,247 +4132,322 @@
       <c r="K5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="29" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="27">
         <f t="shared" ref="P4:P9" si="4">P56/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="41">
+      <c r="T5" s="43">
         <v>1</v>
       </c>
       <c r="V5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="25">
+      <c r="W5" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="43">
         <v>1</v>
       </c>
-      <c r="Y5" s="56"/>
-      <c r="AA5" s="57"/>
+      <c r="Y5" s="13"/>
+      <c r="AA5" s="41"/>
     </row>
     <row r="6" ht="15" spans="1:27">
       <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="28" t="str">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="30">
         <f>IF(K6="","",SUM(C6,E6,G6,I6,K6))</f>
-        <v/>
-      </c>
-      <c r="M6" s="29" t="str">
+        <v>15</v>
+      </c>
+      <c r="M6" s="31">
         <f>IF(L6="","",SUM(L$6:L6))</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="O6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="43">
         <v>1</v>
       </c>
       <c r="V6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="25">
+      <c r="W6" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X6" s="42">
+      <c r="X6" s="43">
         <v>1</v>
       </c>
-      <c r="Y6" s="56"/>
-      <c r="AA6" s="57"/>
+      <c r="Y6" s="13"/>
+      <c r="AA6" s="41"/>
     </row>
     <row r="7" ht="15" spans="1:27">
       <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="28" t="str">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" s="30">
         <f t="shared" ref="L7:L36" si="5">IF(K7="","",SUM(C7,E7,G7,I7,K7))</f>
-        <v/>
-      </c>
-      <c r="M7" s="29" t="str">
+        <v>20</v>
+      </c>
+      <c r="M7" s="31">
         <f>IF(L7="","",SUM(L$6:L7))</f>
-        <v/>
+        <v>35</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="43">
         <v>1</v>
       </c>
       <c r="V7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="25">
+      <c r="W7" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X7" s="42">
+      <c r="X7" s="43">
         <v>1</v>
       </c>
-      <c r="Y7" s="56"/>
-      <c r="AA7" s="57"/>
+      <c r="Y7" s="13"/>
+      <c r="AA7" s="41"/>
     </row>
     <row r="8" ht="15" spans="1:27">
       <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="28" t="str">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M8" s="29" t="str">
+        <v>25</v>
+      </c>
+      <c r="M8" s="31">
         <f>IF(L8="","",SUM(L$6:L8))</f>
-        <v/>
+        <v>60</v>
       </c>
       <c r="O8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="43">
         <v>1</v>
       </c>
       <c r="V8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="25">
+      <c r="W8" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X8" s="42">
+      <c r="X8" s="43">
         <v>1</v>
       </c>
-      <c r="Y8" s="56"/>
-      <c r="AA8" s="57"/>
+      <c r="Y8" s="13"/>
+      <c r="AA8" s="41"/>
     </row>
     <row r="9" ht="15.75" spans="1:27">
       <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="28" t="str">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M9" s="29" t="str">
+        <v>30</v>
+      </c>
+      <c r="M9" s="31">
         <f>IF(L9="","",SUM(L$6:L9))</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="O9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S9" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9" s="43">
+      <c r="T9" s="44">
         <v>1</v>
       </c>
       <c r="V9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="44">
+      <c r="W9" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X9" s="43">
+      <c r="X9" s="44">
         <v>1</v>
       </c>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="60"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="47"/>
     </row>
     <row r="10" ht="15" spans="1:27">
       <c r="A10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="28" t="str">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M10" s="29" t="str">
+        <v>35</v>
+      </c>
+      <c r="M10" s="31">
         <f>IF(L10="","",SUM(L$6:L10))</f>
-        <v/>
+        <v>125</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>28</v>
@@ -4097,19 +4464,34 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="20"/>
+      <c r="AA10" s="22"/>
     </row>
     <row r="11" ht="15.75" spans="1:27">
       <c r="A11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="28" t="str">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M11" s="29" t="str">
+        <v>40</v>
+      </c>
+      <c r="M11" s="31">
         <f>IF(L11="","",SUM(L$6:L11))</f>
-        <v/>
+        <v>165</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="9"/>
@@ -4122,50 +4504,65 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="21"/>
+      <c r="AA11" s="23"/>
     </row>
     <row r="12" ht="15" spans="1:27">
       <c r="A12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="28" t="str">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M12" s="29" t="str">
+        <v>45</v>
+      </c>
+      <c r="M12" s="31">
         <f>IF(L12="","",SUM(L$6:L12))</f>
-        <v/>
+        <v>210</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="22" t="s">
+      <c r="Q12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="S12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="23" t="s">
+      <c r="T12" s="25" t="s">
         <v>24</v>
       </c>
       <c r="V12" s="10"/>
-      <c r="W12" s="22" t="s">
+      <c r="W12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="22" t="s">
+      <c r="X12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Y12" s="22" t="s">
+      <c r="Y12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="22" t="s">
+      <c r="Z12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA12" s="23" t="s">
+      <c r="AA12" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4173,53 +4570,68 @@
       <c r="A13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="28" t="str">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M13" s="29" t="str">
+        <v>50</v>
+      </c>
+      <c r="M13" s="31">
         <f>IF(L13="","",SUM(L$6:L13))</f>
-        <v/>
+        <v>260</v>
       </c>
       <c r="O13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="32">
         <f>C37/Q50</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="30">
+        <v>0.161904761904762</v>
+      </c>
+      <c r="Q13" s="32">
         <f>E37/Q50</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="30">
+        <v>0.180952380952381</v>
+      </c>
+      <c r="R13" s="32">
         <f>G37/Q50</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="32">
         <f>I37/$Q$50</f>
-        <v>0</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="T13" s="45">
         <f>K37/$Q$50</f>
-        <v>0</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="V13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="30">
+      <c r="W13" s="32">
         <f>1-W68</f>
         <v>1</v>
       </c>
-      <c r="X13" s="30">
+      <c r="X13" s="32">
         <f>1-X68</f>
         <v>1</v>
       </c>
-      <c r="Y13" s="30">
+      <c r="Y13" s="32">
         <f>1-Y68</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="30">
+      <c r="Z13" s="32">
         <f>1-Z68</f>
         <v>1</v>
       </c>
@@ -4232,13 +4644,28 @@
       <c r="A14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="28" t="str">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M14" s="29" t="str">
+        <v>55</v>
+      </c>
+      <c r="M14" s="31">
         <f>IF(L14="","",SUM(L$6:L14))</f>
-        <v/>
+        <v>315</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>36</v>
@@ -4247,53 +4674,83 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="20"/>
+      <c r="T14" s="22"/>
     </row>
     <row r="15" ht="15.75" spans="1:20">
       <c r="A15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="28" t="str">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M15" s="29" t="str">
+        <v>60</v>
+      </c>
+      <c r="M15" s="31">
         <f>IF(L15="","",SUM(L$6:L15))</f>
-        <v/>
+        <v>375</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="21"/>
+      <c r="T15" s="23"/>
     </row>
     <row r="16" ht="15" spans="1:20">
       <c r="A16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="28" t="str">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M16" s="29" t="str">
+        <v>65</v>
+      </c>
+      <c r="M16" s="31">
         <f>IF(L16="","",SUM(L$6:L16))</f>
-        <v/>
+        <v>440</v>
       </c>
       <c r="O16" s="10"/>
-      <c r="P16" s="22" t="s">
+      <c r="P16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="Q16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="S16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4301,34 +4758,49 @@
       <c r="A17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="28" t="str">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M17" s="29" t="str">
+        <v>70</v>
+      </c>
+      <c r="M17" s="31">
         <f>IF(L17="","",SUM(L$6:L17))</f>
-        <v/>
+        <v>510</v>
       </c>
       <c r="O17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="27">
         <f t="shared" ref="P17:P22" si="6">P64/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="Q17" s="27">
         <f t="shared" ref="Q17:Q22" si="7">Q64/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="27">
         <f t="shared" ref="R17:R22" si="8">R64/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="S17" s="25">
+      <c r="S17" s="27">
         <f t="shared" ref="S17:S22" si="9">S64/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="T17" s="41">
+      <c r="T17" s="43">
         <v>1</v>
       </c>
     </row>
@@ -4336,34 +4808,49 @@
       <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="28" t="str">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M18" s="29" t="str">
+        <v>75</v>
+      </c>
+      <c r="M18" s="31">
         <f>IF(L18="","",SUM(L$6:L18))</f>
-        <v/>
+        <v>585</v>
       </c>
       <c r="O18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S18" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T18" s="41">
+      <c r="T18" s="43">
         <v>1</v>
       </c>
     </row>
@@ -4371,34 +4858,49 @@
       <c r="A19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="28" t="str">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M19" s="29" t="str">
+        <v>80</v>
+      </c>
+      <c r="M19" s="31">
         <f>IF(L19="","",SUM(L$6:L19))</f>
-        <v/>
+        <v>665</v>
       </c>
       <c r="O19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S19" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T19" s="41">
+      <c r="T19" s="43">
         <v>1</v>
       </c>
     </row>
@@ -4406,34 +4908,49 @@
       <c r="A20" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="28" t="str">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M20" s="29" t="str">
+        <v>85</v>
+      </c>
+      <c r="M20" s="31">
         <f>IF(L20="","",SUM(L$6:L20))</f>
-        <v/>
+        <v>750</v>
       </c>
       <c r="O20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S20" s="25">
+      <c r="S20" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T20" s="41">
+      <c r="T20" s="43">
         <v>1</v>
       </c>
     </row>
@@ -4441,34 +4958,49 @@
       <c r="A21" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="28" t="str">
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21" s="30">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M21" s="29" t="str">
+        <v>90</v>
+      </c>
+      <c r="M21" s="31">
         <f>IF(L21="","",SUM(L$6:L21))</f>
-        <v/>
+        <v>840</v>
       </c>
       <c r="O21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="Q21" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R21" s="25">
+      <c r="R21" s="27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S21" s="25">
+      <c r="S21" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T21" s="41">
+      <c r="T21" s="43">
         <v>1</v>
       </c>
     </row>
@@ -4476,34 +5008,34 @@
       <c r="A22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="28" t="str">
+      <c r="L22" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M22" s="29" t="str">
+      <c r="M22" s="31" t="str">
         <f>IF(L22="","",SUM(L$6:L22))</f>
         <v/>
       </c>
       <c r="O22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="30">
+      <c r="S22" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T22" s="43">
+      <c r="T22" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4511,11 +5043,11 @@
       <c r="A23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="28" t="str">
+      <c r="L23" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M23" s="29" t="str">
+      <c r="M23" s="31" t="str">
         <f>IF(L23="","",SUM(L$6:L23))</f>
         <v/>
       </c>
@@ -4524,11 +5056,11 @@
       <c r="A24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="28" t="str">
+      <c r="L24" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M24" s="29" t="str">
+      <c r="M24" s="31" t="str">
         <f>IF(L24="","",SUM(L$6:L24))</f>
         <v/>
       </c>
@@ -4537,11 +5069,11 @@
       <c r="A25" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="28" t="str">
+      <c r="L25" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M25" s="29" t="str">
+      <c r="M25" s="31" t="str">
         <f>IF(L25="","",SUM(L$6:L25))</f>
         <v/>
       </c>
@@ -4550,11 +5082,11 @@
       <c r="A26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="28" t="str">
+      <c r="L26" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M26" s="29" t="str">
+      <c r="M26" s="31" t="str">
         <f>IF(L26="","",SUM(L$6:L26))</f>
         <v/>
       </c>
@@ -4563,11 +5095,11 @@
       <c r="A27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="28" t="str">
+      <c r="L27" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M27" s="29" t="str">
+      <c r="M27" s="31" t="str">
         <f>IF(L27="","",SUM(L$6:L27))</f>
         <v/>
       </c>
@@ -4576,11 +5108,11 @@
       <c r="A28" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L28" s="28" t="str">
+      <c r="L28" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M28" s="29" t="str">
+      <c r="M28" s="31" t="str">
         <f>IF(L28="","",SUM(L$6:L28))</f>
         <v/>
       </c>
@@ -4589,11 +5121,11 @@
       <c r="A29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L29" s="28" t="str">
+      <c r="L29" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M29" s="29" t="str">
+      <c r="M29" s="31" t="str">
         <f>IF(L29="","",SUM(L$6:L29))</f>
         <v/>
       </c>
@@ -4602,11 +5134,11 @@
       <c r="A30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="28" t="str">
+      <c r="L30" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M30" s="29" t="str">
+      <c r="M30" s="31" t="str">
         <f>IF(L30="","",SUM(L$6:L30))</f>
         <v/>
       </c>
@@ -4615,11 +5147,11 @@
       <c r="A31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="28" t="str">
+      <c r="L31" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M31" s="29" t="str">
+      <c r="M31" s="31" t="str">
         <f>IF(L31="","",SUM(L$6:L31))</f>
         <v/>
       </c>
@@ -4628,11 +5160,11 @@
       <c r="A32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="28" t="str">
+      <c r="L32" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M32" s="29" t="str">
+      <c r="M32" s="31" t="str">
         <f>IF(L32="","",SUM(L$6:L32))</f>
         <v/>
       </c>
@@ -4641,11 +5173,11 @@
       <c r="A33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L33" s="28" t="str">
+      <c r="L33" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M33" s="29" t="str">
+      <c r="M33" s="31" t="str">
         <f>IF(L33="","",SUM(L$6:L33))</f>
         <v/>
       </c>
@@ -4654,11 +5186,11 @@
       <c r="A34" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="28" t="str">
+      <c r="L34" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M34" s="29" t="str">
+      <c r="M34" s="31" t="str">
         <f>IF(L34="","",SUM(L$6:L34))</f>
         <v/>
       </c>
@@ -4667,11 +5199,11 @@
       <c r="A35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="28" t="str">
+      <c r="L35" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M35" s="29" t="str">
+      <c r="M35" s="31" t="str">
         <f>IF(L35="","",SUM(L$6:L35))</f>
         <v/>
       </c>
@@ -4680,11 +5212,11 @@
       <c r="A36" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L36" s="28" t="str">
+      <c r="L36" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M36" s="29" t="str">
+      <c r="M36" s="31" t="str">
         <f>IF(L36="","",SUM(L$6:L36))</f>
         <v/>
       </c>
@@ -4696,53 +5228,75 @@
       <c r="B37" s="18"/>
       <c r="C37" s="19">
         <f>SUM(C$6:C36)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19">
         <f>SUM(E$6:E36)</f>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="19">
         <f>SUM(G$6:G36)</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19">
         <f>SUM(I$6:I36)</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J37" s="19"/>
       <c r="K37" s="19">
         <f>SUM(K$6:K36)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L37" s="19"/>
-      <c r="M37" s="31"/>
-    </row>
-    <row r="39" spans="9:13">
-      <c r="I39" s="32" t="s">
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="8:13">
+      <c r="H38" s="20" t="str">
+        <f>COUNT($M:$M)&amp;"回合伤害："&amp;Q50</f>
+        <v>16回合伤害：840</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" spans="7:13">
+      <c r="G39" s="21"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+    </row>
+    <row r="40" ht="22" customHeight="1" spans="7:13">
+      <c r="G40" s="21"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="7:13">
+      <c r="G41" s="21"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+    </row>
+    <row r="46" ht="17.4" spans="9:11">
+      <c r="I46" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="9:13">
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="9:13">
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
@@ -4755,11 +5309,11 @@
       </c>
       <c r="P50">
         <f>SUM(C37,E37,G37,I37,K37)</f>
-        <v>0</v>
-      </c>
-      <c r="Q50">
+        <v>840</v>
+      </c>
+      <c r="Q50" s="30">
         <f>IF(P50=0,1,P50)</f>
-        <v>1</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" ht="15.15"/>
@@ -4809,25 +5363,25 @@
       <c r="S54" t="s">
         <v>8</v>
       </c>
-      <c r="T54" s="39" t="s">
+      <c r="T54" s="41" t="s">
         <v>9</v>
       </c>
       <c r="V54" s="10"/>
-      <c r="W54" s="40" t="s">
+      <c r="W54" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="X54" s="22" t="s">
+      <c r="X54" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="23"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="25"/>
     </row>
     <row r="55" spans="15:27">
       <c r="O55" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T55" s="41">
+      <c r="T55" s="43">
         <v>1</v>
       </c>
       <c r="V55" s="13" t="s">
@@ -4836,13 +5390,13 @@
       <c r="X55" s="4">
         <v>1</v>
       </c>
-      <c r="AA55" s="39"/>
+      <c r="AA55" s="41"/>
     </row>
     <row r="56" spans="15:27">
       <c r="O56" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T56" s="41">
+      <c r="T56" s="43">
         <v>1</v>
       </c>
       <c r="V56" s="13" t="s">
@@ -4851,13 +5405,13 @@
       <c r="X56" s="4">
         <v>1</v>
       </c>
-      <c r="AA56" s="39"/>
+      <c r="AA56" s="41"/>
     </row>
     <row r="57" spans="15:27">
       <c r="O57" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T57" s="41">
+      <c r="T57" s="43">
         <v>1</v>
       </c>
       <c r="V57" s="13" t="s">
@@ -4866,13 +5420,13 @@
       <c r="X57" s="4">
         <v>1</v>
       </c>
-      <c r="AA57" s="39"/>
+      <c r="AA57" s="41"/>
     </row>
     <row r="58" spans="15:27">
       <c r="O58" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T58" s="41">
+      <c r="T58" s="43">
         <v>1</v>
       </c>
       <c r="V58" s="13" t="s">
@@ -4881,13 +5435,13 @@
       <c r="X58" s="4">
         <v>1</v>
       </c>
-      <c r="AA58" s="39"/>
+      <c r="AA58" s="41"/>
     </row>
     <row r="59" spans="15:27">
       <c r="O59" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="T59" s="41">
+      <c r="T59" s="43">
         <v>1</v>
       </c>
       <c r="V59" s="13" t="s">
@@ -4896,7 +5450,7 @@
       <c r="X59" s="4">
         <v>1</v>
       </c>
-      <c r="AA59" s="39"/>
+      <c r="AA59" s="41"/>
     </row>
     <row r="60" ht="15.15" spans="15:27">
       <c r="O60" s="17" t="s">
@@ -4906,7 +5460,7 @@
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
       <c r="S60" s="18"/>
-      <c r="T60" s="43">
+      <c r="T60" s="44">
         <v>1</v>
       </c>
       <c r="V60" s="17" t="s">
@@ -4918,7 +5472,7 @@
       </c>
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
-      <c r="AA60" s="61"/>
+      <c r="AA60" s="47"/>
     </row>
     <row r="61" spans="15:27">
       <c r="O61" s="6" t="s">
@@ -4928,7 +5482,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
-      <c r="T61" s="20"/>
+      <c r="T61" s="22"/>
       <c r="V61" s="6" t="s">
         <v>29</v>
       </c>
@@ -4944,7 +5498,7 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
-      <c r="T62" s="21"/>
+      <c r="T62" s="23"/>
       <c r="V62" s="8"/>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
@@ -4966,23 +5520,23 @@
       <c r="S63" t="s">
         <v>42</v>
       </c>
-      <c r="T63" s="39" t="s">
+      <c r="T63" s="41" t="s">
         <v>43</v>
       </c>
       <c r="V63" s="10"/>
-      <c r="W63" s="22" t="s">
+      <c r="W63" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="X63" s="22" t="s">
+      <c r="X63" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Y63" s="22" t="s">
+      <c r="Y63" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Z63" s="22" t="s">
+      <c r="Z63" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA63" s="23" t="s">
+      <c r="AA63" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4990,7 +5544,7 @@
       <c r="O64" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T64" s="41">
+      <c r="T64" s="43">
         <v>1</v>
       </c>
       <c r="V64" s="17" t="s">
@@ -5000,13 +5554,13 @@
       <c r="X64" s="18"/>
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
-      <c r="AA64" s="61"/>
+      <c r="AA64" s="47"/>
     </row>
     <row r="65" spans="15:27">
       <c r="O65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T65" s="41">
+      <c r="T65" s="43">
         <v>1</v>
       </c>
       <c r="W65">
@@ -5034,7 +5588,7 @@
       <c r="O66" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T66" s="41">
+      <c r="T66" s="43">
         <v>1</v>
       </c>
       <c r="Z66">
@@ -5050,7 +5604,7 @@
       <c r="O67" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T67" s="41">
+      <c r="T67" s="43">
         <v>1</v>
       </c>
     </row>
@@ -5058,7 +5612,7 @@
       <c r="O68" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="T68" s="41">
+      <c r="T68" s="43">
         <v>1</v>
       </c>
       <c r="W68">
@@ -5090,7 +5644,7 @@
       <c r="Q69" s="18"/>
       <c r="R69" s="18"/>
       <c r="S69" s="18"/>
-      <c r="T69" s="43">
+      <c r="T69" s="44">
         <v>1</v>
       </c>
     </row>
@@ -5119,7 +5673,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -5131,18 +5685,19 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I46:K46"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="O1:T2"/>
     <mergeCell ref="O10:T11"/>
     <mergeCell ref="V10:AA11"/>
     <mergeCell ref="O14:T15"/>
-    <mergeCell ref="I39:M41"/>
     <mergeCell ref="O52:T53"/>
     <mergeCell ref="V52:AA53"/>
     <mergeCell ref="V61:AA62"/>
     <mergeCell ref="O61:T62"/>
     <mergeCell ref="V1:X2"/>
     <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="H38:M41"/>
   </mergeCells>
   <conditionalFormatting sqref="P13:T13">
     <cfRule type="dataBar" priority="1">
@@ -5153,7 +5708,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13ae17c0-34b9-4154-8210-94f921d78cac}</x14:id>
+          <x14:id>{ae1a4e42-00f5-4e2f-8c98-381ec27eaa0e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5167,7 +5722,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03079d80-24f5-47fe-a26d-ad7576bfb957}</x14:id>
+          <x14:id>{12da8cf7-0b83-4459-94c4-e4e924cba7f9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5181,7 +5736,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2d79b696-505c-44af-b85c-2ba6300ae37b}</x14:id>
+          <x14:id>{ba711e4e-f17a-4f6f-a672-a580949b4aad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5200,7 +5755,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{214e06f9-4ae9-41cd-a799-33020ee58354}</x14:id>
+          <x14:id>{39c2f4c5-9450-4b83-88be-d9eea0bbbb84}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5214,7 +5769,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8eab61c0-ae1b-4df6-b24f-be27b43e44bd}</x14:id>
+          <x14:id>{4c58ea95-a1ad-4acc-843a-0f9407977f42}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5228,7 +5783,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b706bfd-cd6c-473d-8ad6-884f5793ff7e}</x14:id>
+          <x14:id>{6f8b1d88-4078-411b-b575-26df7621bb2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5266,7 +5821,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94a7da85-0335-4dcb-a685-98c51233903d}</x14:id>
+          <x14:id>{1d10b892-82d4-4cbb-a9b6-76677c4784f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5288,7 +5843,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{14fc352b-dd89-408c-850b-2bb21e8edb95}</x14:id>
+          <x14:id>{2aebc36b-c6c8-40bb-ab1e-7dec394fe9db}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5312,7 +5867,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13ae17c0-34b9-4154-8210-94f921d78cac}">
+          <x14:cfRule type="dataBar" id="{ae1a4e42-00f5-4e2f-8c98-381ec27eaa0e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5325,7 +5880,7 @@
           <xm:sqref>P13:T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03079d80-24f5-47fe-a26d-ad7576bfb957}">
+          <x14:cfRule type="dataBar" id="{12da8cf7-0b83-4459-94c4-e4e924cba7f9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5338,7 +5893,7 @@
           <xm:sqref>W13:AA13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2d79b696-505c-44af-b85c-2ba6300ae37b}">
+          <x14:cfRule type="dataBar" id="{ba711e4e-f17a-4f6f-a672-a580949b4aad}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5351,7 +5906,7 @@
           <xm:sqref>C37:K37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{214e06f9-4ae9-41cd-a799-33020ee58354}">
+          <x14:cfRule type="dataBar" id="{39c2f4c5-9450-4b83-88be-d9eea0bbbb84}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5364,7 +5919,7 @@
           <xm:sqref>C6:C36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8eab61c0-ae1b-4df6-b24f-be27b43e44bd}">
+          <x14:cfRule type="dataBar" id="{4c58ea95-a1ad-4acc-843a-0f9407977f42}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5377,7 +5932,7 @@
           <xm:sqref>L6:L36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6b706bfd-cd6c-473d-8ad6-884f5793ff7e}">
+          <x14:cfRule type="dataBar" id="{6f8b1d88-4078-411b-b575-26df7621bb2f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5390,7 +5945,7 @@
           <xm:sqref>M6:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{94a7da85-0335-4dcb-a685-98c51233903d}">
+          <x14:cfRule type="dataBar" id="{1d10b892-82d4-4cbb-a9b6-76677c4784f5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5403,7 +5958,7 @@
           <xm:sqref>B6 B8:B36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{14fc352b-dd89-408c-850b-2bb21e8edb95}">
+          <x14:cfRule type="dataBar" id="{2aebc36b-c6c8-40bb-ab1e-7dec394fe9db}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/src/main/resources/全方位测试输出表样板.xlsx
+++ b/src/main/resources/全方位测试输出表样板.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
   <si>
     <t>满配伤害表</t>
   </si>
@@ -52,93 +52,186 @@
     <t>5花</t>
   </si>
   <si>
+    <t>非5星</t>
+  </si>
+  <si>
+    <t>5星</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>1号位</t>
+  </si>
+  <si>
+    <t>行动轴</t>
+  </si>
+  <si>
+    <t>造成伤害</t>
+  </si>
+  <si>
+    <t>回合伤害</t>
+  </si>
+  <si>
+    <t>累积伤害</t>
+  </si>
+  <si>
+    <t>2号位</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>3号位</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>4号位</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>5号位</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>全队</t>
+  </si>
+  <si>
+    <t>5T</t>
+  </si>
+  <si>
+    <t>输出表</t>
+  </si>
+  <si>
+    <t>贡献度表</t>
+  </si>
+  <si>
+    <t>6T</t>
+  </si>
+  <si>
+    <t>7T</t>
+  </si>
+  <si>
+    <t>8T</t>
+  </si>
+  <si>
+    <t>输出比值</t>
+  </si>
+  <si>
+    <t>贡献度</t>
+  </si>
+  <si>
+    <t>9T</t>
+  </si>
+  <si>
+    <t>练度表</t>
+  </si>
+  <si>
+    <t>10T</t>
+  </si>
+  <si>
+    <t>11T</t>
+  </si>
+  <si>
+    <t>练度</t>
+  </si>
+  <si>
+    <t>1级0潜</t>
+  </si>
+  <si>
+    <t>3星6潜1房</t>
+  </si>
+  <si>
+    <t>4星8潜2房</t>
+  </si>
+  <si>
+    <t>5星9潜3房</t>
+  </si>
+  <si>
+    <t>满配</t>
+  </si>
+  <si>
+    <t>12T</t>
+  </si>
+  <si>
+    <t>13T</t>
+  </si>
+  <si>
+    <t>14T</t>
+  </si>
+  <si>
+    <t>15T</t>
+  </si>
+  <si>
+    <t>16T</t>
+  </si>
+  <si>
+    <t>17T</t>
+  </si>
+  <si>
+    <t>18T</t>
+  </si>
+  <si>
+    <t>19T</t>
+  </si>
+  <si>
+    <t>20T</t>
+  </si>
+  <si>
+    <t>21T</t>
+  </si>
+  <si>
+    <t>22T</t>
+  </si>
+  <si>
+    <t>23T</t>
+  </si>
+  <si>
+    <t>24T</t>
+  </si>
+  <si>
+    <t>25T</t>
+  </si>
+  <si>
+    <t>26T</t>
+  </si>
+  <si>
+    <t>27T</t>
+  </si>
+  <si>
+    <t>28T</t>
+  </si>
+  <si>
+    <t>29T</t>
+  </si>
+  <si>
+    <t>30T</t>
+  </si>
+  <si>
+    <t>31T</t>
+  </si>
+  <si>
+    <t>总伤害</t>
+  </si>
+  <si>
+    <t>布魔计算器内测版本V1 作者 小r</t>
+  </si>
+  <si>
+    <t>这部分用于幕后计算</t>
+  </si>
+  <si>
+    <t>合计伤害</t>
+  </si>
+  <si>
     <t>非五星</t>
   </si>
   <si>
-    <t>5星</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>1号位</t>
-  </si>
-  <si>
-    <t>行动轴</t>
-  </si>
-  <si>
-    <t>造成伤害</t>
-  </si>
-  <si>
-    <t>回合伤害</t>
-  </si>
-  <si>
-    <t>累积伤害</t>
-  </si>
-  <si>
-    <t>2号位</t>
-  </si>
-  <si>
-    <t>1T</t>
-  </si>
-  <si>
-    <t>3号位</t>
-  </si>
-  <si>
-    <t>2T</t>
-  </si>
-  <si>
-    <t>4号位</t>
-  </si>
-  <si>
-    <t>3T</t>
-  </si>
-  <si>
-    <t>5号位</t>
-  </si>
-  <si>
-    <t>4T</t>
-  </si>
-  <si>
-    <t>全队</t>
-  </si>
-  <si>
-    <t>5T</t>
-  </si>
-  <si>
-    <t>输出表</t>
-  </si>
-  <si>
-    <t>贡献度表</t>
-  </si>
-  <si>
-    <t>6T</t>
-  </si>
-  <si>
-    <t>7T</t>
-  </si>
-  <si>
-    <t>8T</t>
-  </si>
-  <si>
-    <t>输出比值</t>
-  </si>
-  <si>
-    <t>贡献度</t>
-  </si>
-  <si>
-    <t>9T</t>
-  </si>
-  <si>
-    <t>练度表</t>
-  </si>
-  <si>
-    <t>10T</t>
-  </si>
-  <si>
-    <t>11T</t>
-  </si>
-  <si>
     <t>20%配置</t>
   </si>
   <si>
@@ -149,81 +242,6 @@
   </si>
   <si>
     <t>80%配置</t>
-  </si>
-  <si>
-    <t>满配</t>
-  </si>
-  <si>
-    <t>12T</t>
-  </si>
-  <si>
-    <t>13T</t>
-  </si>
-  <si>
-    <t>14T</t>
-  </si>
-  <si>
-    <t>15T</t>
-  </si>
-  <si>
-    <t>16T</t>
-  </si>
-  <si>
-    <t>17T</t>
-  </si>
-  <si>
-    <t>18T</t>
-  </si>
-  <si>
-    <t>19T</t>
-  </si>
-  <si>
-    <t>20T</t>
-  </si>
-  <si>
-    <t>21T</t>
-  </si>
-  <si>
-    <t>22T</t>
-  </si>
-  <si>
-    <t>23T</t>
-  </si>
-  <si>
-    <t>24T</t>
-  </si>
-  <si>
-    <t>25T</t>
-  </si>
-  <si>
-    <t>26T</t>
-  </si>
-  <si>
-    <t>27T</t>
-  </si>
-  <si>
-    <t>28T</t>
-  </si>
-  <si>
-    <t>29T</t>
-  </si>
-  <si>
-    <t>30T</t>
-  </si>
-  <si>
-    <t>31T</t>
-  </si>
-  <si>
-    <t>总伤害</t>
-  </si>
-  <si>
-    <t>布魔计算器内测版本V1 作者 小r</t>
-  </si>
-  <si>
-    <t>这部分用于幕后计算</t>
-  </si>
-  <si>
-    <t>合计伤害</t>
   </si>
   <si>
     <t>伤害分布</t>
@@ -264,12 +282,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -307,6 +325,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -323,83 +362,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,9 +377,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,10 +394,63 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,8 +461,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,91 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,43 +532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,19 +568,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,12 +604,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -849,6 +867,72 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -856,6 +940,50 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,6 +999,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,39 +1053,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -949,11 +1070,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,10 +1084,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,137 +1096,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1165,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1186,28 +1305,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1228,29 +1371,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1768,8 +1932,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.424553721791849"/>
-          <c:y val="0.0185752930568079"/>
+          <c:x val="0.39129748106203"/>
+          <c:y val="0.0627245220957748"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1788,10 +1952,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0487147422537168"/>
-          <c:y val="0.140635564570656"/>
-          <c:w val="0.894594970126442"/>
-          <c:h val="0.719269776876268"/>
+          <c:x val="0.0682499578911908"/>
+          <c:y val="0.0565262076053443"/>
+          <c:w val="0.863500084217618"/>
+          <c:h val="0.8034600890716"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3457,16 +3621,76 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="17732375" y="370205"/>
+        <a:ext cx="1794510" cy="1286510"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11668125" y="4514850"/>
+        <a:ext cx="7810500" cy="3432175"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>38735</xdr:colOff>
+      <xdr:colOff>33655</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>561340</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99695</xdr:rowOff>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3475,8 +3699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15659100" y="2564130"/>
-          <a:ext cx="3570605" cy="1765935"/>
+          <a:off x="15925800" y="2554605"/>
+          <a:ext cx="3569970" cy="1932940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3507,155 +3731,101 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t"/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
             <a:t>羁绊表：将同位置换为更低羁绊的角色，伤害发生的变化（百分比），下同</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>五星权重：将同位置</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>五星权重：只取消</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
             <a:t>5</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>星技能取消（其他属性不变）</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>星</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>攻击力不变</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
             <a:t>输出表：各个角色输出占比</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>贡献度表：将同位置改为无技能同属性职业木桩</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>贡献度表：将对应位置换成同属性木桩</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>练度表：将同位置攻击力下降对应比例</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>练度表：将同位置攻击力缩放对应比例</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>越红代表越吃练度，越绿代表越不吃练度</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
             <a:t>布魔超级计算器</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
             <a:t>V1 By </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
             <a:t>小</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
             <a:t>r</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>167005</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="17460595" y="370205"/>
-        <a:ext cx="1794510" cy="1296035"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="11668125" y="4333240"/>
-        <a:ext cx="7539990" cy="3632200"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3921,8 +4091,8 @@
   <sheetPr/>
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38:M41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3941,6 +4111,9 @@
     <col min="12" max="12" width="16.9814814814815" customWidth="1"/>
     <col min="13" max="13" width="11.5833333333333" customWidth="1"/>
     <col min="14" max="14" width="4.12962962962963" customWidth="1"/>
+    <col min="17" max="17" width="10.3148148148148" customWidth="1"/>
+    <col min="18" max="18" width="9.68518518518519" customWidth="1"/>
+    <col min="19" max="19" width="10.6296296296296" customWidth="1"/>
     <col min="21" max="21" width="3.80555555555556" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3968,18 +4141,18 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="35" t="s">
+      <c r="W1" s="44"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="37"/>
-    </row>
-    <row r="2" ht="15.15" spans="1:27">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="45"/>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3999,12 +4172,12 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="40"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="48"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
@@ -4023,26 +4196,26 @@
       <c r="L3" s="24"/>
       <c r="M3" s="25"/>
       <c r="O3" s="13"/>
-      <c r="P3" t="s">
+      <c r="P3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="V3" s="10"/>
-      <c r="W3" s="42" t="s">
+      <c r="W3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="51" t="s">
         <v>11</v>
       </c>
       <c r="Y3" s="10"/>
@@ -4064,41 +4237,41 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="26"/>
+      <c r="M4" s="27"/>
       <c r="O4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="28">
         <f>P55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="28">
         <f t="shared" ref="Q4:Q9" si="0">Q55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="28">
         <f t="shared" ref="R4:R9" si="1">R55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="28">
         <f t="shared" ref="S4:S9" si="2">S55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="T4" s="43">
+      <c r="T4" s="52">
         <v>1</v>
       </c>
       <c r="V4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="27">
+      <c r="W4" s="28">
         <f t="shared" ref="W4:W9" si="3">W55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="X4" s="43">
+      <c r="X4" s="52">
         <v>1</v>
       </c>
       <c r="Y4" s="13"/>
-      <c r="AA4" s="41"/>
+      <c r="AA4" s="58"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="13"/>
@@ -4132,46 +4305,46 @@
       <c r="K5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="30" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="28">
         <f t="shared" ref="P4:P9" si="4">P56/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="52">
         <v>1</v>
       </c>
       <c r="V5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="27">
+      <c r="W5" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X5" s="43">
+      <c r="X5" s="52">
         <v>1</v>
       </c>
       <c r="Y5" s="13"/>
-      <c r="AA5" s="41"/>
+      <c r="AA5" s="58"/>
     </row>
     <row r="6" ht="15" spans="1:27">
       <c r="A6" s="16" t="s">
@@ -4192,48 +4365,48 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="31">
         <f>IF(K6="","",SUM(C6,E6,G6,I6,K6))</f>
         <v>15</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="32">
         <f>IF(L6="","",SUM(L$6:L6))</f>
         <v>15</v>
       </c>
       <c r="O6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="52">
         <v>1</v>
       </c>
       <c r="V6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="27">
+      <c r="W6" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="52">
         <v>1</v>
       </c>
       <c r="Y6" s="13"/>
-      <c r="AA6" s="41"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" ht="15" spans="1:27">
       <c r="A7" s="16" t="s">
@@ -4254,48 +4427,48 @@
       <c r="K7">
         <v>6</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="31">
         <f t="shared" ref="L7:L36" si="5">IF(K7="","",SUM(C7,E7,G7,I7,K7))</f>
         <v>20</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="32">
         <f>IF(L7="","",SUM(L$6:L7))</f>
         <v>35</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="52">
         <v>1</v>
       </c>
       <c r="V7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="27">
+      <c r="W7" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X7" s="43">
+      <c r="X7" s="52">
         <v>1</v>
       </c>
       <c r="Y7" s="13"/>
-      <c r="AA7" s="41"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" ht="15" spans="1:27">
       <c r="A8" s="16" t="s">
@@ -4316,48 +4489,48 @@
       <c r="K8">
         <v>7</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="31">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="32">
         <f>IF(L8="","",SUM(L$6:L8))</f>
         <v>60</v>
       </c>
       <c r="O8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="52">
         <v>1</v>
       </c>
       <c r="V8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="27">
+      <c r="W8" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X8" s="43">
+      <c r="X8" s="52">
         <v>1</v>
       </c>
       <c r="Y8" s="13"/>
-      <c r="AA8" s="41"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" ht="15.75" spans="1:27">
       <c r="A9" s="16" t="s">
@@ -4378,49 +4551,49 @@
       <c r="K9">
         <v>8</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="31">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="32">
         <f>IF(L9="","",SUM(L$6:L9))</f>
         <v>90</v>
       </c>
       <c r="O9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9" s="44">
+      <c r="T9" s="53">
         <v>1</v>
       </c>
       <c r="V9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="32">
+      <c r="W9" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X9" s="44">
+      <c r="X9" s="53">
         <v>1</v>
       </c>
       <c r="Y9" s="17"/>
       <c r="Z9" s="18"/>
-      <c r="AA9" s="47"/>
+      <c r="AA9" s="61"/>
     </row>
     <row r="10" ht="15" spans="1:27">
       <c r="A10" s="16" t="s">
@@ -4441,11 +4614,11 @@
       <c r="K10">
         <v>9</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="31">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="32">
         <f>IF(L10="","",SUM(L$6:L10))</f>
         <v>125</v>
       </c>
@@ -4485,11 +4658,11 @@
       <c r="K11">
         <v>10</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="31">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="32">
         <f>IF(L11="","",SUM(L$6:L11))</f>
         <v>165</v>
       </c>
@@ -4525,44 +4698,44 @@
       <c r="K12">
         <v>11</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="31">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="32">
         <f>IF(L12="","",SUM(L$6:L12))</f>
         <v>210</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="24" t="s">
+      <c r="R12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="51" t="s">
         <v>24</v>
       </c>
       <c r="V12" s="10"/>
-      <c r="W12" s="24" t="s">
+      <c r="W12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="24" t="s">
+      <c r="X12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="Y12" s="24" t="s">
+      <c r="Y12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="24" t="s">
+      <c r="Z12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="51" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4585,57 +4758,57 @@
       <c r="K13">
         <v>12</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="31">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="32">
         <f>IF(L13="","",SUM(L$6:L13))</f>
         <v>260</v>
       </c>
       <c r="O13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="34">
         <f>C37/Q50</f>
         <v>0.161904761904762</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="34">
         <f>E37/Q50</f>
         <v>0.180952380952381</v>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="34">
         <f>G37/Q50</f>
         <v>0.2</v>
       </c>
-      <c r="S13" s="32">
+      <c r="S13" s="34">
         <f>I37/$Q$50</f>
         <v>0.219047619047619</v>
       </c>
-      <c r="T13" s="45">
+      <c r="T13" s="54">
         <f>K37/$Q$50</f>
         <v>0.238095238095238</v>
       </c>
       <c r="V13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="32">
+      <c r="W13" s="34">
         <f>1-W68</f>
         <v>1</v>
       </c>
-      <c r="X13" s="32">
+      <c r="X13" s="34">
         <f>1-X68</f>
         <v>1</v>
       </c>
-      <c r="Y13" s="32">
+      <c r="Y13" s="34">
         <f>1-Y68</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="32">
+      <c r="Z13" s="34">
         <f>1-Z68</f>
         <v>1</v>
       </c>
-      <c r="AA13" s="45">
+      <c r="AA13" s="54">
         <f>1-AA68</f>
         <v>1</v>
       </c>
@@ -4659,11 +4832,11 @@
       <c r="K14">
         <v>13</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="31">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="32">
         <f>IF(L14="","",SUM(L$6:L14))</f>
         <v>315</v>
       </c>
@@ -4695,20 +4868,20 @@
       <c r="K15">
         <v>14</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="31">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="32">
         <f>IF(L15="","",SUM(L$6:L15))</f>
         <v>375</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="23"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="55"/>
     </row>
     <row r="16" ht="15" spans="1:20">
       <c r="A16" s="16" t="s">
@@ -4729,34 +4902,36 @@
       <c r="K16">
         <v>15</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="31">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="32">
         <f>IF(L16="","",SUM(L$6:L16))</f>
         <v>440</v>
       </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="24" t="s">
+      <c r="O16" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="P16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="Q16" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="R16" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="S16" s="38" t="s">
         <v>43</v>
+      </c>
+      <c r="T16" s="56" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:20">
       <c r="A17" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -4773,40 +4948,34 @@
       <c r="K17">
         <v>16</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="31">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="32">
         <f>IF(L17="","",SUM(L$6:L17))</f>
         <v>510</v>
       </c>
-      <c r="O17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" s="27">
-        <f t="shared" ref="P17:P22" si="6">P64/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="27">
-        <f t="shared" ref="Q17:Q22" si="7">Q64/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="27">
-        <f t="shared" ref="R17:R22" si="8">R64/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="27">
-        <f t="shared" ref="S17:S22" si="9">S64/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="43">
+      <c r="O17" s="39"/>
+      <c r="P17" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>0.43</v>
+      </c>
+      <c r="R17" s="40">
+        <v>0.61</v>
+      </c>
+      <c r="S17" s="40">
+        <v>0.82</v>
+      </c>
+      <c r="T17" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:20">
       <c r="A18" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -4823,40 +4992,40 @@
       <c r="K18">
         <v>17</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="31">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="32">
         <f>IF(L18="","",SUM(L$6:L18))</f>
         <v>585</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="43">
+        <v>13</v>
+      </c>
+      <c r="P18" s="28">
+        <f t="shared" ref="P18:P23" si="6">P64/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="28">
+        <f t="shared" ref="Q18:Q23" si="7">Q64/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="28">
+        <f t="shared" ref="R18:R23" si="8">R64/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="28">
+        <f t="shared" ref="S18:S23" si="9">S64/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:20">
       <c r="A19" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -4873,40 +5042,40 @@
       <c r="K19">
         <v>18</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="31">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="32">
         <f>IF(L19="","",SUM(L$6:L19))</f>
         <v>665</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="27">
+        <v>18</v>
+      </c>
+      <c r="P19" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T19" s="43">
+      <c r="T19" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="15" spans="1:20">
       <c r="A20" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -4923,40 +5092,40 @@
       <c r="K20">
         <v>19</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="31">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="32">
         <f>IF(L20="","",SUM(L$6:L20))</f>
         <v>750</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="27">
+        <v>20</v>
+      </c>
+      <c r="P20" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R20" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="27">
+      <c r="R20" s="28">
+        <f>R66/$Q$50</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T20" s="43">
+      <c r="T20" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:20">
       <c r="A21" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -4973,257 +5142,279 @@
       <c r="K21">
         <v>20</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="31">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="32">
         <f>IF(L21="","",SUM(L$6:L21))</f>
         <v>840</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21" s="27">
+        <v>22</v>
+      </c>
+      <c r="P21" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="Q21" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S21" s="27">
+      <c r="S21" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T21" s="43">
+      <c r="T21" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="30" t="str">
+        <v>50</v>
+      </c>
+      <c r="L22" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M22" s="31" t="str">
+      <c r="M22" s="32" t="str">
         <f>IF(L22="","",SUM(L$6:L22))</f>
         <v/>
       </c>
-      <c r="O22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" s="32">
+      <c r="O22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="32">
+      <c r="S22" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T22" s="44">
+      <c r="T22" s="52">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15" spans="1:13">
+    <row r="23" customFormat="1" ht="15.15" spans="1:20">
       <c r="A23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="30" t="str">
+        <v>51</v>
+      </c>
+      <c r="L23" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M23" s="31" t="str">
+      <c r="M23" s="32" t="str">
         <f>IF(L23="","",SUM(L$6:L23))</f>
         <v/>
       </c>
+      <c r="O23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="53">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="1" ht="15" spans="1:13">
       <c r="A24" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" s="30" t="str">
+        <v>52</v>
+      </c>
+      <c r="L24" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M24" s="31" t="str">
+      <c r="M24" s="32" t="str">
         <f>IF(L24="","",SUM(L$6:L24))</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" spans="1:13">
       <c r="A25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="30" t="str">
+        <v>53</v>
+      </c>
+      <c r="L25" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M25" s="31" t="str">
+      <c r="M25" s="32" t="str">
         <f>IF(L25="","",SUM(L$6:L25))</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" spans="1:13">
       <c r="A26" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="30" t="str">
+        <v>54</v>
+      </c>
+      <c r="L26" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M26" s="31" t="str">
+      <c r="M26" s="32" t="str">
         <f>IF(L26="","",SUM(L$6:L26))</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" spans="1:13">
       <c r="A27" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="30" t="str">
+        <v>55</v>
+      </c>
+      <c r="L27" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M27" s="31" t="str">
+      <c r="M27" s="32" t="str">
         <f>IF(L27="","",SUM(L$6:L27))</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" spans="1:13">
       <c r="A28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28" s="30" t="str">
+        <v>56</v>
+      </c>
+      <c r="L28" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M28" s="31" t="str">
+      <c r="M28" s="32" t="str">
         <f>IF(L28="","",SUM(L$6:L28))</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" spans="1:13">
       <c r="A29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="30" t="str">
+        <v>57</v>
+      </c>
+      <c r="L29" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M29" s="31" t="str">
+      <c r="M29" s="32" t="str">
         <f>IF(L29="","",SUM(L$6:L29))</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L30" s="30" t="str">
+        <v>58</v>
+      </c>
+      <c r="L30" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M30" s="31" t="str">
+      <c r="M30" s="32" t="str">
         <f>IF(L30="","",SUM(L$6:L30))</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" spans="1:13">
       <c r="A31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="30" t="str">
+        <v>59</v>
+      </c>
+      <c r="L31" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M31" s="31" t="str">
+      <c r="M31" s="32" t="str">
         <f>IF(L31="","",SUM(L$6:L31))</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" spans="1:13">
       <c r="A32" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" s="30" t="str">
+        <v>60</v>
+      </c>
+      <c r="L32" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M32" s="31" t="str">
+      <c r="M32" s="32" t="str">
         <f>IF(L32="","",SUM(L$6:L32))</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" spans="1:13">
       <c r="A33" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="30" t="str">
+        <v>61</v>
+      </c>
+      <c r="L33" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M33" s="31" t="str">
+      <c r="M33" s="32" t="str">
         <f>IF(L33="","",SUM(L$6:L33))</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" spans="1:13">
       <c r="A34" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34" s="30" t="str">
+        <v>62</v>
+      </c>
+      <c r="L34" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M34" s="31" t="str">
+      <c r="M34" s="32" t="str">
         <f>IF(L34="","",SUM(L$6:L34))</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" spans="1:13">
       <c r="A35" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L35" s="30" t="str">
+        <v>63</v>
+      </c>
+      <c r="L35" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M35" s="31" t="str">
+      <c r="M35" s="32" t="str">
         <f>IF(L35="","",SUM(L$6:L35))</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" spans="1:13">
       <c r="A36" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L36" s="30" t="str">
+        <v>64</v>
+      </c>
+      <c r="L36" s="31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M36" s="31" t="str">
+      <c r="M36" s="32" t="str">
         <f>IF(L36="","",SUM(L$6:L36))</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15.15" spans="1:13">
       <c r="A37" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="19">
@@ -5251,7 +5442,7 @@
         <v>200</v>
       </c>
       <c r="L37" s="19"/>
-      <c r="M37" s="33"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" spans="8:13">
       <c r="H38" s="20" t="str">
@@ -5292,26 +5483,26 @@
       <c r="M41" s="20"/>
     </row>
     <row r="46" ht="17.4" spans="9:11">
-      <c r="I46" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
+      <c r="I46" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="15:17">
       <c r="O50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P50">
         <f>SUM(C37,E37,G37,I37,K37)</f>
         <v>840</v>
       </c>
-      <c r="Q50" s="30">
+      <c r="Q50" s="31">
         <f>IF(P50=0,1,P50)</f>
         <v>840</v>
       </c>
@@ -5363,12 +5554,12 @@
       <c r="S54" t="s">
         <v>8</v>
       </c>
-      <c r="T54" s="41" t="s">
+      <c r="T54" s="58" t="s">
         <v>9</v>
       </c>
       <c r="V54" s="10"/>
-      <c r="W54" s="42" t="s">
-        <v>10</v>
+      <c r="W54" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="X54" s="24" t="s">
         <v>11</v>
@@ -5381,7 +5572,7 @@
       <c r="O55" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T55" s="43">
+      <c r="T55" s="52">
         <v>1</v>
       </c>
       <c r="V55" s="13" t="s">
@@ -5390,13 +5581,13 @@
       <c r="X55" s="4">
         <v>1</v>
       </c>
-      <c r="AA55" s="41"/>
+      <c r="AA55" s="58"/>
     </row>
     <row r="56" spans="15:27">
       <c r="O56" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T56" s="43">
+      <c r="T56" s="52">
         <v>1</v>
       </c>
       <c r="V56" s="13" t="s">
@@ -5405,13 +5596,13 @@
       <c r="X56" s="4">
         <v>1</v>
       </c>
-      <c r="AA56" s="41"/>
+      <c r="AA56" s="58"/>
     </row>
     <row r="57" spans="15:27">
       <c r="O57" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T57" s="43">
+      <c r="T57" s="52">
         <v>1</v>
       </c>
       <c r="V57" s="13" t="s">
@@ -5420,13 +5611,13 @@
       <c r="X57" s="4">
         <v>1</v>
       </c>
-      <c r="AA57" s="41"/>
+      <c r="AA57" s="58"/>
     </row>
     <row r="58" spans="15:27">
       <c r="O58" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T58" s="43">
+      <c r="T58" s="52">
         <v>1</v>
       </c>
       <c r="V58" s="13" t="s">
@@ -5435,13 +5626,13 @@
       <c r="X58" s="4">
         <v>1</v>
       </c>
-      <c r="AA58" s="41"/>
+      <c r="AA58" s="58"/>
     </row>
     <row r="59" spans="15:27">
       <c r="O59" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="T59" s="43">
+      <c r="T59" s="52">
         <v>1</v>
       </c>
       <c r="V59" s="13" t="s">
@@ -5450,7 +5641,7 @@
       <c r="X59" s="4">
         <v>1</v>
       </c>
-      <c r="AA59" s="41"/>
+      <c r="AA59" s="58"/>
     </row>
     <row r="60" ht="15.15" spans="15:27">
       <c r="O60" s="17" t="s">
@@ -5460,19 +5651,19 @@
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
       <c r="S60" s="18"/>
-      <c r="T60" s="44">
+      <c r="T60" s="53">
         <v>1</v>
       </c>
       <c r="V60" s="17" t="s">
         <v>26</v>
       </c>
       <c r="W60" s="18"/>
-      <c r="X60" s="46">
+      <c r="X60" s="60">
         <v>1</v>
       </c>
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
-      <c r="AA60" s="47"/>
+      <c r="AA60" s="61"/>
     </row>
     <row r="61" spans="15:27">
       <c r="O61" s="6" t="s">
@@ -5509,19 +5700,19 @@
     <row r="63" spans="15:27">
       <c r="O63" s="13"/>
       <c r="P63" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="Q63" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="R63" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="S63" t="s">
-        <v>42</v>
-      </c>
-      <c r="T63" s="41" t="s">
-        <v>43</v>
+        <v>73</v>
+      </c>
+      <c r="T63" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="V63" s="10"/>
       <c r="W63" s="24" t="s">
@@ -5544,7 +5735,7 @@
       <c r="O64" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T64" s="43">
+      <c r="T64" s="52">
         <v>1</v>
       </c>
       <c r="V64" s="17" t="s">
@@ -5554,13 +5745,13 @@
       <c r="X64" s="18"/>
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
-      <c r="AA64" s="47"/>
+      <c r="AA64" s="61"/>
     </row>
     <row r="65" spans="15:27">
       <c r="O65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T65" s="43">
+      <c r="T65" s="52">
         <v>1</v>
       </c>
       <c r="W65">
@@ -5588,7 +5779,7 @@
       <c r="O66" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T66" s="43">
+      <c r="T66" s="52">
         <v>1</v>
       </c>
       <c r="Z66">
@@ -5604,7 +5795,7 @@
       <c r="O67" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T67" s="43">
+      <c r="T67" s="52">
         <v>1</v>
       </c>
     </row>
@@ -5612,7 +5803,7 @@
       <c r="O68" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="T68" s="43">
+      <c r="T68" s="52">
         <v>1</v>
       </c>
       <c r="W68">
@@ -5644,19 +5835,19 @@
       <c r="Q69" s="18"/>
       <c r="R69" s="18"/>
       <c r="S69" s="18"/>
-      <c r="T69" s="44">
+      <c r="T69" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="15:17">
       <c r="O71" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P71" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q71" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="16:17">
@@ -5669,11 +5860,11 @@
     </row>
     <row r="73" spans="16:16">
       <c r="P73" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -5686,6 +5877,7 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="I46:K46"/>
+    <mergeCell ref="O16:O17"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="O1:T2"/>
     <mergeCell ref="O10:T11"/>
@@ -5708,7 +5900,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ae1a4e42-00f5-4e2f-8c98-381ec27eaa0e}</x14:id>
+          <x14:id>{1b6d6946-d32c-41f3-92c8-5586167f73b2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5722,7 +5914,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{12da8cf7-0b83-4459-94c4-e4e924cba7f9}</x14:id>
+          <x14:id>{83dcfbaf-db0c-477c-af83-b26e095fb5ff}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5736,7 +5928,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ba711e4e-f17a-4f6f-a672-a580949b4aad}</x14:id>
+          <x14:id>{89311db6-d423-422b-b5cd-63fc1a34d25a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5755,7 +5947,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39c2f4c5-9450-4b83-88be-d9eea0bbbb84}</x14:id>
+          <x14:id>{311aabf0-9581-4400-8383-e16ed80230d6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5769,7 +5961,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4c58ea95-a1ad-4acc-843a-0f9407977f42}</x14:id>
+          <x14:id>{74721780-2e44-4419-b06b-114cb409259f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5783,7 +5975,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6f8b1d88-4078-411b-b575-26df7621bb2f}</x14:id>
+          <x14:id>{f03e85b9-efa6-4ca4-a9a3-4f5dd3d89662}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5821,7 +6013,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1d10b892-82d4-4cbb-a9b6-76677c4784f5}</x14:id>
+          <x14:id>{2db16132-b818-4b86-9db9-7fa6974560ac}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5843,12 +6035,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2aebc36b-c6c8-40bb-ab1e-7dec394fe9db}</x14:id>
+          <x14:id>{41f9f661-9ae4-4c90-96c3-8a83d4b595ce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:S21">
+  <conditionalFormatting sqref="P18:S22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5867,7 +6059,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ae1a4e42-00f5-4e2f-8c98-381ec27eaa0e}">
+          <x14:cfRule type="dataBar" id="{1b6d6946-d32c-41f3-92c8-5586167f73b2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5880,7 +6072,7 @@
           <xm:sqref>P13:T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{12da8cf7-0b83-4459-94c4-e4e924cba7f9}">
+          <x14:cfRule type="dataBar" id="{83dcfbaf-db0c-477c-af83-b26e095fb5ff}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5893,7 +6085,7 @@
           <xm:sqref>W13:AA13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ba711e4e-f17a-4f6f-a672-a580949b4aad}">
+          <x14:cfRule type="dataBar" id="{89311db6-d423-422b-b5cd-63fc1a34d25a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5906,7 +6098,7 @@
           <xm:sqref>C37:K37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39c2f4c5-9450-4b83-88be-d9eea0bbbb84}">
+          <x14:cfRule type="dataBar" id="{311aabf0-9581-4400-8383-e16ed80230d6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5919,7 +6111,7 @@
           <xm:sqref>C6:C36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4c58ea95-a1ad-4acc-843a-0f9407977f42}">
+          <x14:cfRule type="dataBar" id="{74721780-2e44-4419-b06b-114cb409259f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5932,7 +6124,7 @@
           <xm:sqref>L6:L36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6f8b1d88-4078-411b-b575-26df7621bb2f}">
+          <x14:cfRule type="dataBar" id="{f03e85b9-efa6-4ca4-a9a3-4f5dd3d89662}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5945,7 +6137,7 @@
           <xm:sqref>M6:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1d10b892-82d4-4cbb-a9b6-76677c4784f5}">
+          <x14:cfRule type="dataBar" id="{2db16132-b818-4b86-9db9-7fa6974560ac}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5958,7 +6150,7 @@
           <xm:sqref>B6 B8:B36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2aebc36b-c6c8-40bb-ab1e-7dec394fe9db}">
+          <x14:cfRule type="dataBar" id="{41f9f661-9ae4-4c90-96c3-8a83d4b595ce}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6004,30 +6196,30 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -6148,19 +6340,19 @@
     </row>
     <row r="23" spans="17:21">
       <c r="Q23" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="R23" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="S23" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="16:21">
@@ -6231,7 +6423,7 @@
     </row>
     <row r="33" spans="17:18">
       <c r="Q33" s="5" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="R33" t="s">
         <v>11</v>

--- a/src/main/resources/全方位测试输出表样板.xlsx
+++ b/src/main/resources/全方位测试输出表样板.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
   <si>
     <t>满配伤害表</t>
   </si>
@@ -37,6 +37,9 @@
     <t>角色</t>
   </si>
   <si>
+    <t>{角色简表}</t>
+  </si>
+  <si>
     <t>1花</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>1T</t>
   </si>
   <si>
+    <t>{伤害表}</t>
+  </si>
+  <si>
     <t>3号位</t>
   </si>
   <si>
@@ -229,9 +235,39 @@
     <t>合计伤害</t>
   </si>
   <si>
+    <t>星数</t>
+  </si>
+  <si>
+    <t>花数</t>
+  </si>
+  <si>
+    <t>是否开启6潜被动</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>非五星</t>
   </si>
   <si>
+    <t>队伍配置</t>
+  </si>
+  <si>
+    <t>{角色信息表}</t>
+  </si>
+  <si>
+    <t>注：潜力，房等信息浓缩在攻击力和生命值中</t>
+  </si>
+  <si>
+    <t>{羁绊表}</t>
+  </si>
+  <si>
+    <t>{五星表}</t>
+  </si>
+  <si>
     <t>20%配置</t>
   </si>
   <si>
@@ -244,6 +280,12 @@
     <t>80%配置</t>
   </si>
   <si>
+    <t>{练度表}</t>
+  </si>
+  <si>
+    <t>{贡献度表}</t>
+  </si>
+  <si>
     <t>伤害分布</t>
   </si>
   <si>
@@ -253,28 +295,10 @@
     <t>必杀回合伤害</t>
   </si>
   <si>
+    <t>{伤害构成}</t>
+  </si>
+  <si>
     <t>注意：需要和普攻伤害/必杀技伤害区分开</t>
-  </si>
-  <si>
-    <t>星数</t>
-  </si>
-  <si>
-    <t>花数</t>
-  </si>
-  <si>
-    <t>是否开启6潜被动</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>队伍配置</t>
-  </si>
-  <si>
-    <t>注：潜力，房等信息浓缩在攻击力和生命值中</t>
   </si>
 </sst>
 </file>
@@ -283,11 +307,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -326,14 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,16 +363,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,14 +402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -393,18 +410,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,23 +447,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -447,15 +456,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,6 +481,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,7 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,19 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,103 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +604,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +682,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,13 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,26 +1003,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,26 +1053,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,8 +1095,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,10 +1108,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,16 +1120,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1114,248 +1138,245 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,9 +1393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1827,7 +1845,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3639,7 +3657,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17732375" y="370205"/>
-        <a:ext cx="1794510" cy="1286510"/>
+        <a:ext cx="1794510" cy="1296035"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3668,7 +3686,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11668125" y="4514850"/>
+        <a:off x="11668125" y="4512945"/>
         <a:ext cx="7810500" cy="3432175"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3699,8 +3717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15925800" y="2554605"/>
-          <a:ext cx="3569970" cy="1932940"/>
+          <a:off x="15925800" y="2564130"/>
+          <a:ext cx="3569970" cy="1921510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4091,8 +4109,8 @@
   <sheetPr/>
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4118,237 +4136,242 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:27">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="22"/>
-      <c r="O1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="21"/>
+      <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="V1" s="43" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="V1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="44"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="43" t="s">
+      <c r="W1" s="43"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="23"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="48"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="44"/>
+    </row>
+    <row r="2" ht="15.15" spans="1:27">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="22"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="47"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="26" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="Q3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="R3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="S3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="50" t="s">
+      <c r="T3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="V3" s="9"/>
+      <c r="W3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="25"/>
+      <c r="X3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="24"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="27"/>
-      <c r="O4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="28">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="25"/>
+      <c r="O4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="26" t="e">
         <f>P55/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q4" s="26">
         <f t="shared" ref="Q4:Q9" si="0">Q55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="26">
         <f t="shared" ref="R4:R9" si="1">R55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="26">
         <f t="shared" ref="S4:S9" si="2">S55/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="T4" s="52">
+      <c r="T4" s="50">
         <v>1</v>
       </c>
-      <c r="V4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="28">
+      <c r="V4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="26" t="e">
         <f t="shared" ref="W4:W9" si="3">W55/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X4" s="50">
         <v>1</v>
       </c>
-      <c r="Y4" s="13"/>
-      <c r="AA4" s="58"/>
+      <c r="Y4" s="12"/>
+      <c r="AA4" s="56"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="G5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="I5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="L5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="M5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="28">
+      <c r="O5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="26">
         <f t="shared" ref="P4:P9" si="4">P56/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="52">
+      <c r="T5" s="50">
         <v>1</v>
       </c>
-      <c r="V5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="W5" s="28">
+      <c r="V5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X5" s="52">
+      <c r="X5" s="50">
         <v>1</v>
       </c>
-      <c r="Y5" s="13"/>
-      <c r="AA5" s="58"/>
+      <c r="Y5" s="12"/>
+      <c r="AA5" s="56"/>
     </row>
     <row r="6" ht="15" spans="1:27">
-      <c r="A6" s="16" t="s">
-        <v>19</v>
+      <c r="A6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4365,52 +4388,52 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="29">
         <f>IF(K6="","",SUM(C6,E6,G6,I6,K6))</f>
         <v>15</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="30">
         <f>IF(L6="","",SUM(L$6:L6))</f>
         <v>15</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="28">
+      <c r="O6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="50">
         <v>1</v>
       </c>
-      <c r="V6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="28">
+      <c r="V6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X6" s="52">
+      <c r="X6" s="50">
         <v>1</v>
       </c>
-      <c r="Y6" s="13"/>
-      <c r="AA6" s="58"/>
+      <c r="Y6" s="12"/>
+      <c r="AA6" s="56"/>
     </row>
     <row r="7" ht="15" spans="1:27">
-      <c r="A7" s="16" t="s">
-        <v>21</v>
+      <c r="A7" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -4427,52 +4450,52 @@
       <c r="K7">
         <v>6</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="29">
         <f t="shared" ref="L7:L36" si="5">IF(K7="","",SUM(C7,E7,G7,I7,K7))</f>
         <v>20</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="30">
         <f>IF(L7="","",SUM(L$6:L7))</f>
         <v>35</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="28">
+      <c r="O7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="50">
         <v>1</v>
       </c>
-      <c r="V7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="W7" s="28">
+      <c r="V7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X7" s="52">
+      <c r="X7" s="50">
         <v>1</v>
       </c>
-      <c r="Y7" s="13"/>
-      <c r="AA7" s="58"/>
+      <c r="Y7" s="12"/>
+      <c r="AA7" s="56"/>
     </row>
     <row r="8" ht="15" spans="1:27">
-      <c r="A8" s="16" t="s">
-        <v>23</v>
+      <c r="A8" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4489,52 +4512,52 @@
       <c r="K8">
         <v>7</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="29">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="30">
         <f>IF(L8="","",SUM(L$6:L8))</f>
         <v>60</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="28">
+      <c r="O8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="52">
+      <c r="T8" s="50">
         <v>1</v>
       </c>
-      <c r="V8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" s="28">
+      <c r="V8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X8" s="52">
+      <c r="X8" s="50">
         <v>1</v>
       </c>
-      <c r="Y8" s="13"/>
-      <c r="AA8" s="58"/>
+      <c r="Y8" s="12"/>
+      <c r="AA8" s="56"/>
     </row>
     <row r="9" ht="15.75" spans="1:27">
-      <c r="A9" s="16" t="s">
-        <v>25</v>
+      <c r="A9" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -4551,53 +4574,53 @@
       <c r="K9">
         <v>8</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="29">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="30">
         <f>IF(L9="","",SUM(L$6:L9))</f>
         <v>90</v>
       </c>
-      <c r="O9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="28">
+      <c r="O9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9" s="53">
+      <c r="T9" s="51">
         <v>1</v>
       </c>
-      <c r="V9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="W9" s="34">
+      <c r="V9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X9" s="53">
+      <c r="X9" s="51">
         <v>1</v>
       </c>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="61"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="59"/>
     </row>
     <row r="10" ht="15" spans="1:27">
-      <c r="A10" s="16" t="s">
-        <v>27</v>
+      <c r="A10" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -4614,34 +4637,34 @@
       <c r="K10">
         <v>9</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="29">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="30">
         <f>IF(L10="","",SUM(L$6:L10))</f>
         <v>125</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="V10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="22"/>
+      <c r="O10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="V10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="21"/>
     </row>
     <row r="11" ht="15.75" spans="1:27">
-      <c r="A11" s="16" t="s">
-        <v>30</v>
+      <c r="A11" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -4658,30 +4681,30 @@
       <c r="K11">
         <v>10</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="29">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="30">
         <f>IF(L11="","",SUM(L$6:L11))</f>
         <v>165</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="23"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="22"/>
     </row>
     <row r="12" ht="15" spans="1:27">
-      <c r="A12" s="16" t="s">
-        <v>31</v>
+      <c r="A12" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -4698,50 +4721,50 @@
       <c r="K12">
         <v>11</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="29">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="30">
         <f>IF(L12="","",SUM(L$6:L12))</f>
         <v>210</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="33" t="s">
+      <c r="O12" s="9"/>
+      <c r="P12" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="51" t="s">
+      <c r="S12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y12" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="33" t="s">
+      <c r="T12" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AA12" s="51" t="s">
+      <c r="Z12" s="31" t="s">
         <v>24</v>
       </c>
+      <c r="AA12" s="49" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" ht="15.75" spans="1:27">
-      <c r="A13" s="16" t="s">
-        <v>32</v>
+      <c r="A13" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -4758,64 +4781,64 @@
       <c r="K13">
         <v>12</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="29">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="30">
         <f>IF(L13="","",SUM(L$6:L13))</f>
         <v>260</v>
       </c>
-      <c r="O13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="34">
+      <c r="O13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="32">
         <f>C37/Q50</f>
         <v>0.161904761904762</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="32">
         <f>E37/Q50</f>
         <v>0.180952380952381</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="32">
         <f>G37/Q50</f>
         <v>0.2</v>
       </c>
-      <c r="S13" s="34">
+      <c r="S13" s="32">
         <f>I37/$Q$50</f>
         <v>0.219047619047619</v>
       </c>
-      <c r="T13" s="54">
+      <c r="T13" s="52">
         <f>K37/$Q$50</f>
         <v>0.238095238095238</v>
       </c>
-      <c r="V13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="W13" s="34">
+      <c r="V13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="32" t="e">
         <f>1-W68</f>
-        <v>1</v>
-      </c>
-      <c r="X13" s="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X13" s="32">
         <f>1-X68</f>
         <v>1</v>
       </c>
-      <c r="Y13" s="34">
+      <c r="Y13" s="32">
         <f>1-Y68</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="34">
+      <c r="Z13" s="32">
         <f>1-Z68</f>
         <v>1</v>
       </c>
-      <c r="AA13" s="54">
+      <c r="AA13" s="52">
         <f>1-AA68</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:20">
-      <c r="A14" s="16" t="s">
-        <v>35</v>
+      <c r="A14" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -4832,26 +4855,26 @@
       <c r="K14">
         <v>13</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="29">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="30">
         <f>IF(L14="","",SUM(L$6:L14))</f>
         <v>315</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="22"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:20">
-      <c r="A15" s="16" t="s">
-        <v>37</v>
+      <c r="O14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" ht="15" spans="1:20">
+      <c r="A15" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -4868,24 +4891,24 @@
       <c r="K15">
         <v>14</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="29">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="30">
         <f>IF(L15="","",SUM(L$6:L15))</f>
         <v>375</v>
       </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="55"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="53"/>
     </row>
     <row r="16" ht="15" spans="1:20">
-      <c r="A16" s="16" t="s">
-        <v>38</v>
+      <c r="A16" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -4902,36 +4925,36 @@
       <c r="K16">
         <v>15</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="29">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="30">
         <f>IF(L16="","",SUM(L$6:L16))</f>
         <v>440</v>
       </c>
-      <c r="O16" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="62" t="s">
+      <c r="O16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="62" t="s">
+      <c r="P16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="38" t="s">
+      <c r="Q16" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="56" t="s">
+      <c r="R16" s="60" t="s">
         <v>44</v>
       </c>
+      <c r="S16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="54" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" ht="15" spans="1:20">
-      <c r="A17" s="16" t="s">
-        <v>45</v>
+      <c r="A17" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -4948,34 +4971,34 @@
       <c r="K17">
         <v>16</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="29">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="30">
         <f>IF(L17="","",SUM(L$6:L17))</f>
         <v>510</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40">
+      <c r="O17" s="37"/>
+      <c r="P17" s="38">
         <v>0</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="Q17" s="38">
         <v>0.43</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="38">
         <v>0.61</v>
       </c>
-      <c r="S17" s="40">
+      <c r="S17" s="38">
         <v>0.82</v>
       </c>
-      <c r="T17" s="57">
+      <c r="T17" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:20">
-      <c r="A18" s="16" t="s">
-        <v>46</v>
+      <c r="A18" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -4992,40 +5015,40 @@
       <c r="K18">
         <v>17</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="29">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="30">
         <f>IF(L18="","",SUM(L$6:L18))</f>
         <v>585</v>
       </c>
-      <c r="O18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="28">
+      <c r="O18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="26" t="e">
         <f t="shared" ref="P18:P23" si="6">P64/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q18" s="26">
         <f t="shared" ref="Q18:Q23" si="7">Q64/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="26">
         <f t="shared" ref="R18:R23" si="8">R64/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="26">
         <f t="shared" ref="S18:S23" si="9">S64/$Q$50</f>
         <v>0</v>
       </c>
-      <c r="T18" s="52">
+      <c r="T18" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:20">
-      <c r="A19" s="16" t="s">
-        <v>47</v>
+      <c r="A19" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -5042,40 +5065,40 @@
       <c r="K19">
         <v>18</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="29">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="30">
         <f>IF(L19="","",SUM(L$6:L19))</f>
         <v>665</v>
       </c>
-      <c r="O19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" s="28">
+      <c r="O19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T19" s="52">
+      <c r="T19" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="15" spans="1:20">
-      <c r="A20" s="16" t="s">
-        <v>48</v>
+      <c r="A20" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -5092,40 +5115,40 @@
       <c r="K20">
         <v>19</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="29">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="30">
         <f>IF(L20="","",SUM(L$6:L20))</f>
         <v>750</v>
       </c>
-      <c r="O20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="28">
+      <c r="O20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="28">
+      <c r="Q20" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R20" s="28">
-        <f>R66/$Q$50</f>
+      <c r="R20" s="26">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T20" s="52">
+      <c r="T20" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:20">
-      <c r="A21" s="16" t="s">
-        <v>49</v>
+      <c r="A21" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -5142,621 +5165,671 @@
       <c r="K21">
         <v>20</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="29">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="30">
         <f>IF(L21="","",SUM(L$6:L21))</f>
         <v>840</v>
       </c>
-      <c r="O21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="28">
+      <c r="O21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R21" s="28">
+      <c r="R21" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S21" s="28">
+      <c r="S21" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T21" s="52">
+      <c r="T21" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
-      <c r="A22" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="31" t="str">
+    <row r="22" customFormat="1" ht="15" spans="1:20">
+      <c r="A22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M22" s="32" t="str">
+      <c r="M22" s="30" t="str">
         <f>IF(L22="","",SUM(L$6:L22))</f>
         <v/>
       </c>
-      <c r="O22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="28">
+      <c r="O22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T22" s="52">
+      <c r="T22" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.15" spans="1:20">
-      <c r="A23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="31" t="str">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M23" s="32" t="str">
+      <c r="M23" s="30" t="str">
         <f>IF(L23="","",SUM(L$6:L23))</f>
         <v/>
       </c>
-      <c r="O23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" s="34">
+      <c r="O23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R23" s="34">
+      <c r="R23" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S23" s="34">
+      <c r="S23" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T23" s="53">
+      <c r="T23" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="15" spans="1:13">
-      <c r="A24" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="31" t="str">
+      <c r="A24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M24" s="32" t="str">
+      <c r="M24" s="30" t="str">
         <f>IF(L24="","",SUM(L$6:L24))</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" spans="1:13">
-      <c r="A25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="31" t="str">
+      <c r="A25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M25" s="32" t="str">
+      <c r="M25" s="30" t="str">
         <f>IF(L25="","",SUM(L$6:L25))</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" spans="1:13">
-      <c r="A26" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="31" t="str">
+      <c r="A26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M26" s="32" t="str">
+      <c r="M26" s="30" t="str">
         <f>IF(L26="","",SUM(L$6:L26))</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" spans="1:13">
-      <c r="A27" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="31" t="str">
+      <c r="A27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M27" s="32" t="str">
+      <c r="M27" s="30" t="str">
         <f>IF(L27="","",SUM(L$6:L27))</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" spans="1:13">
-      <c r="A28" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="31" t="str">
+      <c r="A28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M28" s="32" t="str">
+      <c r="M28" s="30" t="str">
         <f>IF(L28="","",SUM(L$6:L28))</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" spans="1:13">
-      <c r="A29" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="31" t="str">
+      <c r="A29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M29" s="32" t="str">
+      <c r="M29" s="30" t="str">
         <f>IF(L29="","",SUM(L$6:L29))</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" spans="1:13">
-      <c r="A30" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="31" t="str">
+      <c r="A30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M30" s="32" t="str">
+      <c r="M30" s="30" t="str">
         <f>IF(L30="","",SUM(L$6:L30))</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" spans="1:13">
-      <c r="A31" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L31" s="31" t="str">
+      <c r="A31" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M31" s="32" t="str">
+      <c r="M31" s="30" t="str">
         <f>IF(L31="","",SUM(L$6:L31))</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" spans="1:13">
-      <c r="A32" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" s="31" t="str">
+      <c r="A32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M32" s="32" t="str">
+      <c r="M32" s="30" t="str">
         <f>IF(L32="","",SUM(L$6:L32))</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" spans="1:13">
-      <c r="A33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="31" t="str">
+      <c r="A33" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M33" s="32" t="str">
+      <c r="M33" s="30" t="str">
         <f>IF(L33="","",SUM(L$6:L33))</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" spans="1:13">
-      <c r="A34" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L34" s="31" t="str">
+      <c r="A34" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M34" s="32" t="str">
+      <c r="M34" s="30" t="str">
         <f>IF(L34="","",SUM(L$6:L34))</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" spans="1:13">
-      <c r="A35" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L35" s="31" t="str">
+      <c r="A35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M35" s="32" t="str">
+      <c r="M35" s="30" t="str">
         <f>IF(L35="","",SUM(L$6:L35))</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" spans="1:13">
-      <c r="A36" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36" s="31" t="str">
+      <c r="A36" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M36" s="32" t="str">
+      <c r="M36" s="30" t="str">
         <f>IF(L36="","",SUM(L$6:L36))</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15.15" spans="1:13">
-      <c r="A37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19">
+      <c r="A37" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18">
         <f>SUM(C$6:C36)</f>
         <v>136</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18">
         <f>SUM(E$6:E36)</f>
         <v>152</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18">
         <f>SUM(G$6:G36)</f>
         <v>168</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19">
+      <c r="H37" s="18"/>
+      <c r="I37" s="18">
         <f>SUM(I$6:I36)</f>
         <v>184</v>
       </c>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19">
+      <c r="J37" s="18"/>
+      <c r="K37" s="18">
         <f>SUM(K$6:K36)</f>
         <v>200</v>
       </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="41"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="39"/>
     </row>
     <row r="38" spans="8:13">
-      <c r="H38" s="20" t="str">
+      <c r="H38" s="19" t="str">
         <f>COUNT($M:$M)&amp;"回合伤害："&amp;Q50</f>
         <v>16回合伤害：840</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
     </row>
     <row r="39" ht="18" customHeight="1" spans="7:13">
-      <c r="G39" s="21"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" ht="22" customHeight="1" spans="7:13">
-      <c r="G40" s="21"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="7:13">
-      <c r="G41" s="21"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
     </row>
     <row r="46" ht="17.4" spans="9:11">
-      <c r="I46" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="I46" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="15:17">
       <c r="O50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P50">
         <f>SUM(C37,E37,G37,I37,K37)</f>
         <v>840</v>
       </c>
-      <c r="Q50" s="31">
+      <c r="Q50" s="29">
         <f>IF(P50=0,1,P50)</f>
         <v>840</v>
       </c>
     </row>
     <row r="51" ht="15.15"/>
     <row r="52" spans="15:27">
-      <c r="O52" s="6" t="s">
+      <c r="O52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="V52" s="6" t="s">
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="V52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
     </row>
     <row r="53" ht="15.15" spans="15:27">
-      <c r="O53" s="8"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-    </row>
-    <row r="54" spans="15:27">
-      <c r="O54" s="13"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+    </row>
+    <row r="54" spans="4:27">
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s">
+        <v>75</v>
+      </c>
+      <c r="O54" s="12"/>
       <c r="P54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S54" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="V54" s="10"/>
-      <c r="W54" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="X54" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="25"/>
-    </row>
-    <row r="55" spans="15:27">
-      <c r="O55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="T55" s="52">
+      <c r="T54" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="V54" s="9"/>
+      <c r="W54" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="X54" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="24"/>
+    </row>
+    <row r="55" spans="3:27">
+      <c r="C55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="O55" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P55" t="s">
+        <v>80</v>
+      </c>
+      <c r="T55" s="50">
         <v>1</v>
       </c>
-      <c r="V55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="X55" s="4">
+      <c r="V55" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W55" t="s">
+        <v>81</v>
+      </c>
+      <c r="X55" s="3">
         <v>1</v>
       </c>
-      <c r="AA55" s="58"/>
-    </row>
-    <row r="56" spans="15:27">
-      <c r="O56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="T56" s="52">
+      <c r="AA55" s="56"/>
+    </row>
+    <row r="56" spans="3:27">
+      <c r="C56" s="2"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="O56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T56" s="50">
         <v>1</v>
       </c>
-      <c r="V56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="X56" s="4">
+      <c r="V56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="X56" s="3">
         <v>1</v>
       </c>
-      <c r="AA56" s="58"/>
-    </row>
-    <row r="57" spans="15:27">
-      <c r="O57" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T57" s="52">
+      <c r="AA56" s="56"/>
+    </row>
+    <row r="57" spans="3:27">
+      <c r="C57" s="2"/>
+      <c r="O57" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T57" s="50">
         <v>1</v>
       </c>
-      <c r="V57" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="X57" s="4">
+      <c r="V57" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X57" s="3">
         <v>1</v>
       </c>
-      <c r="AA57" s="58"/>
-    </row>
-    <row r="58" spans="15:27">
-      <c r="O58" s="13" t="s">
+      <c r="AA57" s="56"/>
+    </row>
+    <row r="58" spans="3:27">
+      <c r="C58" s="2"/>
+      <c r="O58" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T58" s="50">
+        <v>1</v>
+      </c>
+      <c r="V58" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="X58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="56"/>
+    </row>
+    <row r="59" spans="3:27">
+      <c r="C59" s="2"/>
+      <c r="O59" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T59" s="50">
+        <v>1</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="56"/>
+    </row>
+    <row r="60" ht="15.15" spans="15:27">
+      <c r="O60" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="51">
+        <v>1</v>
+      </c>
+      <c r="V60" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W60" s="17"/>
+      <c r="X60" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="59"/>
+    </row>
+    <row r="61" spans="15:27">
+      <c r="O61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="21"/>
+      <c r="V61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+    </row>
+    <row r="62" ht="15.15" spans="15:27">
+      <c r="O62" s="7"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="22"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+    </row>
+    <row r="63" spans="15:27">
+      <c r="O63" s="12"/>
+      <c r="P63" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>83</v>
+      </c>
+      <c r="R63" t="s">
+        <v>84</v>
+      </c>
+      <c r="S63" t="s">
+        <v>85</v>
+      </c>
+      <c r="T63" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="V63" s="9"/>
+      <c r="W63" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="X63" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y63" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="T58" s="52">
+      <c r="Z63" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA63" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" ht="15.15" spans="15:27">
+      <c r="O64" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P64" t="s">
+        <v>86</v>
+      </c>
+      <c r="T64" s="50">
         <v>1</v>
       </c>
-      <c r="V58" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="X58" s="4">
+      <c r="V64" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W64" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="59"/>
+    </row>
+    <row r="65" spans="15:27">
+      <c r="O65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T65" s="50">
         <v>1</v>
       </c>
-      <c r="AA58" s="58"/>
-    </row>
-    <row r="59" spans="15:27">
-      <c r="O59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T59" s="52">
-        <v>1</v>
-      </c>
-      <c r="V59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="X59" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="58"/>
-    </row>
-    <row r="60" ht="15.15" spans="15:27">
-      <c r="O60" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="53">
-        <v>1</v>
-      </c>
-      <c r="V60" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="W60" s="18"/>
-      <c r="X60" s="60">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="61"/>
-    </row>
-    <row r="61" spans="15:27">
-      <c r="O61" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="22"/>
-      <c r="V61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-    </row>
-    <row r="62" ht="15.15" spans="15:27">
-      <c r="O62" s="8"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="23"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
-    </row>
-    <row r="63" spans="15:27">
-      <c r="O63" s="13"/>
-      <c r="P63" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>71</v>
-      </c>
-      <c r="R63" t="s">
-        <v>72</v>
-      </c>
-      <c r="S63" t="s">
-        <v>73</v>
-      </c>
-      <c r="T63" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="V63" s="10"/>
-      <c r="W63" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="X63" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y63" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z63" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA63" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" ht="15.15" spans="15:27">
-      <c r="O64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="T64" s="52">
-        <v>1</v>
-      </c>
-      <c r="V64" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="61"/>
-    </row>
-    <row r="65" spans="15:27">
-      <c r="O65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="T65" s="52">
-        <v>1</v>
-      </c>
-      <c r="W65">
+      <c r="W65" t="e">
         <f>$AA$66-W64</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X65">
         <f>$AA$66-X64</f>
@@ -5776,15 +5849,15 @@
       </c>
     </row>
     <row r="66" spans="15:27">
-      <c r="O66" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T66" s="52">
+      <c r="O66" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T66" s="50">
         <v>1</v>
       </c>
-      <c r="Z66">
+      <c r="Z66" t="e">
         <f>SUM(W65:AA65)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA66">
         <f>SUM(W64:AA64)</f>
@@ -5792,23 +5865,23 @@
       </c>
     </row>
     <row r="67" spans="15:20">
-      <c r="O67" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="T67" s="52">
+      <c r="O67" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T67" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="15:27">
-      <c r="O68" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T68" s="52">
+      <c r="O68" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T68" s="50">
         <v>1</v>
       </c>
-      <c r="W68">
+      <c r="W68" t="e">
         <f>W64/$Q$50</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X68">
         <f>X64/$Q$50</f>
@@ -5827,32 +5900,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="15.15" spans="15:20">
-      <c r="O69" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="53">
+    <row r="69" spans="15:20">
+      <c r="O69" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="15:17">
       <c r="O71" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P71" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="Q71" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="16:17">
-      <c r="P72">
-        <v>1</v>
+      <c r="P72" t="s">
+        <v>91</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -5860,11 +5933,11 @@
     </row>
     <row r="73" spans="16:16">
       <c r="P73" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -5877,6 +5950,7 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C55:C59"/>
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="O1:T2"/>
@@ -5890,6 +5964,7 @@
     <mergeCell ref="V1:X2"/>
     <mergeCell ref="Y1:AA2"/>
     <mergeCell ref="H38:M41"/>
+    <mergeCell ref="K55:M56"/>
   </mergeCells>
   <conditionalFormatting sqref="P13:T13">
     <cfRule type="dataBar" priority="1">
@@ -5900,7 +5975,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1b6d6946-d32c-41f3-92c8-5586167f73b2}</x14:id>
+          <x14:id>{4a00cd3c-be71-4a68-ac8a-503577c1bc68}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5914,7 +5989,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83dcfbaf-db0c-477c-af83-b26e095fb5ff}</x14:id>
+          <x14:id>{b897338c-3d6d-4e17-9165-ae12d63bb900}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5928,7 +6003,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89311db6-d423-422b-b5cd-63fc1a34d25a}</x14:id>
+          <x14:id>{0373baf7-3e40-4dea-9fc8-bc3a460e377f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5947,7 +6022,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{311aabf0-9581-4400-8383-e16ed80230d6}</x14:id>
+          <x14:id>{c886d837-3aee-495c-be9d-35d9d7309772}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5961,7 +6036,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{74721780-2e44-4419-b06b-114cb409259f}</x14:id>
+          <x14:id>{88873250-6656-4c99-95fa-c957e4b1b7ba}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5975,7 +6050,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f03e85b9-efa6-4ca4-a9a3-4f5dd3d89662}</x14:id>
+          <x14:id>{d6410ffa-789a-45c8-b9af-1a4a1b457503}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6013,7 +6088,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2db16132-b818-4b86-9db9-7fa6974560ac}</x14:id>
+          <x14:id>{8712fc2b-b2a9-456d-9197-37f6dcd16c6d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6035,7 +6110,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{41f9f661-9ae4-4c90-96c3-8a83d4b595ce}</x14:id>
+          <x14:id>{915d0f0c-b764-42f9-8e34-5b41547e341e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6059,7 +6134,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1b6d6946-d32c-41f3-92c8-5586167f73b2}">
+          <x14:cfRule type="dataBar" id="{4a00cd3c-be71-4a68-ac8a-503577c1bc68}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6072,7 +6147,7 @@
           <xm:sqref>P13:T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83dcfbaf-db0c-477c-af83-b26e095fb5ff}">
+          <x14:cfRule type="dataBar" id="{b897338c-3d6d-4e17-9165-ae12d63bb900}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6085,7 +6160,7 @@
           <xm:sqref>W13:AA13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{89311db6-d423-422b-b5cd-63fc1a34d25a}">
+          <x14:cfRule type="dataBar" id="{0373baf7-3e40-4dea-9fc8-bc3a460e377f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6098,7 +6173,7 @@
           <xm:sqref>C37:K37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{311aabf0-9581-4400-8383-e16ed80230d6}">
+          <x14:cfRule type="dataBar" id="{c886d837-3aee-495c-be9d-35d9d7309772}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6111,7 +6186,7 @@
           <xm:sqref>C6:C36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{74721780-2e44-4419-b06b-114cb409259f}">
+          <x14:cfRule type="dataBar" id="{88873250-6656-4c99-95fa-c957e4b1b7ba}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6124,7 +6199,7 @@
           <xm:sqref>L6:L36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f03e85b9-efa6-4ca4-a9a3-4f5dd3d89662}">
+          <x14:cfRule type="dataBar" id="{d6410ffa-789a-45c8-b9af-1a4a1b457503}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6137,7 +6212,7 @@
           <xm:sqref>M6:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2db16132-b818-4b86-9db9-7fa6974560ac}">
+          <x14:cfRule type="dataBar" id="{8712fc2b-b2a9-456d-9197-37f6dcd16c6d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6150,7 +6225,7 @@
           <xm:sqref>B6 B8:B36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{41f9f661-9ae4-4c90-96c3-8a83d4b595ce}">
+          <x14:cfRule type="dataBar" id="{915d0f0c-b764-42f9-8e34-5b41547e341e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6171,10 +6246,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U39"/>
+  <dimension ref="P8:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A1" sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6191,296 +6266,246 @@
     <col min="11" max="11" width="15.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
     <row r="8" ht="19" customHeight="1"/>
     <row r="11" spans="16:21">
       <c r="P11" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="4">
+        <v>22</v>
+      </c>
+      <c r="U11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="16:21">
       <c r="P12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="4">
+        <v>24</v>
+      </c>
+      <c r="U12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="16:21">
       <c r="P13" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="4">
+        <v>26</v>
+      </c>
+      <c r="U13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="16:21">
       <c r="P14" t="s">
-        <v>26</v>
-      </c>
-      <c r="U14" s="4">
+        <v>28</v>
+      </c>
+      <c r="U14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="16:21">
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="16:21">
-      <c r="P16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="P16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
     </row>
     <row r="17" spans="16:21">
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
     </row>
     <row r="18" spans="17:21">
       <c r="Q18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="16:16">
       <c r="P19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="16:21">
-      <c r="P21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="P21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
     </row>
     <row r="22" spans="16:21">
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
     </row>
     <row r="23" spans="17:21">
       <c r="Q23" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="R23" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="S23" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="T23" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="U23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="16:21">
       <c r="P24" t="s">
-        <v>13</v>
-      </c>
-      <c r="U24" s="4">
+        <v>14</v>
+      </c>
+      <c r="U24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="16:21">
       <c r="P25" t="s">
-        <v>18</v>
-      </c>
-      <c r="U25" s="4">
+        <v>19</v>
+      </c>
+      <c r="U25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="16:21">
       <c r="P26" t="s">
-        <v>20</v>
-      </c>
-      <c r="U26" s="4">
+        <v>22</v>
+      </c>
+      <c r="U26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="16:21">
       <c r="P27" t="s">
-        <v>22</v>
-      </c>
-      <c r="U27" s="4">
+        <v>24</v>
+      </c>
+      <c r="U27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="16:21">
       <c r="P28" t="s">
-        <v>24</v>
-      </c>
-      <c r="U28" s="4">
+        <v>26</v>
+      </c>
+      <c r="U28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="16:21">
       <c r="P29" t="s">
-        <v>26</v>
-      </c>
-      <c r="U29" s="4">
+        <v>28</v>
+      </c>
+      <c r="U29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="16:21">
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
     </row>
     <row r="32" spans="16:21">
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
     </row>
     <row r="33" spans="17:18">
-      <c r="Q33" s="5" t="s">
-        <v>69</v>
+      <c r="Q33" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="R33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="16:18">
       <c r="P34" t="s">
-        <v>13</v>
-      </c>
-      <c r="R34" s="4">
+        <v>14</v>
+      </c>
+      <c r="R34" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="16:18">
       <c r="P35" t="s">
-        <v>18</v>
-      </c>
-      <c r="R35" s="4">
+        <v>19</v>
+      </c>
+      <c r="R35" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="16:18">
       <c r="P36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="4">
+        <v>22</v>
+      </c>
+      <c r="R36" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="16:18">
       <c r="P37" t="s">
-        <v>22</v>
-      </c>
-      <c r="R37" s="4">
+        <v>24</v>
+      </c>
+      <c r="R37" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="16:18">
       <c r="P38" t="s">
-        <v>24</v>
-      </c>
-      <c r="R38" s="4">
+        <v>26</v>
+      </c>
+      <c r="R38" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="16:18">
       <c r="P39" t="s">
-        <v>26</v>
-      </c>
-      <c r="R39" s="4">
+        <v>28</v>
+      </c>
+      <c r="R39" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="I2:K3"/>
+  <mergeCells count="3">
     <mergeCell ref="P31:U32"/>
     <mergeCell ref="P16:U17"/>
     <mergeCell ref="P21:U22"/>

--- a/src/main/resources/全方位测试输出表样板.xlsx
+++ b/src/main/resources/全方位测试输出表样板.xlsx
@@ -11,16 +11,16 @@
     <sheet name="角色信息" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="回合数" localSheetId="0">OFFSET(满配伤害!$A$5,1,0,COUNT(满配伤害!$M:$M))</definedName>
-    <definedName name="累积伤害" localSheetId="0">OFFSET(满配伤害!$M$5,1,0,COUNT(满配伤害!$M:$M))</definedName>
-    <definedName name="伤害差值">OFFSET(满配伤害!$L$5,1,0,COUNT(满配伤害!$M:$M))</definedName>
+    <definedName name="回合数" localSheetId="0">OFFSET(满配伤害!$A$5,1,0,COUNT(满配伤害!$N:$N))</definedName>
+    <definedName name="累积伤害" localSheetId="0">OFFSET(满配伤害!$N$5,1,0,COUNT(满配伤害!$N:$N))</definedName>
+    <definedName name="伤害差值">OFFSET(满配伤害!$M$5,1,0,COUNT(满配伤害!$N:$N))</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="96">
   <si>
     <t>满配伤害表</t>
   </si>
@@ -67,6 +67,9 @@
     <t>1号位</t>
   </si>
   <si>
+    <t>回合数</t>
+  </si>
+  <si>
     <t>行动轴</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>1T</t>
   </si>
   <si>
+    <t>{行动轴}</t>
+  </si>
+  <si>
     <t>{伤害表}</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>2T</t>
+  </si>
+  <si>
+    <t>1a1 2a2 3a3 4a4 5a5</t>
   </si>
   <si>
     <t>4号位</t>
@@ -313,7 +322,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +333,21 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -493,7 +517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +544,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -527,6 +563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -735,6 +777,19 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -774,6 +829,17 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -904,19 +970,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -928,27 +981,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -971,9 +1006,31 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -989,6 +1046,15 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1108,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,137 +1186,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,7 +1335,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,85 +1344,85 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1365,50 +1431,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1416,22 +1488,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1826,7 +1910,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>满配伤害!$P$71:$Q$71</c:f>
+              <c:f>满配伤害!$Q$71:$R$71</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1840,7 +1924,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>满配伤害!$P$72:$Q$72</c:f>
+              <c:f>满配伤害!$Q$72:$R$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3639,13 +3723,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>167005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
@@ -3656,8 +3740,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17732375" y="370205"/>
-        <a:ext cx="1794510" cy="1296035"/>
+        <a:off x="18951575" y="370205"/>
+        <a:ext cx="1794510" cy="1286510"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3669,16 +3753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>538480</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>558165</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>173990</xdr:rowOff>
+      <xdr:rowOff>207010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3686,8 +3770,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11668125" y="4512945"/>
-        <a:ext cx="7810500" cy="3432175"/>
+        <a:off x="13223240" y="4471670"/>
+        <a:ext cx="7494270" cy="3496945"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3700,15 +3784,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>33655</xdr:colOff>
+      <xdr:colOff>109220</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>67310</xdr:rowOff>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3717,14 +3801,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15925800" y="2564130"/>
+          <a:off x="17100550" y="2543810"/>
           <a:ext cx="3569970" cy="1921510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -3753,94 +3837,470 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>羁绊表：将同位置换为更低羁绊的角色，伤害发生的变化（百分比），下同</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>最左边的行动轴：数字代表</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角色位置</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>五星权重：只取消</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>右边一点羁绊表：将同位置换为更低羁绊的角色，伤害发生的变化（百分比），下同</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>星</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>攻击力不变</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>输出表：各个角色输出占比</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>五星权重：只取消</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>星</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>攻击力不变</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>贡献度表：将对应位置换成同属性木桩</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>输出表：各个角色输出占比</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>练度表：将同位置攻击力缩放对应比例</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>贡献度表：将对应位置换成同属性木桩</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>练度表：将同位置攻击力缩放对应比例</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>越红代表越吃练度，越绿代表越不吃练度</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
             <a:t>布魔超级计算器</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
             <a:t>V1 By </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
             <a:t>小</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
             <a:t>r</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="267970"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9214485" y="3834765"/>
+          <a:ext cx="309880" cy="267970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542290</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2603500" y="5471160"/>
+          <a:ext cx="3572510" cy="1228090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>最左边的行动轴：第一个数字代表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角色位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>字母</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>代表攻击，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>q</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>代表必杀，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>代表防御</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>。第二个数字代表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>敌人位置</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>中间的行动轴：第一个数字代表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行动顺序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，第二个数字依然代表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>敌人位置</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4107,146 +4567,150 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA73"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.72222222222222" customWidth="1"/>
-    <col min="2" max="2" width="8.17592592592593" customWidth="1"/>
-    <col min="3" max="3" width="17.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.17592592592593" customWidth="1"/>
-    <col min="5" max="5" width="17.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="8.17592592592593" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="8.17592592592593" customWidth="1"/>
-    <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="8.17592592592593" customWidth="1"/>
-    <col min="11" max="11" width="17.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="16.9814814814815" customWidth="1"/>
-    <col min="13" max="13" width="11.5833333333333" customWidth="1"/>
-    <col min="14" max="14" width="4.12962962962963" customWidth="1"/>
-    <col min="17" max="17" width="10.3148148148148" customWidth="1"/>
-    <col min="18" max="18" width="9.68518518518519" customWidth="1"/>
-    <col min="19" max="19" width="10.6296296296296" customWidth="1"/>
-    <col min="21" max="21" width="3.80555555555556" customWidth="1"/>
+    <col min="2" max="2" width="21.7407407407407" customWidth="1"/>
+    <col min="3" max="3" width="8.17592592592593" customWidth="1"/>
+    <col min="4" max="4" width="17.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.17592592592593" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="8.17592592592593" customWidth="1"/>
+    <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="8.17592592592593" customWidth="1"/>
+    <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.17592592592593" customWidth="1"/>
+    <col min="12" max="12" width="17.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="16.9814814814815" customWidth="1"/>
+    <col min="14" max="14" width="11.5833333333333" customWidth="1"/>
+    <col min="15" max="15" width="4.12962962962963" customWidth="1"/>
+    <col min="16" max="16" width="6.98148148148148" customWidth="1"/>
+    <col min="18" max="18" width="10.3148148148148" customWidth="1"/>
+    <col min="19" max="19" width="9.68518518518519" customWidth="1"/>
+    <col min="20" max="20" width="10.6296296296296" customWidth="1"/>
+    <col min="22" max="22" width="3.80555555555556" customWidth="1"/>
+    <col min="23" max="23" width="6.83333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:27">
+    <row r="1" ht="16" customHeight="1" spans="1:28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="21"/>
-      <c r="O1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="26"/>
+      <c r="P1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="V1" s="42" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="W1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="43"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="42" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="44"/>
-    </row>
-    <row r="2" ht="15.15" spans="1:27">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="22"/>
-      <c r="O2" s="7"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="62"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="27"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="47"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="9" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="63"/>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="2" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="U3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="48" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="49" t="s">
+      <c r="Y3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="24"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="12" t="s">
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="29"/>
+    </row>
+    <row r="4" spans="2:28">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4257,1716 +4721,1757 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="25"/>
-      <c r="O4" s="12" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="30"/>
+      <c r="P4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="26" t="e">
-        <f>P55/$Q$50</f>
+      <c r="Q4" s="47" t="e">
+        <f>Q55/$R$50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q4" s="26">
-        <f t="shared" ref="Q4:Q9" si="0">Q55/$Q$50</f>
+      <c r="R4" s="47">
+        <f t="shared" ref="R4:R9" si="0">R55/$R$50</f>
         <v>0</v>
       </c>
-      <c r="R4" s="26">
-        <f t="shared" ref="R4:R9" si="1">R55/$Q$50</f>
+      <c r="S4" s="47">
+        <f t="shared" ref="S4:S9" si="1">S55/$R$50</f>
         <v>0</v>
       </c>
-      <c r="S4" s="26">
-        <f t="shared" ref="S4:S9" si="2">S55/$Q$50</f>
+      <c r="T4" s="47">
+        <f t="shared" ref="T4:T9" si="2">T55/$R$50</f>
         <v>0</v>
       </c>
-      <c r="T4" s="50">
+      <c r="U4" s="48">
         <v>1</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="W4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="26" t="e">
-        <f t="shared" ref="W4:W9" si="3">W55/$Q$50</f>
+      <c r="X4" s="47" t="e">
+        <f t="shared" ref="X4:X9" si="3">X55/$R$50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X4" s="50">
+      <c r="Y4" s="48">
         <v>1</v>
       </c>
-      <c r="Y4" s="12"/>
-      <c r="AA4" s="56"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="Z4" s="14"/>
+      <c r="AB4" s="60"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="D5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="F5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="H5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="J5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="K5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="26">
-        <f t="shared" ref="P4:P9" si="4">P56/$Q$50</f>
+      <c r="P5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="47">
+        <f t="shared" ref="Q4:Q9" si="4">Q56/$R$50</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="R5" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="26">
+      <c r="S5" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="26">
+      <c r="T5" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="50">
+      <c r="U5" s="48">
         <v>1</v>
       </c>
-      <c r="V5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" s="26">
+      <c r="W5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X5" s="50">
+      <c r="Y5" s="48">
         <v>1</v>
       </c>
-      <c r="Y5" s="12"/>
-      <c r="AA5" s="56"/>
-    </row>
-    <row r="6" ht="15" spans="1:27">
-      <c r="A6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="Z5" s="14"/>
+      <c r="AB5" s="60"/>
+    </row>
+    <row r="6" ht="15" spans="1:28">
+      <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6" s="29">
-        <f>IF(K6="","",SUM(C6,E6,G6,I6,K6))</f>
+      <c r="M6" s="33">
+        <f>IF(L6="","",SUM(D6,F6,H6,J6,L6))</f>
         <v>15</v>
       </c>
-      <c r="M6" s="30">
-        <f>IF(L6="","",SUM(L$6:L6))</f>
+      <c r="N6" s="34">
+        <f>IF(M6="","",SUM(M$6:M6))</f>
         <v>15</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="26">
+      <c r="P6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="R6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="26">
+      <c r="S6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S6" s="26">
+      <c r="T6" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="50">
+      <c r="U6" s="48">
         <v>1</v>
       </c>
-      <c r="V6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="W6" s="26">
+      <c r="W6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X6" s="50">
+      <c r="Y6" s="48">
         <v>1</v>
       </c>
-      <c r="Y6" s="12"/>
-      <c r="AA6" s="56"/>
-    </row>
-    <row r="7" ht="15" spans="1:27">
-      <c r="A7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
+      <c r="Z6" s="14"/>
+      <c r="AB6" s="60"/>
+    </row>
+    <row r="7" ht="15" spans="1:28">
+      <c r="A7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="L7" s="29">
-        <f t="shared" ref="L7:L36" si="5">IF(K7="","",SUM(C7,E7,G7,I7,K7))</f>
+      <c r="M7" s="33">
+        <f t="shared" ref="M7:M36" si="5">IF(L7="","",SUM(D7,F7,H7,J7,L7))</f>
         <v>20</v>
       </c>
-      <c r="M7" s="30">
-        <f>IF(L7="","",SUM(L$6:L7))</f>
+      <c r="N7" s="34">
+        <f>IF(M7="","",SUM(M$6:M7))</f>
         <v>35</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="26">
+      <c r="P7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="R7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="26">
+      <c r="S7" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S7" s="26">
+      <c r="T7" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="50">
+      <c r="U7" s="48">
         <v>1</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="W7" s="26">
+      <c r="W7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X7" s="50">
+      <c r="Y7" s="48">
         <v>1</v>
       </c>
-      <c r="Y7" s="12"/>
-      <c r="AA7" s="56"/>
-    </row>
-    <row r="8" ht="15" spans="1:27">
-      <c r="A8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
+      <c r="Z7" s="14"/>
+      <c r="AB7" s="60"/>
+    </row>
+    <row r="8" ht="15" spans="1:28">
+      <c r="A8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="L8" s="29">
+      <c r="M8" s="33">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="M8" s="30">
-        <f>IF(L8="","",SUM(L$6:L8))</f>
+      <c r="N8" s="34">
+        <f>IF(M8="","",SUM(M$6:M8))</f>
         <v>60</v>
       </c>
-      <c r="O8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="26">
+      <c r="P8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="R8" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="26">
+      <c r="S8" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S8" s="26">
+      <c r="T8" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="50">
+      <c r="U8" s="48">
         <v>1</v>
       </c>
-      <c r="V8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="W8" s="26">
+      <c r="W8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X8" s="50">
+      <c r="Y8" s="48">
         <v>1</v>
       </c>
-      <c r="Y8" s="12"/>
-      <c r="AA8" s="56"/>
-    </row>
-    <row r="9" ht="15.75" spans="1:27">
-      <c r="A9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
+      <c r="Z8" s="14"/>
+      <c r="AB8" s="60"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:28">
+      <c r="A9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>8</v>
       </c>
-      <c r="L9" s="29">
+      <c r="M9" s="33">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="M9" s="30">
-        <f>IF(L9="","",SUM(L$6:L9))</f>
+      <c r="N9" s="34">
+        <f>IF(M9="","",SUM(M$6:M9))</f>
         <v>90</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="26">
+      <c r="P9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="R9" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="26">
+      <c r="S9" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S9" s="26">
+      <c r="T9" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9" s="51">
+      <c r="U9" s="49">
         <v>1</v>
       </c>
-      <c r="V9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="32">
+      <c r="W9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X9" s="51">
+      <c r="Y9" s="49">
         <v>1</v>
       </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="59"/>
-    </row>
-    <row r="10" ht="15" spans="1:27">
-      <c r="A10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="64"/>
+    </row>
+    <row r="10" ht="15" spans="1:28">
+      <c r="A10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="L10" s="29">
+      <c r="M10" s="33">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="M10" s="30">
-        <f>IF(L10="","",SUM(L$6:L10))</f>
+      <c r="N10" s="34">
+        <f>IF(M10="","",SUM(M$6:M10))</f>
         <v>125</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="V10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="21"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:27">
-      <c r="A11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
+      <c r="P10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="W10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="26"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:28">
+      <c r="A11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>8</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="L11" s="29">
+      <c r="M11" s="33">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="M11" s="30">
-        <f>IF(L11="","",SUM(L$6:L11))</f>
+      <c r="N11" s="34">
+        <f>IF(M11="","",SUM(M$6:M11))</f>
         <v>165</v>
       </c>
-      <c r="O11" s="7"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="V11" s="7"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
       <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="22"/>
-    </row>
-    <row r="12" ht="15" spans="1:27">
-      <c r="A12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="27"/>
+    </row>
+    <row r="12" ht="15" spans="1:28">
+      <c r="A12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>9</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>11</v>
       </c>
-      <c r="L12" s="29">
+      <c r="M12" s="33">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="M12" s="30">
-        <f>IF(L12="","",SUM(L$6:L12))</f>
+      <c r="N12" s="34">
+        <f>IF(M12="","",SUM(M$6:M12))</f>
         <v>210</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="11"/>
+      <c r="Q12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="31" t="s">
+      <c r="R12" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="31" t="s">
+      <c r="T12" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="11"/>
+      <c r="X12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="X12" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z12" s="31" t="s">
+      <c r="Y12" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="AA12" s="49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:27">
-      <c r="A13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
+      <c r="AA12" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB12" s="52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:28">
+      <c r="A13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>11</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>12</v>
       </c>
-      <c r="L13" s="29">
+      <c r="M13" s="33">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="M13" s="30">
-        <f>IF(L13="","",SUM(L$6:L13))</f>
+      <c r="N13" s="34">
+        <f>IF(M13="","",SUM(M$6:M13))</f>
         <v>260</v>
       </c>
-      <c r="O13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="32">
-        <f>C37/Q50</f>
+      <c r="P13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="50">
+        <f>D37/R50</f>
         <v>0.161904761904762</v>
       </c>
-      <c r="Q13" s="32">
-        <f>E37/Q50</f>
+      <c r="R13" s="50">
+        <f>F37/R50</f>
         <v>0.180952380952381</v>
       </c>
-      <c r="R13" s="32">
-        <f>G37/Q50</f>
+      <c r="S13" s="50">
+        <f>H37/R50</f>
         <v>0.2</v>
       </c>
-      <c r="S13" s="32">
-        <f>I37/$Q$50</f>
+      <c r="T13" s="50">
+        <f>J37/$R$50</f>
         <v>0.219047619047619</v>
       </c>
-      <c r="T13" s="52">
-        <f>K37/$Q$50</f>
+      <c r="U13" s="53">
+        <f>L37/$R$50</f>
         <v>0.238095238095238</v>
       </c>
-      <c r="V13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" s="32" t="e">
-        <f>1-W68</f>
+      <c r="W13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="50" t="e">
+        <f>1-X68</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X13" s="32">
-        <f>1-X68</f>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="32">
+      <c r="Y13" s="50">
         <f>1-Y68</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="32">
+      <c r="Z13" s="50">
         <f>1-Z68</f>
         <v>1</v>
       </c>
-      <c r="AA13" s="52">
+      <c r="AA13" s="50">
         <f>1-AA68</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" ht="15" spans="1:20">
-      <c r="A14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
+      <c r="AB13" s="53">
+        <f>1-AB68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:21">
+      <c r="A14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="D14">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>11</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>12</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>13</v>
       </c>
-      <c r="L14" s="29">
+      <c r="M14" s="33">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="M14" s="30">
-        <f>IF(L14="","",SUM(L$6:L14))</f>
+      <c r="N14" s="34">
+        <f>IF(M14="","",SUM(M$6:M14))</f>
         <v>315</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="21"/>
-    </row>
-    <row r="15" ht="15" spans="1:20">
-      <c r="A15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15">
+      <c r="P14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="26"/>
+    </row>
+    <row r="15" ht="15" spans="1:21">
+      <c r="A15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>12</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>13</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>14</v>
       </c>
-      <c r="L15" s="29">
+      <c r="M15" s="33">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="M15" s="30">
-        <f>IF(L15="","",SUM(L$6:L15))</f>
+      <c r="N15" s="34">
+        <f>IF(M15="","",SUM(M$6:M15))</f>
         <v>375</v>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="53"/>
-    </row>
-    <row r="16" ht="15" spans="1:20">
-      <c r="A16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16">
+      <c r="P15" s="35"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="55"/>
+    </row>
+    <row r="16" ht="15" spans="1:21">
+      <c r="A16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>13</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>14</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>15</v>
       </c>
-      <c r="L16" s="29">
+      <c r="M16" s="33">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="M16" s="30">
-        <f>IF(L16="","",SUM(L$6:L16))</f>
+      <c r="N16" s="34">
+        <f>IF(M16="","",SUM(M$6:M16))</f>
         <v>440</v>
       </c>
-      <c r="O16" s="35" t="s">
-        <v>41</v>
-      </c>
       <c r="P16" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="36" t="s">
+      <c r="Q16" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="T16" s="54" t="s">
+      <c r="R16" s="66" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" ht="15" spans="1:20">
-      <c r="A17" s="15" t="s">
+      <c r="S16" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C17">
+      <c r="T16" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" s="57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:21">
+      <c r="A17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="D17">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>13</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>14</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>16</v>
       </c>
-      <c r="L17" s="29">
+      <c r="M17" s="33">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="M17" s="30">
-        <f>IF(L17="","",SUM(L$6:L17))</f>
+      <c r="N17" s="34">
+        <f>IF(M17="","",SUM(M$6:M17))</f>
         <v>510</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38">
+      <c r="P17" s="37"/>
+      <c r="Q17" s="58">
         <v>0</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="R17" s="58">
         <v>0.43</v>
       </c>
-      <c r="R17" s="38">
+      <c r="S17" s="58">
         <v>0.61</v>
       </c>
-      <c r="S17" s="38">
+      <c r="T17" s="58">
         <v>0.82</v>
       </c>
-      <c r="T17" s="55">
+      <c r="U17" s="59">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:20">
-      <c r="A18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+    <row r="18" ht="15" spans="1:21">
+      <c r="A18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="D18">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>14</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>15</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>16</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>17</v>
       </c>
-      <c r="L18" s="29">
+      <c r="M18" s="33">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="M18" s="30">
-        <f>IF(L18="","",SUM(L$6:L18))</f>
+      <c r="N18" s="34">
+        <f>IF(M18="","",SUM(M$6:M18))</f>
         <v>585</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="P18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="26" t="e">
-        <f t="shared" ref="P18:P23" si="6">P64/$Q$50</f>
+      <c r="Q18" s="47" t="e">
+        <f t="shared" ref="Q18:Q23" si="6">Q64/$R$50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q18" s="26">
-        <f t="shared" ref="Q18:Q23" si="7">Q64/$Q$50</f>
+      <c r="R18" s="47">
+        <f t="shared" ref="R18:R23" si="7">R64/$R$50</f>
         <v>0</v>
       </c>
-      <c r="R18" s="26">
-        <f t="shared" ref="R18:R23" si="8">R64/$Q$50</f>
+      <c r="S18" s="47">
+        <f t="shared" ref="S18:S23" si="8">S64/$R$50</f>
         <v>0</v>
       </c>
-      <c r="S18" s="26">
-        <f t="shared" ref="S18:S23" si="9">S64/$Q$50</f>
+      <c r="T18" s="47">
+        <f t="shared" ref="T18:T23" si="9">T64/$R$50</f>
         <v>0</v>
       </c>
-      <c r="T18" s="50">
+      <c r="U18" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:20">
-      <c r="A19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+    <row r="19" ht="15" spans="1:21">
+      <c r="A19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="D19">
         <v>14</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>16</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>17</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>18</v>
       </c>
-      <c r="L19" s="29">
+      <c r="M19" s="33">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M19" s="30">
-        <f>IF(L19="","",SUM(L$6:L19))</f>
+      <c r="N19" s="34">
+        <f>IF(M19="","",SUM(M$6:M19))</f>
         <v>665</v>
       </c>
-      <c r="O19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="26">
+      <c r="P19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="R19" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R19" s="26">
+      <c r="S19" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S19" s="26">
+      <c r="T19" s="47">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T19" s="50">
+      <c r="U19" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15" spans="1:20">
-      <c r="A20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+    <row r="20" customFormat="1" ht="15" spans="1:21">
+      <c r="A20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="D20">
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>16</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>17</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>18</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>19</v>
       </c>
-      <c r="L20" s="29">
+      <c r="M20" s="33">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="M20" s="30">
-        <f>IF(L20="","",SUM(L$6:L20))</f>
+      <c r="N20" s="34">
+        <f>IF(M20="","",SUM(M$6:M20))</f>
         <v>750</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="26">
+      <c r="P20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="R20" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R20" s="26">
+      <c r="S20" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S20" s="26">
+      <c r="T20" s="47">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T20" s="50">
+      <c r="U20" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="15" spans="1:20">
-      <c r="A21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+    <row r="21" customFormat="1" ht="15" spans="1:21">
+      <c r="A21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="D21">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>17</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>18</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>19</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20</v>
       </c>
-      <c r="L21" s="29">
+      <c r="M21" s="33">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="M21" s="30">
-        <f>IF(L21="","",SUM(L$6:L21))</f>
+      <c r="N21" s="34">
+        <f>IF(M21="","",SUM(M$6:M21))</f>
         <v>840</v>
       </c>
-      <c r="O21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21" s="26">
+      <c r="P21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="R21" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R21" s="26">
+      <c r="S21" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S21" s="26">
+      <c r="T21" s="47">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T21" s="50">
+      <c r="U21" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15" spans="1:20">
-      <c r="A22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" s="29" t="str">
+    <row r="22" customFormat="1" ht="15" spans="1:21">
+      <c r="A22" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="M22" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M22" s="30" t="str">
-        <f>IF(L22="","",SUM(L$6:L22))</f>
+      <c r="N22" s="34" t="str">
+        <f>IF(M22="","",SUM(M$6:M22))</f>
         <v/>
       </c>
-      <c r="O22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" s="26">
+      <c r="P22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="R22" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R22" s="26">
+      <c r="S22" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="26">
+      <c r="T22" s="47">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T22" s="50">
+      <c r="U22" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
-      <c r="A23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="29" t="str">
+    <row r="23" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="M23" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M23" s="30" t="str">
-        <f>IF(L23="","",SUM(L$6:L23))</f>
+      <c r="N23" s="34" t="str">
+        <f>IF(M23="","",SUM(M$6:M23))</f>
         <v/>
       </c>
-      <c r="O23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="32">
+      <c r="P23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="32">
+      <c r="R23" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R23" s="32">
+      <c r="S23" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S23" s="32">
+      <c r="T23" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T23" s="51">
+      <c r="U23" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="15" spans="1:13">
-      <c r="A24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="29" t="str">
+    <row r="24" customFormat="1" ht="15" spans="1:14">
+      <c r="A24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="M24" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M24" s="30" t="str">
-        <f>IF(L24="","",SUM(L$6:L24))</f>
+      <c r="N24" s="34" t="str">
+        <f>IF(M24="","",SUM(M$6:M24))</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:13">
-      <c r="A25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="29" t="str">
+    <row r="25" ht="15" spans="1:14">
+      <c r="A25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="M25" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M25" s="30" t="str">
-        <f>IF(L25="","",SUM(L$6:L25))</f>
+      <c r="N25" s="34" t="str">
+        <f>IF(M25="","",SUM(M$6:M25))</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:13">
-      <c r="A26" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="29" t="str">
+    <row r="26" ht="15" spans="1:14">
+      <c r="A26" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="M26" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M26" s="30" t="str">
-        <f>IF(L26="","",SUM(L$6:L26))</f>
+      <c r="N26" s="34" t="str">
+        <f>IF(M26="","",SUM(M$6:M26))</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:13">
-      <c r="A27" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="29" t="str">
+    <row r="27" ht="15" spans="1:14">
+      <c r="A27" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="M27" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M27" s="30" t="str">
-        <f>IF(L27="","",SUM(L$6:L27))</f>
+      <c r="N27" s="34" t="str">
+        <f>IF(M27="","",SUM(M$6:M27))</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:13">
-      <c r="A28" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="29" t="str">
+    <row r="28" ht="15" spans="1:14">
+      <c r="A28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="M28" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M28" s="30" t="str">
-        <f>IF(L28="","",SUM(L$6:L28))</f>
+      <c r="N28" s="34" t="str">
+        <f>IF(M28="","",SUM(M$6:M28))</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:13">
-      <c r="A29" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" s="29" t="str">
+    <row r="29" ht="15" spans="1:14">
+      <c r="A29" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="M29" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M29" s="30" t="str">
-        <f>IF(L29="","",SUM(L$6:L29))</f>
+      <c r="N29" s="34" t="str">
+        <f>IF(M29="","",SUM(M$6:M29))</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:13">
-      <c r="A30" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" s="29" t="str">
+    <row r="30" ht="15" spans="1:14">
+      <c r="A30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="M30" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M30" s="30" t="str">
-        <f>IF(L30="","",SUM(L$6:L30))</f>
+      <c r="N30" s="34" t="str">
+        <f>IF(M30="","",SUM(M$6:M30))</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:13">
-      <c r="A31" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L31" s="29" t="str">
+    <row r="31" ht="15" spans="1:14">
+      <c r="A31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="M31" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M31" s="30" t="str">
-        <f>IF(L31="","",SUM(L$6:L31))</f>
+      <c r="N31" s="34" t="str">
+        <f>IF(M31="","",SUM(M$6:M31))</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:13">
-      <c r="A32" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L32" s="29" t="str">
+    <row r="32" ht="15" spans="1:14">
+      <c r="A32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="M32" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M32" s="30" t="str">
-        <f>IF(L32="","",SUM(L$6:L32))</f>
+      <c r="N32" s="34" t="str">
+        <f>IF(M32="","",SUM(M$6:M32))</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:13">
-      <c r="A33" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L33" s="29" t="str">
+    <row r="33" ht="15" spans="1:14">
+      <c r="A33" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="M33" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M33" s="30" t="str">
-        <f>IF(L33="","",SUM(L$6:L33))</f>
+      <c r="N33" s="34" t="str">
+        <f>IF(M33="","",SUM(M$6:M33))</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:13">
-      <c r="A34" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L34" s="29" t="str">
+    <row r="34" ht="15" spans="1:14">
+      <c r="A34" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="M34" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M34" s="30" t="str">
-        <f>IF(L34="","",SUM(L$6:L34))</f>
+      <c r="N34" s="34" t="str">
+        <f>IF(M34="","",SUM(M$6:M34))</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:13">
-      <c r="A35" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L35" s="29" t="str">
+    <row r="35" ht="15" spans="1:14">
+      <c r="A35" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="M35" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M35" s="30" t="str">
-        <f>IF(L35="","",SUM(L$6:L35))</f>
+      <c r="N35" s="34" t="str">
+        <f>IF(M35="","",SUM(M$6:M35))</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:13">
-      <c r="A36" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="29" t="str">
+    <row r="36" ht="15" spans="1:14">
+      <c r="A36" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="M36" s="33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M36" s="30" t="str">
-        <f>IF(L36="","",SUM(L$6:L36))</f>
+      <c r="N36" s="34" t="str">
+        <f>IF(M36="","",SUM(M$6:M36))</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15.15" spans="1:13">
-      <c r="A37" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18">
-        <f>SUM(C$6:C36)</f>
+    <row r="37" ht="15.15" spans="1:14">
+      <c r="A37" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24">
+        <f>SUM(D$6:D36)</f>
         <v>136</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18">
-        <f>SUM(E$6:E36)</f>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24">
+        <f>SUM(F$6:F36)</f>
         <v>152</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18">
-        <f>SUM(G$6:G36)</f>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24">
+        <f>SUM(H$6:H36)</f>
         <v>168</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18">
-        <f>SUM(I$6:I36)</f>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24">
+        <f>SUM(J$6:J36)</f>
         <v>184</v>
       </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18">
-        <f>SUM(K$6:K36)</f>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24">
+        <f>SUM(L$6:L36)</f>
         <v>200</v>
       </c>
-      <c r="L37" s="18"/>
-      <c r="M37" s="39"/>
-    </row>
-    <row r="38" spans="8:13">
-      <c r="H38" s="19" t="str">
-        <f>COUNT($M:$M)&amp;"回合伤害："&amp;Q50</f>
+      <c r="M37" s="24"/>
+      <c r="N37" s="38"/>
+    </row>
+    <row r="38" spans="9:14">
+      <c r="I38" s="39" t="str">
+        <f>COUNT($N:$N)&amp;"回合伤害："&amp;R50</f>
         <v>16回合伤害：840</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" spans="7:13">
-      <c r="G39" s="20"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-    </row>
-    <row r="40" ht="22" customHeight="1" spans="7:13">
-      <c r="G40" s="20"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="7:13">
-      <c r="G41" s="20"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-    </row>
-    <row r="46" ht="17.4" spans="9:11">
-      <c r="I46" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="J46" s="40"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" spans="8:14">
+      <c r="H39" s="25"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+    </row>
+    <row r="40" ht="22" customHeight="1" spans="8:14">
+      <c r="H40" s="25"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="8:14">
+      <c r="H41" s="25"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+    </row>
+    <row r="46" ht="17.4" spans="10:12">
+      <c r="J46" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="K46" s="40"/>
-    </row>
-    <row r="49" spans="15:15">
-      <c r="O49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="15:17">
-      <c r="O50" t="s">
-        <v>70</v>
-      </c>
-      <c r="P50">
-        <f>SUM(C37,E37,G37,I37,K37)</f>
+      <c r="L46" s="40"/>
+    </row>
+    <row r="49" spans="16:16">
+      <c r="P49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="16:18">
+      <c r="P50" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q50">
+        <f>SUM(D37,F37,H37,J37,L37)</f>
         <v>840</v>
       </c>
-      <c r="Q50" s="29">
-        <f>IF(P50=0,1,P50)</f>
+      <c r="R50" s="33">
+        <f>IF(Q50=0,1,Q50)</f>
         <v>840</v>
       </c>
     </row>
-    <row r="51" ht="15.15"/>
-    <row r="52" spans="15:27">
-      <c r="O52" s="5" t="s">
+    <row r="52" spans="16:28">
+      <c r="P52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="V52" s="5" t="s">
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="W52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-    </row>
-    <row r="53" ht="15.15" spans="15:27">
-      <c r="O53" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+    </row>
+    <row r="53" spans="16:28">
       <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="V53" s="7"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
       <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-    </row>
-    <row r="54" spans="4:27">
-      <c r="D54" t="s">
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+    </row>
+    <row r="54" spans="5:28">
+      <c r="E54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" t="s">
-        <v>71</v>
-      </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s">
         <v>13</v>
       </c>
-      <c r="I54" t="s">
-        <v>74</v>
-      </c>
       <c r="J54" t="s">
-        <v>75</v>
-      </c>
-      <c r="O54" s="12"/>
-      <c r="P54" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" s="14"/>
+      <c r="Q54" t="s">
         <v>6</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>7</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>8</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>9</v>
       </c>
-      <c r="T54" s="56" t="s">
+      <c r="U54" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="V54" s="9"/>
-      <c r="W54" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="X54" s="23" t="s">
+      <c r="W54" s="11"/>
+      <c r="X54" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y54" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="24"/>
-    </row>
-    <row r="55" spans="3:27">
-      <c r="C55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" t="s">
-        <v>78</v>
-      </c>
-      <c r="K55" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="L55" s="41"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="29"/>
+    </row>
+    <row r="55" spans="4:28">
+      <c r="D55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L55" s="41" t="s">
+        <v>82</v>
+      </c>
       <c r="M55" s="41"/>
-      <c r="O55" s="12" t="s">
+      <c r="N55" s="41"/>
+      <c r="P55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P55" t="s">
-        <v>80</v>
-      </c>
-      <c r="T55" s="50">
+      <c r="Q55" t="s">
+        <v>83</v>
+      </c>
+      <c r="U55" s="48">
         <v>1</v>
       </c>
-      <c r="V55" s="12" t="s">
+      <c r="W55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="W55" t="s">
-        <v>81</v>
-      </c>
-      <c r="X55" s="3">
+      <c r="X55" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y55" s="3">
         <v>1</v>
       </c>
-      <c r="AA55" s="56"/>
-    </row>
-    <row r="56" spans="3:27">
-      <c r="C56" s="2"/>
-      <c r="K56" s="41"/>
+      <c r="AB55" s="60"/>
+    </row>
+    <row r="56" spans="4:28">
+      <c r="D56" s="2"/>
       <c r="L56" s="41"/>
       <c r="M56" s="41"/>
-      <c r="O56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T56" s="50">
+      <c r="N56" s="41"/>
+      <c r="P56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="48">
         <v>1</v>
       </c>
-      <c r="V56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="X56" s="3">
+      <c r="W56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="3">
         <v>1</v>
       </c>
-      <c r="AA56" s="56"/>
-    </row>
-    <row r="57" spans="3:27">
-      <c r="C57" s="2"/>
-      <c r="O57" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="T57" s="50">
+      <c r="AB56" s="60"/>
+    </row>
+    <row r="57" spans="4:28">
+      <c r="D57" s="2"/>
+      <c r="P57" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U57" s="48">
         <v>1</v>
       </c>
-      <c r="V57" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="W57" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1</v>
       </c>
-      <c r="AA57" s="56"/>
-    </row>
-    <row r="58" spans="3:27">
-      <c r="C58" s="2"/>
-      <c r="O58" s="12" t="s">
+      <c r="AB57" s="60"/>
+    </row>
+    <row r="58" spans="4:28">
+      <c r="D58" s="2"/>
+      <c r="P58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U58" s="48">
+        <v>1</v>
+      </c>
+      <c r="W58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="60"/>
+    </row>
+    <row r="59" spans="4:28">
+      <c r="D59" s="2"/>
+      <c r="P59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U59" s="48">
+        <v>1</v>
+      </c>
+      <c r="W59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="60"/>
+    </row>
+    <row r="60" ht="15.15" spans="16:28">
+      <c r="P60" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
+      <c r="U60" s="49">
+        <v>1</v>
+      </c>
+      <c r="W60" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="23"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="64"/>
+    </row>
+    <row r="61" spans="16:28">
+      <c r="P61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="26"/>
+      <c r="W61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+    </row>
+    <row r="62" spans="16:28">
+      <c r="P62" s="8"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="27"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+    </row>
+    <row r="63" spans="16:28">
+      <c r="P63" s="14"/>
+      <c r="Q63" t="s">
+        <v>85</v>
+      </c>
+      <c r="R63" t="s">
+        <v>86</v>
+      </c>
+      <c r="S63" t="s">
+        <v>87</v>
+      </c>
+      <c r="T63" t="s">
+        <v>88</v>
+      </c>
+      <c r="U63" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="W63" s="11"/>
+      <c r="X63" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y63" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z63" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="50">
+      <c r="AA63" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB63" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" ht="15.15" spans="16:28">
+      <c r="P64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>89</v>
+      </c>
+      <c r="U64" s="48">
         <v>1</v>
       </c>
-      <c r="V58" s="12" t="s">
+      <c r="W64" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="X64" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="64"/>
+    </row>
+    <row r="65" spans="16:28">
+      <c r="P65" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="48">
+        <v>1</v>
+      </c>
+      <c r="X65" t="e">
+        <f>$AB$66-X64</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y65">
+        <f>$AB$66-Y64</f>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f>$AB$66-Z64</f>
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <f>$AB$66-AA64</f>
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <f>$AB$66-AB64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="16:28">
+      <c r="P66" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="X58" s="3">
+      <c r="U66" s="48">
         <v>1</v>
       </c>
-      <c r="AA58" s="56"/>
-    </row>
-    <row r="59" spans="3:27">
-      <c r="C59" s="2"/>
-      <c r="O59" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T59" s="50">
+      <c r="AA66" t="e">
+        <f>SUM(X65:AB65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB66">
+        <f>SUM(X64:AB64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="16:21">
+      <c r="P67" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U67" s="48">
         <v>1</v>
       </c>
-      <c r="V59" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="X59" s="3">
+    </row>
+    <row r="68" spans="16:28">
+      <c r="P68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U68" s="48">
         <v>1</v>
       </c>
-      <c r="AA59" s="56"/>
-    </row>
-    <row r="60" ht="15.15" spans="15:27">
-      <c r="O60" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="51">
+      <c r="X68" t="e">
+        <f>X64/$R$50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y68">
+        <f>Y64/$R$50</f>
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <f>Z64/$R$50</f>
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f>AA64/$R$50</f>
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <f>AB64/$R$50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="16:21">
+      <c r="P69" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="49">
         <v>1</v>
       </c>
-      <c r="V60" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="W60" s="17"/>
-      <c r="X60" s="58">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="59"/>
-    </row>
-    <row r="61" spans="15:27">
-      <c r="O61" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="21"/>
-      <c r="V61" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
-      <c r="AA61" s="6"/>
-    </row>
-    <row r="62" ht="15.15" spans="15:27">
-      <c r="O62" s="7"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="22"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-    </row>
-    <row r="63" spans="15:27">
-      <c r="O63" s="12"/>
-      <c r="P63" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>83</v>
-      </c>
-      <c r="R63" t="s">
-        <v>84</v>
-      </c>
-      <c r="S63" t="s">
-        <v>85</v>
-      </c>
-      <c r="T63" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="V63" s="9"/>
-      <c r="W63" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="X63" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y63" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z63" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA63" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" ht="15.15" spans="15:27">
-      <c r="O64" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P64" t="s">
-        <v>86</v>
-      </c>
-      <c r="T64" s="50">
-        <v>1</v>
-      </c>
-      <c r="V64" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="W64" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="59"/>
-    </row>
-    <row r="65" spans="15:27">
-      <c r="O65" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T65" s="50">
-        <v>1</v>
-      </c>
-      <c r="W65" t="e">
-        <f>$AA$66-W64</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X65">
-        <f>$AA$66-X64</f>
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <f>$AA$66-Y64</f>
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <f>$AA$66-Z64</f>
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <f>$AA$66-AA64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="15:27">
-      <c r="O66" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="T66" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z66" t="e">
-        <f>SUM(W65:AA65)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA66">
-        <f>SUM(W64:AA64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="15:20">
-      <c r="O67" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T67" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="15:27">
-      <c r="O68" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T68" s="50">
-        <v>1</v>
-      </c>
-      <c r="W68" t="e">
-        <f>W64/$Q$50</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X68">
-        <f>X64/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <f>Y64/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <f>Z64/$Q$50</f>
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <f>AA64/$Q$50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="15:20">
-      <c r="O69" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="15:17">
-      <c r="O71" t="s">
-        <v>88</v>
-      </c>
+    </row>
+    <row r="71" spans="16:18">
       <c r="P71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="16:17">
-      <c r="P72" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72">
+        <v>92</v>
+      </c>
+      <c r="R71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="17:18">
+      <c r="Q72" t="s">
+        <v>94</v>
+      </c>
+      <c r="R72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="16:16">
-      <c r="P73" t="s">
-        <v>92</v>
+    <row r="73" spans="17:17">
+      <c r="Q73" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="O1:T2"/>
-    <mergeCell ref="O10:T11"/>
-    <mergeCell ref="V10:AA11"/>
-    <mergeCell ref="O14:T15"/>
-    <mergeCell ref="O52:T53"/>
-    <mergeCell ref="V52:AA53"/>
-    <mergeCell ref="V61:AA62"/>
-    <mergeCell ref="O61:T62"/>
-    <mergeCell ref="V1:X2"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="H38:M41"/>
-    <mergeCell ref="K55:M56"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="P10:U11"/>
+    <mergeCell ref="P52:U53"/>
+    <mergeCell ref="P61:U62"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="P1:U2"/>
+    <mergeCell ref="W10:AB11"/>
+    <mergeCell ref="P14:U15"/>
+    <mergeCell ref="W52:AB53"/>
+    <mergeCell ref="W61:AB62"/>
+    <mergeCell ref="W1:Y2"/>
+    <mergeCell ref="Z1:AB2"/>
+    <mergeCell ref="I38:N41"/>
+    <mergeCell ref="L55:N56"/>
   </mergeCells>
-  <conditionalFormatting sqref="P13:T13">
+  <conditionalFormatting sqref="Q13:U13">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5975,12 +6480,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4a00cd3c-be71-4a68-ac8a-503577c1bc68}</x14:id>
+          <x14:id>{77432eb6-1da9-4997-8189-04635b0e136c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:AA13">
+  <conditionalFormatting sqref="X13:AB13">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -5989,12 +6494,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b897338c-3d6d-4e17-9165-ae12d63bb900}</x14:id>
+          <x14:id>{3596d531-df01-41bb-b9d6-51abb1b64da5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:K37">
+  <conditionalFormatting sqref="D37:L37">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -6003,17 +6508,17 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0373baf7-3e40-4dea-9fc8-bc3a460e377f}</x14:id>
+          <x14:id>{73f3f0e3-c0c7-4416-a85a-f8a35a5ba226}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B36">
+  <conditionalFormatting sqref="C6:C36">
     <cfRule type="containsText" dxfId="0" priority="14" operator="between" text="q">
-      <formula>NOT(ISERROR(SEARCH("q",B6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("q",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C36">
+  <conditionalFormatting sqref="D6:D36">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -6022,12 +6527,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c886d837-3aee-495c-be9d-35d9d7309772}</x14:id>
+          <x14:id>{fccbf56d-3a1c-4a6b-b3c5-d5c553fb9d54}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L36">
+  <conditionalFormatting sqref="M6:M36">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -6036,12 +6541,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88873250-6656-4c99-95fa-c957e4b1b7ba}</x14:id>
+          <x14:id>{ea9690ff-5fd0-46f2-b00b-d95a47025b26}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M36">
+  <conditionalFormatting sqref="N6:N36">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -6050,12 +6555,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d6410ffa-789a-45c8-b9af-1a4a1b457503}</x14:id>
+          <x14:id>{9200b44d-e0ce-48ea-a338-d0940af3250b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:T8">
+  <conditionalFormatting sqref="Q4:U8">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6067,7 +6572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4:X8">
+  <conditionalFormatting sqref="X4:Y8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6079,7 +6584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6 B8:B36">
+  <conditionalFormatting sqref="C6 C8:C36">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -6088,20 +6593,20 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8712fc2b-b2a9-456d-9197-37f6dcd16c6d}</x14:id>
+          <x14:id>{9e6855a0-f55e-491e-8933-7557e517a86b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H36 D6:D36 F6:F36 J6:J36 B6:B36">
+  <conditionalFormatting sqref="I6:I36 C6:C36 K6:K36 G6:G36 E6:E36">
     <cfRule type="containsText" dxfId="1" priority="9" operator="between" text="防御">
-      <formula>NOT(ISERROR(SEARCH("防御",B6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("防御",C6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="10" operator="between" text="必杀">
-      <formula>NOT(ISERROR(SEARCH("必杀",B6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("必杀",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:K36">
+  <conditionalFormatting sqref="D6:L36">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -6110,12 +6615,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{915d0f0c-b764-42f9-8e34-5b41547e341e}</x14:id>
+          <x14:id>{d8a43285-621f-4f50-8bf9-d44168bd3306}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18:S22">
+  <conditionalFormatting sqref="Q18:T22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6134,7 +6639,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4a00cd3c-be71-4a68-ac8a-503577c1bc68}">
+          <x14:cfRule type="dataBar" id="{77432eb6-1da9-4997-8189-04635b0e136c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6144,10 +6649,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P13:T13</xm:sqref>
+          <xm:sqref>Q13:U13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b897338c-3d6d-4e17-9165-ae12d63bb900}">
+          <x14:cfRule type="dataBar" id="{3596d531-df01-41bb-b9d6-51abb1b64da5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6157,10 +6662,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>W13:AA13</xm:sqref>
+          <xm:sqref>X13:AB13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0373baf7-3e40-4dea-9fc8-bc3a460e377f}">
+          <x14:cfRule type="dataBar" id="{73f3f0e3-c0c7-4416-a85a-f8a35a5ba226}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6170,10 +6675,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C37:K37</xm:sqref>
+          <xm:sqref>D37:L37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c886d837-3aee-495c-be9d-35d9d7309772}">
+          <x14:cfRule type="dataBar" id="{fccbf56d-3a1c-4a6b-b3c5-d5c553fb9d54}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6183,23 +6688,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:C36</xm:sqref>
+          <xm:sqref>D6:D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{88873250-6656-4c99-95fa-c957e4b1b7ba}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L6:L36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d6410ffa-789a-45c8-b9af-1a4a1b457503}">
+          <x14:cfRule type="dataBar" id="{ea9690ff-5fd0-46f2-b00b-d95a47025b26}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6212,7 +6704,20 @@
           <xm:sqref>M6:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8712fc2b-b2a9-456d-9197-37f6dcd16c6d}">
+          <x14:cfRule type="dataBar" id="{9200b44d-e0ce-48ea-a338-d0940af3250b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N6:N36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9e6855a0-f55e-491e-8933-7557e517a86b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6222,10 +6727,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B6 B8:B36</xm:sqref>
+          <xm:sqref>C6 C8:C36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{915d0f0c-b764-42f9-8e34-5b41547e341e}">
+          <x14:cfRule type="dataBar" id="{d8a43285-621f-4f50-8bf9-d44168bd3306}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6235,7 +6740,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:K36</xm:sqref>
+          <xm:sqref>D6:L36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6269,7 +6774,7 @@
     <row r="8" ht="19" customHeight="1"/>
     <row r="11" spans="16:21">
       <c r="P11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U11" s="3">
         <v>1</v>
@@ -6277,7 +6782,7 @@
     </row>
     <row r="12" spans="16:21">
       <c r="P12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U12" s="3">
         <v>1</v>
@@ -6285,7 +6790,7 @@
     </row>
     <row r="13" spans="16:21">
       <c r="P13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U13" s="3">
         <v>1</v>
@@ -6293,7 +6798,7 @@
     </row>
     <row r="14" spans="16:21">
       <c r="P14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="U14" s="3">
         <v>1</v>
@@ -6309,7 +6814,7 @@
     </row>
     <row r="16" spans="16:21">
       <c r="P16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -6330,26 +6835,26 @@
         <v>14</v>
       </c>
       <c r="R18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="16:16">
       <c r="P19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="16:21">
       <c r="P21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -6367,19 +6872,19 @@
     </row>
     <row r="23" spans="17:21">
       <c r="Q23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="16:21">
@@ -6392,7 +6897,7 @@
     </row>
     <row r="25" spans="16:21">
       <c r="P25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U25" s="3">
         <v>1</v>
@@ -6400,7 +6905,7 @@
     </row>
     <row r="26" spans="16:21">
       <c r="P26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U26" s="3">
         <v>1</v>
@@ -6408,7 +6913,7 @@
     </row>
     <row r="27" spans="16:21">
       <c r="P27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U27" s="3">
         <v>1</v>
@@ -6416,7 +6921,7 @@
     </row>
     <row r="28" spans="16:21">
       <c r="P28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U28" s="3">
         <v>1</v>
@@ -6424,7 +6929,7 @@
     </row>
     <row r="29" spans="16:21">
       <c r="P29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="U29" s="3">
         <v>1</v>
@@ -6450,7 +6955,7 @@
     </row>
     <row r="33" spans="17:18">
       <c r="Q33" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s">
         <v>12</v>
@@ -6466,7 +6971,7 @@
     </row>
     <row r="35" spans="16:18">
       <c r="P35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R35" s="3">
         <v>1</v>
@@ -6474,7 +6979,7 @@
     </row>
     <row r="36" spans="16:18">
       <c r="P36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R36" s="3">
         <v>1</v>
@@ -6482,7 +6987,7 @@
     </row>
     <row r="37" spans="16:18">
       <c r="P37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R37" s="3">
         <v>1</v>
@@ -6490,7 +6995,7 @@
     </row>
     <row r="38" spans="16:18">
       <c r="P38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R38" s="3">
         <v>1</v>
@@ -6498,7 +7003,7 @@
     </row>
     <row r="39" spans="16:18">
       <c r="P39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R39" s="3">
         <v>1</v>

--- a/src/main/resources/全方位测试输出表样板.xlsx
+++ b/src/main/resources/全方位测试输出表样板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="满配伤害" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,25 @@
     <definedName name="累积伤害" localSheetId="0">OFFSET(满配伤害!$N$5,1,0,COUNT(满配伤害!$N:$N))</definedName>
     <definedName name="伤害差值">OFFSET(满配伤害!$M$5,1,0,COUNT(满配伤害!$N:$N))</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>满配伤害表</t>
   </si>
@@ -28,214 +41,160 @@
     <t>羁绊表</t>
   </si>
   <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>{角色简表}</t>
+  </si>
+  <si>
+    <t>1花</t>
+  </si>
+  <si>
+    <t>2花</t>
+  </si>
+  <si>
+    <t>3花</t>
+  </si>
+  <si>
+    <t>4花</t>
+  </si>
+  <si>
+    <t>5花</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>1号位</t>
+  </si>
+  <si>
+    <t>回合数</t>
+  </si>
+  <si>
+    <t>行动轴</t>
+  </si>
+  <si>
+    <t>造成伤害</t>
+  </si>
+  <si>
+    <t>回合伤害</t>
+  </si>
+  <si>
+    <t>累积伤害</t>
+  </si>
+  <si>
+    <t>2号位</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>{行动轴}</t>
+  </si>
+  <si>
+    <t>{伤害表}</t>
+  </si>
+  <si>
+    <t>3号位</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>1a1 2a2 3a3 4a4 5a5</t>
+  </si>
+  <si>
+    <t>4号位</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>5号位</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>全队</t>
+  </si>
+  <si>
+    <t>5T</t>
+  </si>
+  <si>
+    <t>输出表</t>
+  </si>
+  <si>
+    <t>6T</t>
+  </si>
+  <si>
+    <t>7T</t>
+  </si>
+  <si>
+    <t>8T</t>
+  </si>
+  <si>
+    <t>输出比值</t>
+  </si>
+  <si>
+    <t>9T</t>
+  </si>
+  <si>
+    <t>练度表</t>
+  </si>
+  <si>
+    <t>10T</t>
+  </si>
+  <si>
+    <t>11T</t>
+  </si>
+  <si>
+    <t>练度</t>
+  </si>
+  <si>
+    <t>1级0潜</t>
+  </si>
+  <si>
+    <t>3星6潜1房</t>
+  </si>
+  <si>
+    <t>4星8潜2房</t>
+  </si>
+  <si>
+    <t>5星9潜3房</t>
+  </si>
+  <si>
+    <t>满配</t>
+  </si>
+  <si>
+    <t>12T</t>
+  </si>
+  <si>
+    <t>13T</t>
+  </si>
+  <si>
+    <t>14T</t>
+  </si>
+  <si>
+    <t>总伤害</t>
+  </si>
+  <si>
     <t>五星权重</t>
   </si>
   <si>
     <t>输出占比</t>
   </si>
   <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>{角色简表}</t>
-  </si>
-  <si>
-    <t>1花</t>
-  </si>
-  <si>
-    <t>2花</t>
-  </si>
-  <si>
-    <t>3花</t>
-  </si>
-  <si>
-    <t>4花</t>
-  </si>
-  <si>
-    <t>5花</t>
-  </si>
-  <si>
     <t>非5星</t>
   </si>
   <si>
     <t>5星</t>
   </si>
   <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>1号位</t>
-  </si>
-  <si>
-    <t>回合数</t>
-  </si>
-  <si>
-    <t>行动轴</t>
-  </si>
-  <si>
-    <t>造成伤害</t>
-  </si>
-  <si>
-    <t>回合伤害</t>
-  </si>
-  <si>
-    <t>累积伤害</t>
-  </si>
-  <si>
-    <t>2号位</t>
-  </si>
-  <si>
-    <t>1T</t>
-  </si>
-  <si>
-    <t>{行动轴}</t>
-  </si>
-  <si>
-    <t>{伤害表}</t>
-  </si>
-  <si>
-    <t>3号位</t>
-  </si>
-  <si>
-    <t>2T</t>
-  </si>
-  <si>
-    <t>1a1 2a2 3a3 4a4 5a5</t>
-  </si>
-  <si>
-    <t>4号位</t>
-  </si>
-  <si>
-    <t>3T</t>
-  </si>
-  <si>
-    <t>5号位</t>
-  </si>
-  <si>
-    <t>4T</t>
-  </si>
-  <si>
-    <t>全队</t>
-  </si>
-  <si>
-    <t>5T</t>
-  </si>
-  <si>
-    <t>输出表</t>
-  </si>
-  <si>
     <t>贡献度表</t>
   </si>
   <si>
-    <t>6T</t>
-  </si>
-  <si>
-    <t>7T</t>
-  </si>
-  <si>
-    <t>8T</t>
-  </si>
-  <si>
-    <t>输出比值</t>
-  </si>
-  <si>
     <t>贡献度</t>
-  </si>
-  <si>
-    <t>9T</t>
-  </si>
-  <si>
-    <t>练度表</t>
-  </si>
-  <si>
-    <t>10T</t>
-  </si>
-  <si>
-    <t>11T</t>
-  </si>
-  <si>
-    <t>练度</t>
-  </si>
-  <si>
-    <t>1级0潜</t>
-  </si>
-  <si>
-    <t>3星6潜1房</t>
-  </si>
-  <si>
-    <t>4星8潜2房</t>
-  </si>
-  <si>
-    <t>5星9潜3房</t>
-  </si>
-  <si>
-    <t>满配</t>
-  </si>
-  <si>
-    <t>12T</t>
-  </si>
-  <si>
-    <t>13T</t>
-  </si>
-  <si>
-    <t>14T</t>
-  </si>
-  <si>
-    <t>15T</t>
-  </si>
-  <si>
-    <t>16T</t>
-  </si>
-  <si>
-    <t>17T</t>
-  </si>
-  <si>
-    <t>18T</t>
-  </si>
-  <si>
-    <t>19T</t>
-  </si>
-  <si>
-    <t>20T</t>
-  </si>
-  <si>
-    <t>21T</t>
-  </si>
-  <si>
-    <t>22T</t>
-  </si>
-  <si>
-    <t>23T</t>
-  </si>
-  <si>
-    <t>24T</t>
-  </si>
-  <si>
-    <t>25T</t>
-  </si>
-  <si>
-    <t>26T</t>
-  </si>
-  <si>
-    <t>27T</t>
-  </si>
-  <si>
-    <t>28T</t>
-  </si>
-  <si>
-    <t>29T</t>
-  </si>
-  <si>
-    <t>30T</t>
-  </si>
-  <si>
-    <t>31T</t>
-  </si>
-  <si>
-    <t>总伤害</t>
-  </si>
-  <si>
-    <t>布魔计算器内测版本V1 作者 小r</t>
   </si>
   <si>
     <t>这部分用于幕后计算</t>
@@ -313,13 +272,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="26">
@@ -373,8 +332,131 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,129 +471,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,7 +545,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +599,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,157 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,11 +1054,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,45 +1106,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1166,157 +1114,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,9 +1345,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1434,6 +1390,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,73 +1405,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1521,52 +1477,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2098,7 +2054,7 @@
               <c:f>[0]!伤害差值</c:f>
               <c:numCache>
                 <c:formatCode>[&gt;=100000000]0\.00,,"亿";[&gt;=10000]0\.0,"万";0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2140,12 +2096,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,7 +2152,7 @@
             <c:strRef>
               <c:f>[0]满配伤害!回合数</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1T</c:v>
                 </c:pt>
@@ -2245,12 +2195,6 @@
                 <c:pt idx="13">
                   <c:v>14T</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>15T</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16T</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -2259,7 +2203,7 @@
               <c:f>[0]满配伤害!累积伤害</c:f>
               <c:numCache>
                 <c:formatCode>[&gt;=100000000]0\.00,,"亿";[&gt;=10000]0\.0,"万";0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2301,12 +2245,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>840</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3723,15 +3661,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>167005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -3740,8 +3678,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18951575" y="370205"/>
-        <a:ext cx="1794510" cy="1286510"/>
+        <a:off x="16666210" y="4627880"/>
+        <a:ext cx="2123440" cy="1183640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3753,16 +3691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>558165</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>207010</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3770,8 +3708,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13223240" y="4471670"/>
-        <a:ext cx="7494270" cy="3496945"/>
+        <a:off x="74295" y="3908425"/>
+        <a:ext cx="4711700" cy="2788285"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3783,16 +3721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>109220</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>56515</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1055370</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3801,8 +3739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17100550" y="2543810"/>
-          <a:ext cx="3569970" cy="1921510"/>
+          <a:off x="9299575" y="4043045"/>
+          <a:ext cx="3923030" cy="1683385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3837,36 +3775,24 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>最左边的行动轴：数字代表</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t>羁绊表：</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>角色位置</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>右边一点羁绊表：将同位置换为更低羁绊的角色，伤害发生的变化（百分比），下同</a:t>
+            <a:t>将同位置换为更低羁绊的角色，伤害发生的变化（百分比），下同</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t>五星权重：</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>五星权重：只取消</a:t>
+            <a:t>将同位置角色</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
@@ -3874,39 +3800,43 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>星</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>攻击力不变</a:t>
+            <a:t>星技能取消后，伤害发生的变化（百分比）</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t>输出表：</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>输出表：各个角色输出占比</a:t>
+            <a:t>各个角色输出占比</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t>贡献度表：</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>贡献度表：将对应位置换成同属性木桩</a:t>
+            <a:t>角色技能对伤害的贡献度</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t>练度表：</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>练度表：将同位置攻击力缩放对应比例</a:t>
+            <a:t>角色练度对伤害的影响</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
@@ -3917,28 +3847,6 @@
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>越红代表越吃练度，越绿代表越不吃练度</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>布魔超级计算器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-            <a:t>V1 By </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>小</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-            <a:t>r</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
         </a:p>
@@ -3965,7 +3873,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9214485" y="3834765"/>
+          <a:off x="10234295" y="3779520"/>
           <a:ext cx="309880" cy="267970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4000,16 +3908,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>287020</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542290</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215265</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4018,8 +3926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2603500" y="5471160"/>
-          <a:ext cx="3572510" cy="1228090"/>
+          <a:off x="5200650" y="4015105"/>
+          <a:ext cx="3866515" cy="1737995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4153,8 +4061,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>最左边的行动轴：</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>最左边的行动轴：第一个数字代表</a:t>
+            <a:t>第一个数字代表</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
@@ -4269,8 +4181,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>中间的行动轴：</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>中间的行动轴：第一个数字代表</a:t>
+            <a:t>第一个数字代表</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
@@ -4299,6 +4215,46 @@
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>单体桩只有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个敌人，因此敌人位置永远是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4569,36 +4525,36 @@
   <sheetPr/>
   <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.72222222222222" customWidth="1"/>
-    <col min="2" max="2" width="21.7407407407407" customWidth="1"/>
-    <col min="3" max="3" width="8.17592592592593" customWidth="1"/>
+    <col min="1" max="1" width="8.725" customWidth="1"/>
+    <col min="2" max="2" width="21.7416666666667" customWidth="1"/>
+    <col min="3" max="3" width="8.175" customWidth="1"/>
     <col min="4" max="4" width="17.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="8.17592592592593" customWidth="1"/>
+    <col min="5" max="5" width="8.175" customWidth="1"/>
     <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="8.17592592592593" customWidth="1"/>
+    <col min="7" max="7" width="8.175" customWidth="1"/>
     <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="8.17592592592593" customWidth="1"/>
+    <col min="9" max="9" width="8.175" customWidth="1"/>
     <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="8.17592592592593" customWidth="1"/>
+    <col min="11" max="11" width="8.175" customWidth="1"/>
     <col min="12" max="12" width="17.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="16.9814814814815" customWidth="1"/>
+    <col min="13" max="13" width="16.9833333333333" customWidth="1"/>
     <col min="14" max="14" width="11.5833333333333" customWidth="1"/>
-    <col min="15" max="15" width="4.12962962962963" customWidth="1"/>
-    <col min="16" max="16" width="6.98148148148148" customWidth="1"/>
-    <col min="18" max="18" width="10.3148148148148" customWidth="1"/>
-    <col min="19" max="19" width="9.68518518518519" customWidth="1"/>
-    <col min="20" max="20" width="10.6296296296296" customWidth="1"/>
-    <col min="22" max="22" width="3.80555555555556" customWidth="1"/>
+    <col min="15" max="15" width="4.13333333333333" customWidth="1"/>
+    <col min="16" max="16" width="6.98333333333333" customWidth="1"/>
+    <col min="18" max="18" width="10.3166666666667" customWidth="1"/>
+    <col min="19" max="19" width="9.68333333333333" customWidth="1"/>
+    <col min="20" max="20" width="10.6333333333333" customWidth="1"/>
+    <col min="22" max="22" width="3.80833333333333" customWidth="1"/>
     <col min="23" max="23" width="6.83333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:28">
+    <row r="1" ht="16" customHeight="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4614,7 +4570,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="26"/>
+      <c r="N1" s="25"/>
       <c r="P1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4623,18 +4579,8 @@
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-      <c r="W1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="62"/>
-    </row>
-    <row r="2" spans="1:28">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -4648,26 +4594,20 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="27"/>
+      <c r="N2" s="26"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="63"/>
-    </row>
-    <row r="3" spans="2:28">
+    </row>
+    <row r="3" spans="2:21">
       <c r="B3" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
@@ -4678,38 +4618,28 @@
       <c r="J3" s="13"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="2" t="s">
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="U3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="29"/>
-    </row>
-    <row r="4" spans="2:28">
-      <c r="B4" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4722,256 +4652,208 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="30"/>
+      <c r="N4" s="29"/>
       <c r="P4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="47" t="e">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="43" t="e">
         <f>Q55/$R$50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R4" s="47">
+      <c r="R4" s="43">
         <f t="shared" ref="R4:R9" si="0">R55/$R$50</f>
         <v>0</v>
       </c>
-      <c r="S4" s="47">
+      <c r="S4" s="43">
         <f t="shared" ref="S4:S9" si="1">S55/$R$50</f>
         <v>0</v>
       </c>
-      <c r="T4" s="47">
+      <c r="T4" s="43">
         <f t="shared" ref="T4:T9" si="2">T55/$R$50</f>
         <v>0</v>
       </c>
-      <c r="U4" s="48">
+      <c r="U4" s="44">
         <v>1</v>
       </c>
-      <c r="W4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="47" t="e">
-        <f t="shared" ref="X4:X9" si="3">X55/$R$50</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y4" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="14"/>
-      <c r="AB4" s="60"/>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="15" t="s">
+      <c r="N5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="P5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="47">
-        <f t="shared" ref="Q4:Q9" si="4">Q56/$R$50</f>
+      <c r="Q5" s="43">
+        <f t="shared" ref="Q4:Q9" si="3">Q56/$R$50</f>
         <v>0</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T5" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U5" s="48">
+      <c r="U5" s="44">
         <v>1</v>
       </c>
-      <c r="W5" s="14" t="s">
+    </row>
+    <row r="6" ht="15" spans="1:21">
+      <c r="A6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="32">
+        <f>IF(L6="","",SUM(D6,F6,H6,J6,L6))</f>
+        <v>15</v>
+      </c>
+      <c r="N6" s="33">
+        <f>IF(M6="","",SUM(M$6:M6))</f>
+        <v>15</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="47">
+      <c r="Q6" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="14"/>
-      <c r="AB5" s="60"/>
-    </row>
-    <row r="6" ht="15" spans="1:28">
-      <c r="A6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6" s="33">
-        <f>IF(L6="","",SUM(D6,F6,H6,J6,L6))</f>
-        <v>15</v>
-      </c>
-      <c r="N6" s="34">
-        <f>IF(M6="","",SUM(M$6:M6))</f>
-        <v>15</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="47">
+      <c r="R6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T6" s="47">
+      <c r="T6" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="44">
         <v>1</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="X6" s="47">
+    </row>
+    <row r="7" ht="15" spans="1:21">
+      <c r="A7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" s="32">
+        <f>IF(L7="","",SUM(D7,F7,H7,J7,L7))</f>
+        <v>20</v>
+      </c>
+      <c r="N7" s="33">
+        <f>IF(M7="","",SUM(M$6:M7))</f>
+        <v>35</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="14"/>
-      <c r="AB6" s="60"/>
-    </row>
-    <row r="7" ht="15" spans="1:28">
-      <c r="A7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7" s="33">
-        <f t="shared" ref="M7:M36" si="5">IF(L7="","",SUM(D7,F7,H7,J7,L7))</f>
-        <v>20</v>
-      </c>
-      <c r="N7" s="34">
-        <f>IF(M7="","",SUM(M$6:M7))</f>
-        <v>35</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="47">
+      <c r="R7" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="47">
+      <c r="S7" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T7" s="47">
+      <c r="T7" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U7" s="48">
+      <c r="U7" s="44">
         <v>1</v>
       </c>
-      <c r="W7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="X7" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="14"/>
-      <c r="AB7" s="60"/>
-    </row>
-    <row r="8" ht="15" spans="1:28">
+    </row>
+    <row r="8" ht="15" spans="1:21">
       <c r="A8" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="20"/>
       <c r="D8">
@@ -4989,52 +4871,40 @@
       <c r="L8">
         <v>7</v>
       </c>
-      <c r="M8" s="33">
-        <f t="shared" si="5"/>
+      <c r="M8" s="32">
+        <f>IF(L8="","",SUM(D8,F8,H8,J8,L8))</f>
         <v>25</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="33">
         <f>IF(M8="","",SUM(M$6:M8))</f>
         <v>60</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="47">
-        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q8" s="43">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="47">
+      <c r="S8" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T8" s="47">
+      <c r="T8" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U8" s="48">
+      <c r="U8" s="44">
         <v>1</v>
       </c>
-      <c r="W8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="X8" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="14"/>
-      <c r="AB8" s="60"/>
-    </row>
-    <row r="9" ht="15.75" spans="1:28">
+    </row>
+    <row r="9" ht="15.75" spans="1:21">
       <c r="A9" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="20"/>
       <c r="D9">
@@ -5052,53 +4922,40 @@
       <c r="L9">
         <v>8</v>
       </c>
-      <c r="M9" s="33">
-        <f t="shared" si="5"/>
+      <c r="M9" s="32">
+        <f>IF(L9="","",SUM(D9,F9,H9,J9,L9))</f>
         <v>30</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="33">
         <f>IF(M9="","",SUM(M$6:M9))</f>
         <v>90</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="47">
-        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="Q9" s="43">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="47">
+      <c r="S9" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T9" s="47">
+      <c r="T9" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U9" s="49">
+      <c r="U9" s="45">
         <v>1</v>
       </c>
-      <c r="W9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="X9" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="49">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="64"/>
-    </row>
-    <row r="10" ht="15" spans="1:28">
+    </row>
+    <row r="10" ht="15" spans="1:21">
       <c r="A10" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="20"/>
       <c r="D10">
@@ -5116,34 +4973,26 @@
       <c r="L10">
         <v>9</v>
       </c>
-      <c r="M10" s="33">
-        <f t="shared" si="5"/>
+      <c r="M10" s="32">
+        <f>IF(L10="","",SUM(D10,F10,H10,J10,L10))</f>
         <v>35</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="33">
         <f>IF(M10="","",SUM(M$6:M10))</f>
         <v>125</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="W10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="26"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:28">
+    </row>
+    <row r="11" ht="15.75" spans="1:21">
       <c r="A11" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="20"/>
       <c r="D11">
@@ -5161,11 +5010,11 @@
       <c r="L11">
         <v>10</v>
       </c>
-      <c r="M11" s="33">
-        <f t="shared" si="5"/>
+      <c r="M11" s="32">
+        <f>IF(L11="","",SUM(D11,F11,H11,J11,L11))</f>
         <v>40</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="33">
         <f>IF(M11="","",SUM(M$6:M11))</f>
         <v>165</v>
       </c>
@@ -5175,16 +5024,10 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="27"/>
-    </row>
-    <row r="12" ht="15" spans="1:28">
+    </row>
+    <row r="12" ht="15" spans="1:21">
       <c r="A12" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B12" s="20"/>
       <c r="D12">
@@ -5202,50 +5045,34 @@
       <c r="L12">
         <v>11</v>
       </c>
-      <c r="M12" s="33">
-        <f t="shared" si="5"/>
+      <c r="M12" s="32">
+        <f>IF(L12="","",SUM(D12,F12,H12,J12,L12))</f>
         <v>45</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="33">
         <f>IF(M12="","",SUM(M$6:M12))</f>
         <v>210</v>
       </c>
       <c r="P12" s="11"/>
-      <c r="Q12" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="51" t="s">
+      <c r="Q12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y12" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA12" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB12" s="52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:28">
+      <c r="T12" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:21">
       <c r="A13" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13" s="20"/>
       <c r="D13">
@@ -5263,64 +5090,41 @@
       <c r="L13">
         <v>12</v>
       </c>
-      <c r="M13" s="33">
-        <f t="shared" si="5"/>
+      <c r="M13" s="32">
+        <f>IF(L13="","",SUM(D13,F13,H13,J13,L13))</f>
         <v>50</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="33">
         <f>IF(M13="","",SUM(M$6:M13))</f>
         <v>260</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="50">
-        <f>D37/R50</f>
-        <v>0.161904761904762</v>
-      </c>
-      <c r="R13" s="50">
-        <f>F37/R50</f>
-        <v>0.180952380952381</v>
-      </c>
-      <c r="S13" s="50">
-        <f>H37/R50</f>
+        <v>33</v>
+      </c>
+      <c r="Q13" s="48">
+        <f>D20/R50</f>
+        <v>0.157894736842105</v>
+      </c>
+      <c r="R13" s="48">
+        <f>F20/R50</f>
+        <v>0.178947368421053</v>
+      </c>
+      <c r="S13" s="48">
+        <f>H20/R50</f>
         <v>0.2</v>
       </c>
-      <c r="T13" s="50">
-        <f>J37/$R$50</f>
-        <v>0.219047619047619</v>
-      </c>
-      <c r="U13" s="53">
-        <f>L37/$R$50</f>
-        <v>0.238095238095238</v>
-      </c>
-      <c r="W13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="X13" s="50" t="e">
-        <f>1-X68</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y13" s="50">
-        <f>1-Y68</f>
-        <v>1</v>
-      </c>
-      <c r="Z13" s="50">
-        <f>1-Z68</f>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="50">
-        <f>1-AA68</f>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="53">
-        <f>1-AB68</f>
-        <v>1</v>
+      <c r="T13" s="48">
+        <f>J20/$R$50</f>
+        <v>0.221052631578947</v>
+      </c>
+      <c r="U13" s="49">
+        <f>L20/$R$50</f>
+        <v>0.242105263157895</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:21">
       <c r="A14" s="19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="20"/>
       <c r="D14">
@@ -5338,26 +5142,26 @@
       <c r="L14">
         <v>13</v>
       </c>
-      <c r="M14" s="33">
-        <f t="shared" si="5"/>
+      <c r="M14" s="32">
+        <f>IF(L14="","",SUM(D14,F14,H14,J14,L14))</f>
         <v>55</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="33">
         <f>IF(M14="","",SUM(M$6:M14))</f>
         <v>315</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="26"/>
+      <c r="U14" s="25"/>
     </row>
     <row r="15" ht="15" spans="1:21">
       <c r="A15" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="20"/>
       <c r="D15">
@@ -5375,24 +5179,24 @@
       <c r="L15">
         <v>14</v>
       </c>
-      <c r="M15" s="33">
-        <f t="shared" si="5"/>
+      <c r="M15" s="32">
+        <f>IF(L15="","",SUM(D15,F15,H15,J15,L15))</f>
         <v>60</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="33">
         <f>IF(M15="","",SUM(M$6:M15))</f>
         <v>375</v>
       </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="55"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="51"/>
     </row>
     <row r="16" ht="15" spans="1:21">
       <c r="A16" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="20"/>
       <c r="D16">
@@ -5410,36 +5214,36 @@
       <c r="L16">
         <v>15</v>
       </c>
-      <c r="M16" s="33">
-        <f t="shared" si="5"/>
+      <c r="M16" s="32">
+        <f>IF(L16="","",SUM(D16,F16,H16,J16,L16))</f>
         <v>65</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="33">
         <f>IF(M16="","",SUM(M$6:M16))</f>
         <v>440</v>
       </c>
-      <c r="P16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q16" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="T16" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="U16" s="57" t="s">
-        <v>49</v>
+      <c r="P16" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="53" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:21">
       <c r="A17" s="19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B17" s="20"/>
       <c r="D17">
@@ -5457,34 +5261,34 @@
       <c r="L17">
         <v>16</v>
       </c>
-      <c r="M17" s="33">
-        <f t="shared" si="5"/>
+      <c r="M17" s="32">
+        <f>IF(L17="","",SUM(D17,F17,H17,J17,L17))</f>
         <v>70</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="33">
         <f>IF(M17="","",SUM(M$6:M17))</f>
         <v>510</v>
       </c>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="58">
+      <c r="P17" s="36"/>
+      <c r="Q17" s="54">
         <v>0</v>
       </c>
-      <c r="R17" s="58">
+      <c r="R17" s="54">
         <v>0.43</v>
       </c>
-      <c r="S17" s="58">
+      <c r="S17" s="54">
         <v>0.61</v>
       </c>
-      <c r="T17" s="58">
+      <c r="T17" s="54">
         <v>0.82</v>
       </c>
-      <c r="U17" s="59">
+      <c r="U17" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:21">
       <c r="A18" s="19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B18" s="20"/>
       <c r="D18">
@@ -5502,40 +5306,40 @@
       <c r="L18">
         <v>17</v>
       </c>
-      <c r="M18" s="33">
-        <f t="shared" si="5"/>
+      <c r="M18" s="32">
+        <f>IF(L18="","",SUM(D18,F18,H18,J18,L18))</f>
         <v>75</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="33">
         <f>IF(M18="","",SUM(M$6:M18))</f>
         <v>585</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="47" t="e">
-        <f t="shared" ref="Q18:Q23" si="6">Q64/$R$50</f>
+        <v>10</v>
+      </c>
+      <c r="Q18" s="43" t="e">
+        <f t="shared" ref="Q18:T18" si="4">Q64/$R$50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R18" s="47">
-        <f t="shared" ref="R18:R23" si="7">R64/$R$50</f>
+      <c r="R18" s="43">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S18" s="47">
-        <f t="shared" ref="S18:S23" si="8">S64/$R$50</f>
+      <c r="S18" s="43">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T18" s="47">
-        <f t="shared" ref="T18:T23" si="9">T64/$R$50</f>
+      <c r="T18" s="43">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U18" s="48">
+      <c r="U18" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:21">
       <c r="A19" s="19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B19" s="20"/>
       <c r="D19">
@@ -5553,489 +5357,414 @@
       <c r="L19">
         <v>18</v>
       </c>
-      <c r="M19" s="33">
-        <f t="shared" si="5"/>
+      <c r="M19" s="32">
+        <f>IF(L19="","",SUM(D19,F19,H19,J19,L19))</f>
         <v>80</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="33">
         <f>IF(M19="","",SUM(M$6:M19))</f>
         <v>665</v>
       </c>
       <c r="P19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="43">
+        <f t="shared" ref="Q19:T19" si="5">Q65/$R$50</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:21">
+      <c r="A20" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23">
+        <f>SUM(D$6:D19)</f>
+        <v>105</v>
+      </c>
+      <c r="E20" s="23">
+        <f>SUM(E$6:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <f>SUM(F$6:F19)</f>
+        <v>119</v>
+      </c>
+      <c r="G20" s="23">
+        <f>SUM(G$6:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
+        <f>SUM(H$6:H19)</f>
+        <v>133</v>
+      </c>
+      <c r="I20" s="23">
+        <f>SUM(I$6:I19)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="23">
+        <f>SUM(J$6:J19)</f>
+        <v>147</v>
+      </c>
+      <c r="K20" s="23">
+        <f>SUM(K$6:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <f>SUM(L$6:L19)</f>
+        <v>161</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="37"/>
+      <c r="P20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q20" s="43">
+        <f t="shared" ref="Q20:T20" si="6">Q66/$R$50</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R19" s="47">
+      <c r="S20" s="43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="16:21">
+      <c r="P21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="43">
+        <f t="shared" ref="Q21:T21" si="7">Q67/$R$50</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S19" s="47">
+      <c r="S21" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="16:21">
+      <c r="P22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="43">
+        <f t="shared" ref="Q22:T22" si="8">Q68/$R$50</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T19" s="47">
+      <c r="S22" s="43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="14.25" spans="16:21">
+      <c r="P23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="48">
+        <f t="shared" ref="Q23:T23" si="9">Q69/$R$50</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U19" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="15" spans="1:21">
-      <c r="A20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <v>17</v>
-      </c>
-      <c r="J20">
-        <v>18</v>
-      </c>
-      <c r="L20">
-        <v>19</v>
-      </c>
-      <c r="M20" s="33">
-        <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="N20" s="34">
-        <f>IF(M20="","",SUM(M$6:M20))</f>
-        <v>750</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="47">
+      <c r="S23" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U20" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" ht="15" spans="1:21">
-      <c r="A21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="F21">
-        <v>17</v>
-      </c>
-      <c r="H21">
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <v>19</v>
-      </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-      <c r="M21" s="33">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="N21" s="34">
-        <f>IF(M21="","",SUM(M$6:M21))</f>
-        <v>840</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="47">
+      <c r="T23" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U21" s="48">
+      <c r="U23" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15" spans="1:21">
-      <c r="A22" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="M22" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N22" s="34" t="str">
-        <f>IF(M22="","",SUM(M$6:M22))</f>
-        <v/>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="47">
-        <f t="shared" si="6"/>
+    <row r="24" customFormat="1" spans="16:21">
+      <c r="P24" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" s="56"/>
+      <c r="U24" s="57"/>
+    </row>
+    <row r="25" spans="16:21">
+      <c r="P25" s="39"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="59"/>
+    </row>
+    <row r="26" spans="16:21">
+      <c r="P26" s="11"/>
+      <c r="Q26" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="S26" s="11"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="28"/>
+    </row>
+    <row r="27" spans="16:21">
+      <c r="P27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="43" t="e">
+        <f t="shared" ref="Q27:Q32" si="10">X55/$R$50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R27" s="44">
+        <v>1</v>
+      </c>
+      <c r="S27" s="14"/>
+      <c r="U27" s="61"/>
+    </row>
+    <row r="28" spans="16:21">
+      <c r="P28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="43">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R22" s="47">
-        <f t="shared" si="7"/>
+      <c r="R28" s="44">
+        <v>1</v>
+      </c>
+      <c r="S28" s="14"/>
+      <c r="U28" s="61"/>
+    </row>
+    <row r="29" spans="16:21">
+      <c r="P29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="43">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S22" s="47">
-        <f t="shared" si="8"/>
+      <c r="R29" s="44">
+        <v>1</v>
+      </c>
+      <c r="S29" s="14"/>
+      <c r="U29" s="61"/>
+    </row>
+    <row r="30" spans="16:21">
+      <c r="P30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="43">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T22" s="47">
-        <f t="shared" si="9"/>
+      <c r="R30" s="44">
+        <v>1</v>
+      </c>
+      <c r="S30" s="14"/>
+      <c r="U30" s="61"/>
+    </row>
+    <row r="31" spans="16:21">
+      <c r="P31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="43">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U22" s="48">
+      <c r="R31" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:21">
-      <c r="A23" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="M23" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N23" s="34" t="str">
-        <f>IF(M23="","",SUM(M$6:M23))</f>
-        <v/>
-      </c>
-      <c r="P23" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="50">
-        <f t="shared" si="6"/>
+      <c r="S31" s="14"/>
+      <c r="U31" s="61"/>
+    </row>
+    <row r="32" ht="14.25" spans="16:21">
+      <c r="P32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="48">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R23" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="49">
+      <c r="R32" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" customFormat="1" ht="15" spans="1:14">
-      <c r="A24" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="M24" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N24" s="34" t="str">
-        <f>IF(M24="","",SUM(M$6:M24))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:14">
-      <c r="A25" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="M25" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N25" s="34" t="str">
-        <f>IF(M25="","",SUM(M$6:M25))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:14">
-      <c r="A26" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="M26" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N26" s="34" t="str">
-        <f>IF(M26="","",SUM(M$6:M26))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:14">
-      <c r="A27" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="M27" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N27" s="34" t="str">
-        <f>IF(M27="","",SUM(M$6:M27))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:14">
-      <c r="A28" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="M28" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N28" s="34" t="str">
-        <f>IF(M28="","",SUM(M$6:M28))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:14">
-      <c r="A29" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="M29" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N29" s="34" t="str">
-        <f>IF(M29="","",SUM(M$6:M29))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:14">
-      <c r="A30" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="M30" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N30" s="34" t="str">
-        <f>IF(M30="","",SUM(M$6:M30))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:14">
-      <c r="A31" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="M31" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N31" s="34" t="str">
-        <f>IF(M31="","",SUM(M$6:M31))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:14">
-      <c r="A32" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="M32" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N32" s="34" t="str">
-        <f>IF(M32="","",SUM(M$6:M32))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:14">
-      <c r="A33" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="M33" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N33" s="34" t="str">
-        <f>IF(M33="","",SUM(M$6:M33))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:14">
-      <c r="A34" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="M34" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N34" s="34" t="str">
-        <f>IF(M34="","",SUM(M$6:M34))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:14">
-      <c r="A35" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="M35" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N35" s="34" t="str">
-        <f>IF(M35="","",SUM(M$6:M35))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:14">
-      <c r="A36" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="M36" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N36" s="34" t="str">
-        <f>IF(M36="","",SUM(M$6:M36))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" ht="15.15" spans="1:14">
-      <c r="A37" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24">
-        <f>SUM(D$6:D36)</f>
-        <v>136</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24">
-        <f>SUM(F$6:F36)</f>
-        <v>152</v>
-      </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24">
-        <f>SUM(H$6:H36)</f>
-        <v>168</v>
-      </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24">
-        <f>SUM(J$6:J36)</f>
-        <v>184</v>
-      </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24">
-        <f>SUM(L$6:L36)</f>
-        <v>200</v>
-      </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="38"/>
-    </row>
-    <row r="38" spans="9:14">
-      <c r="I38" s="39" t="str">
+      <c r="S32" s="21"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="62"/>
+    </row>
+    <row r="33" spans="9:21">
+      <c r="I33" s="40" t="str">
         <f>COUNT($N:$N)&amp;"回合伤害："&amp;R50</f>
-        <v>16回合伤害：840</v>
-      </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" spans="8:14">
-      <c r="H39" s="25"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-    </row>
-    <row r="40" ht="22" customHeight="1" spans="8:14">
-      <c r="H40" s="25"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="8:14">
-      <c r="H41" s="25"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-    </row>
-    <row r="46" ht="17.4" spans="10:12">
-      <c r="J46" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
+        <v>14回合伤害：665</v>
+      </c>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="P33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="25"/>
+    </row>
+    <row r="34" spans="9:21">
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="26"/>
+    </row>
+    <row r="35" spans="9:21">
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="U35" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="14.25" spans="9:21">
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="P36" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="48" t="e">
+        <f>1-X68</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R36" s="48">
+        <f>1-Y68</f>
+        <v>1</v>
+      </c>
+      <c r="S36" s="48">
+        <f>1-Z68</f>
+        <v>1</v>
+      </c>
+      <c r="T36" s="48">
+        <f>1-AA68</f>
+        <v>1</v>
+      </c>
+      <c r="U36" s="49">
+        <f>1-AB68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="18" customHeight="1" spans="8:8">
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" ht="22" customHeight="1" spans="8:8">
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="8:8">
+      <c r="H41" s="24"/>
+    </row>
+    <row r="46" ht="18.75" spans="10:12">
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
     </row>
     <row r="49" spans="16:16">
       <c r="P49" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="16:18">
       <c r="P50" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Q50">
-        <f>SUM(D37,F37,H37,J37,L37)</f>
-        <v>840</v>
-      </c>
-      <c r="R50" s="33">
+        <f>SUM(D20,F20,H20,J20,L20)</f>
+        <v>665</v>
+      </c>
+      <c r="R50" s="32">
         <f>IF(Q50=0,1,Q50)</f>
-        <v>840</v>
-      </c>
-    </row>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25"/>
     <row r="52" spans="16:28">
       <c r="P52" s="5" t="s">
         <v>1</v>
@@ -6046,7 +5775,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
       <c r="W52" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
@@ -6054,7 +5783,7 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
     </row>
-    <row r="53" spans="16:28">
+    <row r="53" ht="14.25" spans="16:28">
       <c r="P53" s="8"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -6070,185 +5799,185 @@
     </row>
     <row r="54" spans="5:28">
       <c r="E54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J54" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="K54" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P54" s="14"/>
       <c r="Q54" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s">
         <v>6</v>
       </c>
-      <c r="R54" t="s">
+      <c r="T54" t="s">
         <v>7</v>
       </c>
-      <c r="S54" t="s">
+      <c r="U54" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="T54" t="s">
-        <v>9</v>
-      </c>
-      <c r="U54" s="60" t="s">
-        <v>10</v>
-      </c>
       <c r="W54" s="11"/>
-      <c r="X54" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y54" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="29"/>
+      <c r="X54" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="28"/>
     </row>
     <row r="55" spans="4:28">
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
-      </c>
-      <c r="L55" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
+        <v>63</v>
+      </c>
+      <c r="L55" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
       <c r="P55" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q55" t="s">
-        <v>83</v>
-      </c>
-      <c r="U55" s="48">
+        <v>65</v>
+      </c>
+      <c r="U55" s="44">
         <v>1</v>
       </c>
       <c r="W55" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="X55" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="Y55" s="3">
         <v>1</v>
       </c>
-      <c r="AB55" s="60"/>
+      <c r="AB55" s="61"/>
     </row>
     <row r="56" spans="4:28">
       <c r="D56" s="2"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
       <c r="P56" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="U56" s="48">
+        <v>16</v>
+      </c>
+      <c r="U56" s="44">
         <v>1</v>
       </c>
       <c r="W56" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y56" s="3">
         <v>1</v>
       </c>
-      <c r="AB56" s="60"/>
+      <c r="AB56" s="61"/>
     </row>
     <row r="57" spans="4:28">
       <c r="D57" s="2"/>
       <c r="P57" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="U57" s="48">
+        <v>20</v>
+      </c>
+      <c r="U57" s="44">
         <v>1</v>
       </c>
       <c r="W57" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y57" s="3">
         <v>1</v>
       </c>
-      <c r="AB57" s="60"/>
+      <c r="AB57" s="61"/>
     </row>
     <row r="58" spans="4:28">
       <c r="D58" s="2"/>
       <c r="P58" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U58" s="48">
+        <v>23</v>
+      </c>
+      <c r="U58" s="44">
         <v>1</v>
       </c>
       <c r="W58" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y58" s="3">
         <v>1</v>
       </c>
-      <c r="AB58" s="60"/>
+      <c r="AB58" s="61"/>
     </row>
     <row r="59" spans="4:28">
       <c r="D59" s="2"/>
       <c r="P59" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U59" s="48">
+        <v>25</v>
+      </c>
+      <c r="U59" s="44">
         <v>1</v>
       </c>
       <c r="W59" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y59" s="3">
         <v>1</v>
       </c>
-      <c r="AB59" s="60"/>
-    </row>
-    <row r="60" ht="15.15" spans="16:28">
+      <c r="AB59" s="61"/>
+    </row>
+    <row r="60" ht="14.25" spans="16:28">
       <c r="P60" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="49">
+        <v>27</v>
+      </c>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="45">
         <v>1</v>
       </c>
       <c r="W60" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="65">
+        <v>27</v>
+      </c>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="64">
         <v>1</v>
       </c>
-      <c r="Z60" s="23"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="64"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="62"/>
     </row>
     <row r="61" spans="16:28">
       <c r="P61" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
-      <c r="U61" s="26"/>
+      <c r="U61" s="25"/>
       <c r="W61" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
@@ -6256,13 +5985,13 @@
       <c r="AA61" s="7"/>
       <c r="AB61" s="7"/>
     </row>
-    <row r="62" spans="16:28">
+    <row r="62" ht="14.25" spans="16:28">
       <c r="P62" s="8"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
-      <c r="U62" s="27"/>
+      <c r="U62" s="26"/>
       <c r="W62" s="8"/>
       <c r="X62" s="10"/>
       <c r="Y62" s="10"/>
@@ -6273,63 +6002,63 @@
     <row r="63" spans="16:28">
       <c r="P63" s="14"/>
       <c r="Q63" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="R63" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="S63" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="T63" t="s">
-        <v>88</v>
-      </c>
-      <c r="U63" s="60" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="U63" s="61" t="s">
+        <v>43</v>
       </c>
       <c r="W63" s="11"/>
-      <c r="X63" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y63" s="28" t="s">
+      <c r="X63" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y63" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z63" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Z63" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA63" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB63" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" ht="15.15" spans="16:28">
+      <c r="AA63" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB63" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="16:28">
       <c r="P64" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q64" t="s">
-        <v>89</v>
-      </c>
-      <c r="U64" s="48">
+        <v>71</v>
+      </c>
+      <c r="U64" s="44">
         <v>1</v>
       </c>
       <c r="W64" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="X64" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="23"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="64"/>
+        <v>53</v>
+      </c>
+      <c r="X64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="62"/>
     </row>
     <row r="65" spans="16:28">
       <c r="P65" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="U65" s="48">
+        <v>16</v>
+      </c>
+      <c r="U65" s="44">
         <v>1</v>
       </c>
       <c r="X65" t="e">
@@ -6355,9 +6084,9 @@
     </row>
     <row r="66" spans="16:28">
       <c r="P66" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="U66" s="48">
+        <v>20</v>
+      </c>
+      <c r="U66" s="44">
         <v>1</v>
       </c>
       <c r="AA66" t="e">
@@ -6371,17 +6100,17 @@
     </row>
     <row r="67" spans="16:21">
       <c r="P67" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U67" s="48">
+        <v>23</v>
+      </c>
+      <c r="U67" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="16:28">
       <c r="P68" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U68" s="48">
+        <v>25</v>
+      </c>
+      <c r="U68" s="44">
         <v>1</v>
       </c>
       <c r="X68" t="e">
@@ -6405,32 +6134,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="16:21">
+    <row r="69" ht="14.25" spans="16:21">
       <c r="P69" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="49">
+        <v>27</v>
+      </c>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="16:18">
       <c r="P71" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="Q71" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="R71" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="17:18">
       <c r="Q72" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="R72">
         <v>2</v>
@@ -6438,7 +6167,7 @@
     </row>
     <row r="73" spans="17:17">
       <c r="Q73" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6462,30 +6191,16 @@
     <mergeCell ref="P61:U62"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="P1:U2"/>
-    <mergeCell ref="W10:AB11"/>
-    <mergeCell ref="P14:U15"/>
     <mergeCell ref="W52:AB53"/>
     <mergeCell ref="W61:AB62"/>
-    <mergeCell ref="W1:Y2"/>
-    <mergeCell ref="Z1:AB2"/>
-    <mergeCell ref="I38:N41"/>
     <mergeCell ref="L55:N56"/>
+    <mergeCell ref="P33:U34"/>
+    <mergeCell ref="P24:R25"/>
+    <mergeCell ref="S24:U25"/>
+    <mergeCell ref="I33:N36"/>
+    <mergeCell ref="P14:U15"/>
   </mergeCells>
   <conditionalFormatting sqref="Q13:U13">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77432eb6-1da9-4997-8189-04635b0e136c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X13:AB13">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -6494,13 +6209,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3596d531-df01-41bb-b9d6-51abb1b64da5}</x14:id>
+          <x14:id>{a5322a12-6589-44ce-b306-1e16a1cf2d6a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:L37">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="D20:L20">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6508,18 +6223,32 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{73f3f0e3-c0c7-4416-a85a-f8a35a5ba226}</x14:id>
+          <x14:id>{1708211f-297e-4ab1-ad8c-b8bd9c9e7187}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C36">
-    <cfRule type="containsText" dxfId="0" priority="14" operator="between" text="q">
+  <conditionalFormatting sqref="Q36:U36">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4ed27d2e-325b-4fc6-9c71-15614a7f1384}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C19">
+    <cfRule type="containsText" dxfId="0" priority="15" operator="between" text="q">
       <formula>NOT(ISERROR(SEARCH("q",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D36">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="D6:D19">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6527,12 +6256,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fccbf56d-3a1c-4a6b-b3c5-d5c553fb9d54}</x14:id>
+          <x14:id>{1f5b86de-e686-4e95-b2d1-88467c4f5185}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M36">
+  <conditionalFormatting sqref="M6:M19">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f4e3eb7f-dfdd-4046-9493-0865633627e7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N19">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -6541,27 +6284,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ea9690ff-5fd0-46f2-b00b-d95a47025b26}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N36">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9200b44d-e0ce-48ea-a338-d0940af3250b}</x14:id>
+          <x14:id>{11ad697c-3515-4332-955d-328b0ed8f109}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:U8">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6572,8 +6301,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:Y8">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C6 C8:C19">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1134b7c0-49e7-44f6-a605-d4f2d2c0c5b0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I19 C6:C19 K6:K19 G6:G19 E6:E19">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="between" text="防御">
+      <formula>NOT(ISERROR(SEARCH("防御",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="11" operator="between" text="必杀">
+      <formula>NOT(ISERROR(SEARCH("必杀",C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:L19">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e6cee01f-9dbb-499d-9a6a-3d143aa7c622}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:T22">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6584,43 +6349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6 C8:C36">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9e6855a0-f55e-491e-8933-7557e517a86b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I36 C6:C36 K6:K36 G6:G36 E6:E36">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="between" text="防御">
-      <formula>NOT(ISERROR(SEARCH("防御",C6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="10" operator="between" text="必杀">
-      <formula>NOT(ISERROR(SEARCH("必杀",C6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:L36">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d8a43285-621f-4f50-8bf9-d44168bd3306}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:T22">
+  <conditionalFormatting sqref="Q27:R31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6639,7 +6368,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{77432eb6-1da9-4997-8189-04635b0e136c}">
+          <x14:cfRule type="dataBar" id="{a5322a12-6589-44ce-b306-1e16a1cf2d6a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6652,7 +6381,7 @@
           <xm:sqref>Q13:U13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3596d531-df01-41bb-b9d6-51abb1b64da5}">
+          <x14:cfRule type="dataBar" id="{1708211f-297e-4ab1-ad8c-b8bd9c9e7187}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6662,10 +6391,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>X13:AB13</xm:sqref>
+          <xm:sqref>D20:L20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{73f3f0e3-c0c7-4416-a85a-f8a35a5ba226}">
+          <x14:cfRule type="dataBar" id="{4ed27d2e-325b-4fc6-9c71-15614a7f1384}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6675,10 +6404,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37:L37</xm:sqref>
+          <xm:sqref>Q36:U36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fccbf56d-3a1c-4a6b-b3c5-d5c553fb9d54}">
+          <x14:cfRule type="dataBar" id="{1f5b86de-e686-4e95-b2d1-88467c4f5185}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6688,10 +6417,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D36</xm:sqref>
+          <xm:sqref>D6:D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ea9690ff-5fd0-46f2-b00b-d95a47025b26}">
+          <x14:cfRule type="dataBar" id="{f4e3eb7f-dfdd-4046-9493-0865633627e7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6701,10 +6430,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M6:M36</xm:sqref>
+          <xm:sqref>M6:M19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9200b44d-e0ce-48ea-a338-d0940af3250b}">
+          <x14:cfRule type="dataBar" id="{11ad697c-3515-4332-955d-328b0ed8f109}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6714,10 +6443,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N6:N36</xm:sqref>
+          <xm:sqref>N6:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9e6855a0-f55e-491e-8933-7557e517a86b}">
+          <x14:cfRule type="dataBar" id="{1134b7c0-49e7-44f6-a605-d4f2d2c0c5b0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6727,10 +6456,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6 C8:C36</xm:sqref>
+          <xm:sqref>C6 C8:C19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d8a43285-621f-4f50-8bf9-d44168bd3306}">
+          <x14:cfRule type="dataBar" id="{e6cee01f-9dbb-499d-9a6a-3d143aa7c622}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6740,7 +6469,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:L36</xm:sqref>
+          <xm:sqref>D6:L19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6757,24 +6486,24 @@
       <selection activeCell="A1" sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="8.22222222222222" customWidth="1"/>
-    <col min="4" max="4" width="7.22222222222222" customWidth="1"/>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="19.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="22.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="8.225" customWidth="1"/>
+    <col min="4" max="4" width="7.225" customWidth="1"/>
+    <col min="5" max="5" width="16.8916666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.225" customWidth="1"/>
+    <col min="7" max="7" width="19.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="22.775" customWidth="1"/>
     <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="15.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" ht="19" customHeight="1"/>
     <row r="11" spans="16:21">
       <c r="P11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U11" s="3">
         <v>1</v>
@@ -6782,7 +6511,7 @@
     </row>
     <row r="12" spans="16:21">
       <c r="P12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U12" s="3">
         <v>1</v>
@@ -6790,7 +6519,7 @@
     </row>
     <row r="13" spans="16:21">
       <c r="P13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U13" s="3">
         <v>1</v>
@@ -6798,7 +6527,7 @@
     </row>
     <row r="14" spans="16:21">
       <c r="P14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U14" s="3">
         <v>1</v>
@@ -6814,7 +6543,7 @@
     </row>
     <row r="16" spans="16:21">
       <c r="P16" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -6832,29 +6561,29 @@
     </row>
     <row r="18" spans="17:21">
       <c r="Q18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" t="s">
         <v>20</v>
       </c>
-      <c r="S18" t="s">
-        <v>24</v>
-      </c>
       <c r="T18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="16:16">
       <c r="P19" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="16:21">
       <c r="P21" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -6872,24 +6601,24 @@
     </row>
     <row r="23" spans="17:21">
       <c r="Q23" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="R23" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="S23" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="T23" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="U23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="16:21">
       <c r="P24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U24" s="3">
         <v>1</v>
@@ -6897,7 +6626,7 @@
     </row>
     <row r="25" spans="16:21">
       <c r="P25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U25" s="3">
         <v>1</v>
@@ -6905,7 +6634,7 @@
     </row>
     <row r="26" spans="16:21">
       <c r="P26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U26" s="3">
         <v>1</v>
@@ -6913,7 +6642,7 @@
     </row>
     <row r="27" spans="16:21">
       <c r="P27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U27" s="3">
         <v>1</v>
@@ -6921,7 +6650,7 @@
     </row>
     <row r="28" spans="16:21">
       <c r="P28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U28" s="3">
         <v>1</v>
@@ -6929,7 +6658,7 @@
     </row>
     <row r="29" spans="16:21">
       <c r="P29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U29" s="3">
         <v>1</v>
@@ -6937,7 +6666,7 @@
     </row>
     <row r="31" spans="16:21">
       <c r="P31" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -6955,15 +6684,15 @@
     </row>
     <row r="33" spans="17:18">
       <c r="Q33" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="R33" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="16:18">
       <c r="P34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R34" s="3">
         <v>1</v>
@@ -6971,7 +6700,7 @@
     </row>
     <row r="35" spans="16:18">
       <c r="P35" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R35" s="3">
         <v>1</v>
@@ -6979,7 +6708,7 @@
     </row>
     <row r="36" spans="16:18">
       <c r="P36" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R36" s="3">
         <v>1</v>
@@ -6987,7 +6716,7 @@
     </row>
     <row r="37" spans="16:18">
       <c r="P37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R37" s="3">
         <v>1</v>
@@ -6995,7 +6724,7 @@
     </row>
     <row r="38" spans="16:18">
       <c r="P38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R38" s="3">
         <v>1</v>
@@ -7003,7 +6732,7 @@
     </row>
     <row r="39" spans="16:18">
       <c r="P39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R39" s="3">
         <v>1</v>

--- a/src/main/resources/全方位测试输出表样板.xlsx
+++ b/src/main/resources/全方位测试输出表样板.xlsx
@@ -4526,7 +4526,7 @@
   <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="33" spans="9:21">
       <c r="I33" s="40" t="str">
-        <f>COUNT($N:$N)&amp;"回合伤害："&amp;R50</f>
+        <f>COUNT($N:$N)&amp;"回合伤害："&amp;TEXT(R50,"#,##0")</f>
         <v>14回合伤害：665</v>
       </c>
       <c r="J33" s="40"/>
@@ -6209,7 +6209,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a5322a12-6589-44ce-b306-1e16a1cf2d6a}</x14:id>
+          <x14:id>{62039e1a-34ed-45da-b73e-73bc4f9f975d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6223,7 +6223,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1708211f-297e-4ab1-ad8c-b8bd9c9e7187}</x14:id>
+          <x14:id>{8de49ffe-f326-4731-a9a5-df51623e937f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6237,7 +6237,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ed27d2e-325b-4fc6-9c71-15614a7f1384}</x14:id>
+          <x14:id>{6c071c8c-ff9d-4e48-98f2-2a757e733208}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6256,7 +6256,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5b86de-e686-4e95-b2d1-88467c4f5185}</x14:id>
+          <x14:id>{1fedfe67-5db7-49b8-a04e-999690790b04}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6270,7 +6270,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4e3eb7f-dfdd-4046-9493-0865633627e7}</x14:id>
+          <x14:id>{53d36081-be76-4457-ae01-d0605cfb48e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6284,7 +6284,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11ad697c-3515-4332-955d-328b0ed8f109}</x14:id>
+          <x14:id>{ca918798-4c7c-46e9-b247-15266a883c44}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6310,7 +6310,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1134b7c0-49e7-44f6-a605-d4f2d2c0c5b0}</x14:id>
+          <x14:id>{85b0d0cf-ffe6-4ecd-b2c1-a579aba7bfe7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6332,7 +6332,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e6cee01f-9dbb-499d-9a6a-3d143aa7c622}</x14:id>
+          <x14:id>{4c0eb9f4-6ae5-4b14-a939-fe4b93367d82}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6368,7 +6368,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a5322a12-6589-44ce-b306-1e16a1cf2d6a}">
+          <x14:cfRule type="dataBar" id="{62039e1a-34ed-45da-b73e-73bc4f9f975d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6381,7 +6381,7 @@
           <xm:sqref>Q13:U13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1708211f-297e-4ab1-ad8c-b8bd9c9e7187}">
+          <x14:cfRule type="dataBar" id="{8de49ffe-f326-4731-a9a5-df51623e937f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6394,7 +6394,7 @@
           <xm:sqref>D20:L20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4ed27d2e-325b-4fc6-9c71-15614a7f1384}">
+          <x14:cfRule type="dataBar" id="{6c071c8c-ff9d-4e48-98f2-2a757e733208}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6407,7 +6407,7 @@
           <xm:sqref>Q36:U36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5b86de-e686-4e95-b2d1-88467c4f5185}">
+          <x14:cfRule type="dataBar" id="{1fedfe67-5db7-49b8-a04e-999690790b04}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6420,7 +6420,7 @@
           <xm:sqref>D6:D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f4e3eb7f-dfdd-4046-9493-0865633627e7}">
+          <x14:cfRule type="dataBar" id="{53d36081-be76-4457-ae01-d0605cfb48e7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6433,7 +6433,7 @@
           <xm:sqref>M6:M19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11ad697c-3515-4332-955d-328b0ed8f109}">
+          <x14:cfRule type="dataBar" id="{ca918798-4c7c-46e9-b247-15266a883c44}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6446,7 +6446,7 @@
           <xm:sqref>N6:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1134b7c0-49e7-44f6-a605-d4f2d2c0c5b0}">
+          <x14:cfRule type="dataBar" id="{85b0d0cf-ffe6-4ecd-b2c1-a579aba7bfe7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6459,7 +6459,7 @@
           <xm:sqref>C6 C8:C19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e6cee01f-9dbb-499d-9a6a-3d143aa7c622}">
+          <x14:cfRule type="dataBar" id="{4c0eb9f4-6ae5-4b14-a939-fe4b93367d82}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/src/main/resources/全方位测试输出表样板.xlsx
+++ b/src/main/resources/全方位测试输出表样板.xlsx
@@ -281,7 +281,7 @@
     <numFmt numFmtId="176" formatCode="[&gt;=100000000]0\.00,,&quot;亿&quot;;[&gt;=10000]0\.0,&quot;万&quot;;0"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +323,13 @@
       <color rgb="FF0A0101"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1145,133 +1152,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,10 +1403,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1966,11 +1973,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1979,10 +1986,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1920"/>
               <a:t>累计伤害曲线</a:t>
             </a:r>
-            <a:endParaRPr sz="1920"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1990,8 +1995,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39129748106203"/>
-          <c:y val="0.0627245220957748"/>
+          <c:x val="0.324101768395844"/>
+          <c:y val="0.0130588105389458"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2035,13 +2040,41 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:tint val="76667"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="76667"/>
+                    <a:hueOff val="-1670000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="76667"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="76667"/>
+                      <a:lumMod val="75000"/>
+                      <a:hueOff val="-1670000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="76667"/>
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5160000" scaled="1"/>
+              </a:gradFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2054,7 +2087,7 @@
               <c:f>[0]!伤害差值</c:f>
               <c:numCache>
                 <c:formatCode>[&gt;=100000000]0\.00,,"亿";[&gt;=10000]0\.0,"万";0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2070,33 +2103,6 @@
                 <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2109,8 +2115,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="13718327"/>
         <c:axId val="687111009"/>
       </c:barChart>
@@ -2133,11 +2139,22 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="76667"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="76667"/>
+                      <a:hueOff val="-1670000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="76667"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5160000" scaled="1"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2152,7 +2169,7 @@
             <c:strRef>
               <c:f>[0]满配伤害!回合数</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1T</c:v>
                 </c:pt>
@@ -2168,33 +2185,6 @@
                 <c:pt idx="4">
                   <c:v>5T</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6T</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7T</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8T</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9T</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10T</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11T</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12T</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13T</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14T</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -2203,7 +2193,7 @@
               <c:f>[0]满配伤害!累积伤害</c:f>
               <c:numCache>
                 <c:formatCode>[&gt;=100000000]0\.00,,"亿";[&gt;=10000]0\.0,"万";0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2218,33 +2208,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2278,7 +2241,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2292,9 +2255,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2324,9 +2287,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2350,9 +2312,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2383,9 +2345,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2427,9 +2389,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2454,15 +2416,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.111822162344224"/>
-          <c:y val="0.136248872858431"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2476,9 +2431,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -2497,7 +2452,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="96000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2515,7 +2472,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="zh-CN" sz="1600"/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
     </a:p>
   </c:txPr>
@@ -3142,13 +3099,13 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10304">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3160,7 +3117,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3168,7 +3125,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3187,7 +3144,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="96000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3206,12 +3165,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3236,24 +3195,55 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:hueOff val="-1670000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="75000"/>
+                <a:hueOff val="-1670000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5160000" scaled="1"/>
+        </a:gradFill>
+      </a:ln>
+      <a:effectLst/>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -3265,28 +3255,34 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-1670000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5160000" scaled="1"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
+      <a:effectLst/>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -3301,9 +3297,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3335,7 +3328,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3344,7 +3337,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3359,22 +3352,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3386,14 +3380,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3407,7 +3400,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3440,9 +3433,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3476,14 +3468,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3495,14 +3486,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3511,7 +3501,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3539,11 +3529,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3554,14 +3555,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3570,12 +3570,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3600,7 +3600,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3612,19 +3612,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3633,7 +3634,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3678,8 +3679,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16666210" y="4627880"/>
-        <a:ext cx="2123440" cy="1183640"/>
+        <a:off x="16666210" y="4637405"/>
+        <a:ext cx="2123440" cy="1193165"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3697,10 +3698,10 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>159385</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3708,8 +3709,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="74295" y="3908425"/>
-        <a:ext cx="4711700" cy="2788285"/>
+        <a:off x="74295" y="3917950"/>
+        <a:ext cx="6163310" cy="2646045"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3721,14 +3722,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>106045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1055370</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21590</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:to>
@@ -3739,8 +3740,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9299575" y="4043045"/>
-          <a:ext cx="3923030" cy="1683385"/>
+          <a:off x="10442575" y="4052570"/>
+          <a:ext cx="3923030" cy="1692910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3873,7 +3874,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10234295" y="3779520"/>
+          <a:off x="10234295" y="3789045"/>
           <a:ext cx="309880" cy="267970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3908,16 +3909,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>287020</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103505</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3926,8 +3927,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5200650" y="4015105"/>
-          <a:ext cx="3866515" cy="1737995"/>
+          <a:off x="6435090" y="4024630"/>
+          <a:ext cx="3866515" cy="1731645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4526,7 +4527,7 @@
   <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -4580,7 +4581,7 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" ht="14.25" spans="1:21">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -4768,7 +4769,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="32">
-        <f>IF(L6="","",SUM(D6,F6,H6,J6,L6))</f>
+        <f t="shared" ref="M6:M19" si="4">IF(L6="","",SUM(D6,F6,H6,J6,L6))</f>
         <v>15</v>
       </c>
       <c r="N6" s="33">
@@ -4821,7 +4822,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="32">
-        <f>IF(L7="","",SUM(D7,F7,H7,J7,L7))</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="N7" s="33">
@@ -4872,7 +4873,7 @@
         <v>7</v>
       </c>
       <c r="M8" s="32">
-        <f>IF(L8="","",SUM(D8,F8,H8,J8,L8))</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N8" s="33">
@@ -4923,7 +4924,7 @@
         <v>8</v>
       </c>
       <c r="M9" s="32">
-        <f>IF(L9="","",SUM(D9,F9,H9,J9,L9))</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="N9" s="33">
@@ -4974,7 +4975,7 @@
         <v>9</v>
       </c>
       <c r="M10" s="32">
-        <f>IF(L10="","",SUM(D10,F10,H10,J10,L10))</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="N10" s="33">
@@ -4995,28 +4996,13 @@
         <v>30</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11" s="32">
-        <f>IF(L11="","",SUM(D11,F11,H11,J11,L11))</f>
-        <v>40</v>
-      </c>
-      <c r="N11" s="33">
+      <c r="M11" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N11" s="33" t="str">
         <f>IF(M11="","",SUM(M$6:M11))</f>
-        <v>165</v>
+        <v/>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="10"/>
@@ -5030,28 +5016,13 @@
         <v>31</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12" s="32">
-        <f>IF(L12="","",SUM(D12,F12,H12,J12,L12))</f>
-        <v>45</v>
-      </c>
-      <c r="N12" s="33">
+      <c r="M12" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N12" s="33" t="str">
         <f>IF(M12="","",SUM(M$6:M12))</f>
-        <v>210</v>
+        <v/>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="46" t="s">
@@ -5075,39 +5046,24 @@
         <v>32</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13" s="32">
-        <f>IF(L13="","",SUM(D13,F13,H13,J13,L13))</f>
-        <v>50</v>
-      </c>
-      <c r="N13" s="33">
+      <c r="M13" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N13" s="33" t="str">
         <f>IF(M13="","",SUM(M$6:M13))</f>
-        <v>260</v>
+        <v/>
       </c>
       <c r="P13" s="21" t="s">
         <v>33</v>
       </c>
       <c r="Q13" s="48">
         <f>D20/R50</f>
-        <v>0.157894736842105</v>
+        <v>0.12</v>
       </c>
       <c r="R13" s="48">
         <f>F20/R50</f>
-        <v>0.178947368421053</v>
+        <v>0.16</v>
       </c>
       <c r="S13" s="48">
         <f>H20/R50</f>
@@ -5115,11 +5071,11 @@
       </c>
       <c r="T13" s="48">
         <f>J20/$R$50</f>
-        <v>0.221052631578947</v>
+        <v>0.24</v>
       </c>
       <c r="U13" s="49">
         <f>L20/$R$50</f>
-        <v>0.242105263157895</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:21">
@@ -5127,28 +5083,13 @@
         <v>34</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>11</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14" s="32">
-        <f>IF(L14="","",SUM(D14,F14,H14,J14,L14))</f>
-        <v>55</v>
-      </c>
-      <c r="N14" s="33">
+      <c r="M14" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N14" s="33" t="str">
         <f>IF(M14="","",SUM(M$6:M14))</f>
-        <v>315</v>
+        <v/>
       </c>
       <c r="P14" s="5" t="s">
         <v>35</v>
@@ -5164,28 +5105,13 @@
         <v>36</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="J15">
-        <v>13</v>
-      </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15" s="32">
-        <f>IF(L15="","",SUM(D15,F15,H15,J15,L15))</f>
-        <v>60</v>
-      </c>
-      <c r="N15" s="33">
+      <c r="M15" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N15" s="33" t="str">
         <f>IF(M15="","",SUM(M$6:M15))</f>
-        <v>375</v>
+        <v/>
       </c>
       <c r="P15" s="34"/>
       <c r="Q15" s="50"/>
@@ -5199,28 +5125,13 @@
         <v>37</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="H16">
-        <v>13</v>
-      </c>
-      <c r="J16">
-        <v>14</v>
-      </c>
-      <c r="L16">
-        <v>15</v>
-      </c>
-      <c r="M16" s="32">
-        <f>IF(L16="","",SUM(D16,F16,H16,J16,L16))</f>
-        <v>65</v>
-      </c>
-      <c r="N16" s="33">
+      <c r="M16" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N16" s="33" t="str">
         <f>IF(M16="","",SUM(M$6:M16))</f>
-        <v>440</v>
+        <v/>
       </c>
       <c r="P16" s="35" t="s">
         <v>38</v>
@@ -5246,28 +5157,13 @@
         <v>44</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="J17">
-        <v>15</v>
-      </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-      <c r="M17" s="32">
-        <f>IF(L17="","",SUM(D17,F17,H17,J17,L17))</f>
-        <v>70</v>
-      </c>
-      <c r="N17" s="33">
+      <c r="M17" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N17" s="33" t="str">
         <f>IF(M17="","",SUM(M$6:M17))</f>
-        <v>510</v>
+        <v/>
       </c>
       <c r="P17" s="36"/>
       <c r="Q17" s="54">
@@ -5291,46 +5187,31 @@
         <v>45</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="J18">
-        <v>16</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18" s="32">
-        <f>IF(L18="","",SUM(D18,F18,H18,J18,L18))</f>
-        <v>75</v>
-      </c>
-      <c r="N18" s="33">
+      <c r="M18" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N18" s="33" t="str">
         <f>IF(M18="","",SUM(M$6:M18))</f>
-        <v>585</v>
+        <v/>
       </c>
       <c r="P18" s="14" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="43" t="e">
-        <f t="shared" ref="Q18:T18" si="4">Q64/$R$50</f>
+        <f t="shared" ref="Q18:T18" si="5">Q64/$R$50</f>
         <v>#VALUE!</v>
       </c>
       <c r="R18" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S18" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T18" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U18" s="44">
@@ -5342,46 +5223,31 @@
         <v>46</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="F19">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <v>16</v>
-      </c>
-      <c r="J19">
-        <v>17</v>
-      </c>
-      <c r="L19">
-        <v>18</v>
-      </c>
-      <c r="M19" s="32">
-        <f>IF(L19="","",SUM(D19,F19,H19,J19,L19))</f>
-        <v>80</v>
-      </c>
-      <c r="N19" s="33">
+      <c r="M19" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N19" s="33" t="str">
         <f>IF(M19="","",SUM(M$6:M19))</f>
-        <v>665</v>
+        <v/>
       </c>
       <c r="P19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="Q19" s="43">
-        <f t="shared" ref="Q19:T19" si="5">Q65/$R$50</f>
+        <f t="shared" ref="Q19:T19" si="6">Q65/$R$50</f>
         <v>0</v>
       </c>
       <c r="R19" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S19" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T19" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U19" s="44">
@@ -5396,7 +5262,7 @@
       <c r="C20" s="22"/>
       <c r="D20" s="23">
         <f>SUM(D$6:D19)</f>
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E20" s="23">
         <f>SUM(E$6:E19)</f>
@@ -5404,7 +5270,7 @@
       </c>
       <c r="F20" s="23">
         <f>SUM(F$6:F19)</f>
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="G20" s="23">
         <f>SUM(G$6:G19)</f>
@@ -5412,7 +5278,7 @@
       </c>
       <c r="H20" s="23">
         <f>SUM(H$6:H19)</f>
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="I20" s="23">
         <f>SUM(I$6:I19)</f>
@@ -5420,7 +5286,7 @@
       </c>
       <c r="J20" s="23">
         <f>SUM(J$6:J19)</f>
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="K20" s="23">
         <f>SUM(K$6:K19)</f>
@@ -5428,7 +5294,7 @@
       </c>
       <c r="L20" s="23">
         <f>SUM(L$6:L19)</f>
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="37"/>
@@ -5436,19 +5302,19 @@
         <v>20</v>
       </c>
       <c r="Q20" s="43">
-        <f t="shared" ref="Q20:T20" si="6">Q66/$R$50</f>
+        <f t="shared" ref="Q20:T20" si="7">Q66/$R$50</f>
         <v>0</v>
       </c>
       <c r="R20" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S20" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T20" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U20" s="44">
@@ -5460,19 +5326,19 @@
         <v>23</v>
       </c>
       <c r="Q21" s="43">
-        <f t="shared" ref="Q21:T21" si="7">Q67/$R$50</f>
+        <f t="shared" ref="Q21:T21" si="8">Q67/$R$50</f>
         <v>0</v>
       </c>
       <c r="R21" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S21" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T21" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U21" s="44">
@@ -5484,19 +5350,19 @@
         <v>25</v>
       </c>
       <c r="Q22" s="43">
-        <f t="shared" ref="Q22:T22" si="8">Q68/$R$50</f>
+        <f t="shared" ref="Q22:T22" si="9">Q68/$R$50</f>
         <v>0</v>
       </c>
       <c r="R22" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S22" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T22" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U22" s="44">
@@ -5508,19 +5374,19 @@
         <v>27</v>
       </c>
       <c r="Q23" s="48">
-        <f t="shared" ref="Q23:T23" si="9">Q69/$R$50</f>
+        <f t="shared" ref="Q23:T23" si="10">Q69/$R$50</f>
         <v>0</v>
       </c>
       <c r="R23" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S23" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U23" s="45">
@@ -5539,7 +5405,7 @@
       <c r="T24" s="56"/>
       <c r="U24" s="57"/>
     </row>
-    <row r="25" spans="16:21">
+    <row r="25" ht="14.25" spans="16:21">
       <c r="P25" s="39"/>
       <c r="Q25" s="58"/>
       <c r="R25" s="59"/>
@@ -5564,7 +5430,7 @@
         <v>10</v>
       </c>
       <c r="Q27" s="43" t="e">
-        <f t="shared" ref="Q27:Q32" si="10">X55/$R$50</f>
+        <f t="shared" ref="Q27:Q32" si="11">X55/$R$50</f>
         <v>#VALUE!</v>
       </c>
       <c r="R27" s="44">
@@ -5578,7 +5444,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R28" s="44">
@@ -5592,7 +5458,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R29" s="44">
@@ -5606,7 +5472,7 @@
         <v>23</v>
       </c>
       <c r="Q30" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R30" s="44">
@@ -5620,7 +5486,7 @@
         <v>25</v>
       </c>
       <c r="Q31" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R31" s="44">
@@ -5634,7 +5500,7 @@
         <v>27</v>
       </c>
       <c r="Q32" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R32" s="45">
@@ -5644,13 +5510,13 @@
       <c r="T32" s="22"/>
       <c r="U32" s="62"/>
     </row>
-    <row r="33" spans="9:21">
-      <c r="I33" s="40" t="str">
-        <f>COUNT($N:$N)&amp;"回合伤害："&amp;TEXT(R50,"#,##0")</f>
-        <v>14回合伤害：665</v>
-      </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
+    <row r="33" ht="14.25" customHeight="1" spans="9:21">
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="40" t="str">
+        <f>COUNT($N:$N)&amp;"回合伤害："&amp;TEXT(R50/100000000,"0.0亿")</f>
+        <v>5回合伤害：0.0亿</v>
+      </c>
       <c r="L33" s="40"/>
       <c r="M33" s="40"/>
       <c r="N33" s="40"/>
@@ -5663,9 +5529,9 @@
       <c r="T33" s="7"/>
       <c r="U33" s="25"/>
     </row>
-    <row r="34" spans="9:21">
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
+    <row r="34" ht="14.25" customHeight="1" spans="9:21">
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="40"/>
       <c r="L34" s="40"/>
       <c r="M34" s="40"/>
@@ -5677,9 +5543,9 @@
       <c r="T34" s="10"/>
       <c r="U34" s="26"/>
     </row>
-    <row r="35" spans="9:21">
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+    <row r="35" ht="14.25" customHeight="1" spans="9:21">
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="40"/>
       <c r="L35" s="40"/>
       <c r="M35" s="40"/>
@@ -5701,9 +5567,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="9:21">
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+    <row r="36" customFormat="1" ht="14.25" customHeight="1" spans="9:21">
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="40"/>
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
@@ -5757,11 +5623,11 @@
       </c>
       <c r="Q50">
         <f>SUM(D20,F20,H20,J20,L20)</f>
-        <v>665</v>
+        <v>125</v>
       </c>
       <c r="R50" s="32">
         <f>IF(Q50=0,1,Q50)</f>
-        <v>665</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" ht="14.25"/>
@@ -6197,8 +6063,8 @@
     <mergeCell ref="P33:U34"/>
     <mergeCell ref="P24:R25"/>
     <mergeCell ref="S24:U25"/>
-    <mergeCell ref="I33:N36"/>
     <mergeCell ref="P14:U15"/>
+    <mergeCell ref="K33:N36"/>
   </mergeCells>
   <conditionalFormatting sqref="Q13:U13">
     <cfRule type="dataBar" priority="2">
@@ -6209,7 +6075,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{62039e1a-34ed-45da-b73e-73bc4f9f975d}</x14:id>
+          <x14:id>{a6f3b36a-d835-42e0-8ccd-74a49621b752}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6223,7 +6089,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8de49ffe-f326-4731-a9a5-df51623e937f}</x14:id>
+          <x14:id>{701a4779-c7d5-49e0-911c-d9f4af3e5944}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6237,7 +6103,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6c071c8c-ff9d-4e48-98f2-2a757e733208}</x14:id>
+          <x14:id>{a86c27cd-f6f3-4bd4-be9b-427214287ac4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6256,7 +6122,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1fedfe67-5db7-49b8-a04e-999690790b04}</x14:id>
+          <x14:id>{22938d03-cde8-4bf9-aa3e-e4a46a5ea3ed}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6270,7 +6136,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{53d36081-be76-4457-ae01-d0605cfb48e7}</x14:id>
+          <x14:id>{62dca971-02ad-402f-a931-c72b07178598}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6284,7 +6150,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ca918798-4c7c-46e9-b247-15266a883c44}</x14:id>
+          <x14:id>{1a84c554-ad2c-436c-9a49-ed56e1e244cb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6310,7 +6176,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85b0d0cf-ffe6-4ecd-b2c1-a579aba7bfe7}</x14:id>
+          <x14:id>{82cef671-3641-4687-a257-9b752a74896a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6332,7 +6198,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4c0eb9f4-6ae5-4b14-a939-fe4b93367d82}</x14:id>
+          <x14:id>{3e4c50e4-7395-4511-83b3-e1a83efbbc8d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6368,7 +6234,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{62039e1a-34ed-45da-b73e-73bc4f9f975d}">
+          <x14:cfRule type="dataBar" id="{a6f3b36a-d835-42e0-8ccd-74a49621b752}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6381,7 +6247,7 @@
           <xm:sqref>Q13:U13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8de49ffe-f326-4731-a9a5-df51623e937f}">
+          <x14:cfRule type="dataBar" id="{701a4779-c7d5-49e0-911c-d9f4af3e5944}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6394,7 +6260,7 @@
           <xm:sqref>D20:L20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6c071c8c-ff9d-4e48-98f2-2a757e733208}">
+          <x14:cfRule type="dataBar" id="{a86c27cd-f6f3-4bd4-be9b-427214287ac4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6407,7 +6273,7 @@
           <xm:sqref>Q36:U36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1fedfe67-5db7-49b8-a04e-999690790b04}">
+          <x14:cfRule type="dataBar" id="{22938d03-cde8-4bf9-aa3e-e4a46a5ea3ed}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6420,7 +6286,7 @@
           <xm:sqref>D6:D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{53d36081-be76-4457-ae01-d0605cfb48e7}">
+          <x14:cfRule type="dataBar" id="{62dca971-02ad-402f-a931-c72b07178598}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6433,7 +6299,7 @@
           <xm:sqref>M6:M19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ca918798-4c7c-46e9-b247-15266a883c44}">
+          <x14:cfRule type="dataBar" id="{1a84c554-ad2c-436c-9a49-ed56e1e244cb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6446,7 +6312,7 @@
           <xm:sqref>N6:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85b0d0cf-ffe6-4ecd-b2c1-a579aba7bfe7}">
+          <x14:cfRule type="dataBar" id="{82cef671-3641-4687-a257-9b752a74896a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6459,7 +6325,7 @@
           <xm:sqref>C6 C8:C19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4c0eb9f4-6ae5-4b14-a939-fe4b93367d82}">
+          <x14:cfRule type="dataBar" id="{3e4c50e4-7395-4511-83b3-e1a83efbbc8d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
